--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_Parallel\VFQA-master_Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="272">
   <si>
     <t>Application_Details</t>
   </si>
@@ -847,49 +847,10 @@
     <t>Modify Spend Limit</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152101||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152100||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>Batch2</t>
-  </si>
-  <si>
     <t>UpgradePromotion_Acc360</t>
   </si>
   <si>
     <t>UpgradePromotion</t>
-  </si>
-  <si>
-    <t>TestCase2</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152102||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>Batch3</t>
-  </si>
-  <si>
-    <t>TestCase3</t>
-  </si>
-  <si>
-    <t>TestCase4</t>
-  </si>
-  <si>
-    <t>TestCase5</t>
-  </si>
-  <si>
-    <t>TestCase1</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152100||New_PlanName--Postpaid Professional Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152102||New_PlanName--Postpaid Professional Promotion||</t>
   </si>
 </sst>
 </file>
@@ -1650,9 +1611,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,136 +1647,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H6" t="s">
-        <v>271</v>
-      </c>
-    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2593,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -2625,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>15</v>
@@ -2702,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>25</v>
@@ -5306,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>12</v>
@@ -5323,10 +5157,10 @@
         <v>2</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>15</v>
@@ -5340,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>73</v>
@@ -5357,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>27</v>
@@ -5374,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>29</v>
@@ -5391,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>31</v>
@@ -5408,7 +5242,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="273">
   <si>
     <t>Application_Details</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>UpgradePromotion</t>
+  </si>
+  <si>
+    <t>LanguageChange</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1489,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1659,10 +1662,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E392"/>
+  <dimension ref="A1:E396"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="K379" sqref="K379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>138</v>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>138</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>138</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>138</v>
@@ -2324,8 +2327,8 @@
       <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>34</v>
+      <c r="B42" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2333,7 +2336,7 @@
       <c r="D42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2341,3238 +2344,3194 @@
       <c r="A43" s="3">
         <v>2</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>34</v>
+      <c r="B43" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>35</v>
+      <c r="E43" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>27</v>
+      <c r="B44" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>29</v>
+      <c r="B45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>30</v>
+      <c r="E45" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>5</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>31</v>
+      <c r="B46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>76</v>
+      <c r="E46" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>25</v>
+      <c r="B47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>1</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>271</v>
+        <v>8</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>2</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="5" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>3</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>271</v>
+        <v>10</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>4</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>5</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>6</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>7</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="6" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>8</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>1</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>2</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>3</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>39</v>
+        <v>140</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>41</v>
+        <v>140</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>42</v>
+      <c r="E64" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>20</v>
+      <c r="E65" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>6</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A67" s="11"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>22</v>
+      <c r="E74" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>135</v>
+      <c r="E76" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>73</v>
+        <v>182</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>31</v>
+        <v>182</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="11"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>1</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+      <c r="D82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>1</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>2</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>182</v>
+        <v>3</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>44</v>
+      <c r="E84" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>3</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>4</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>20</v>
+      <c r="E86" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>5</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>22</v>
+      <c r="E87" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>6</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>7</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>137</v>
+        <v>5</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>8</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>135</v>
+        <v>5</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>9</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>10</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>182</v>
+        <v>3</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>11</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
+        <v>1</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D94" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>13</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="D96" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>1</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>2</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>3</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>45</v>
+      <c r="E99" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>4</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>141</v>
+        <v>3</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>20</v>
+      <c r="E100" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>5</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>141</v>
+        <v>4</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>22</v>
+      <c r="E101" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
+        <v>5</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>24</v>
+      <c r="E102" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>7</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>134</v>
+        <v>6</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>135</v>
+      <c r="E103" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>8</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>9</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>10</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>3</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>29</v>
+      <c r="C112" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>73</v>
+      <c r="C113" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>69</v>
+      <c r="C114" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>73</v>
+      <c r="C115" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>8</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>3</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>2</v>
-      </c>
-      <c r="B122" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C122" s="5" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>3</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>4</v>
-      </c>
-      <c r="B124" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C124" s="5" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>71</v>
+      <c r="C125" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>6</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="5" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>7</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
-        <v>8</v>
-      </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>9</v>
-      </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="6" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>10</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>3</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>27</v>
+      <c r="C133" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>29</v>
+      <c r="C134" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>73</v>
+      <c r="C135" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
-        <v>7</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>8</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>77</v>
+        <v>5</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>9</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C140" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>3</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="6" t="s">
+      <c r="D141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
-        <v>1</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
+        <v>2</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
         <v>3</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>26</v>
+      <c r="B145" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>202</v>
+        <v>101</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="C148" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>7</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="6" t="s">
+      <c r="D149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
-        <v>1</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
+        <v>2</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
         <v>3</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>26</v>
+      <c r="B153" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>2</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>2</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>1</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>2</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>3</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>1</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
-        <v>3</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E164" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>1</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>90</v>
+        <v>202</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>3</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E168" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>1</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>1</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>2</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
-        <v>3</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="A173" s="3">
+        <v>1</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>111</v>
+        <v>83</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>3</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>9</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>1</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
-        <v>3</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
-        <v>7</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E188" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>1</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>12</v>
+        <v>205</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>58</v>
+        <v>205</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
-        <v>3</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E192" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>1</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>12</v>
+        <v>206</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>60</v>
+        <v>206</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
-        <v>3</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E196" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>1</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
-        <v>3</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
-        <v>7</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>203</v>
+        <v>111</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>25</v>
+        <v>111</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>110</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>6</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>1</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>107</v>
+        <v>7</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E211" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
-        <v>2</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>44</v>
+      <c r="E211" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>3</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>4</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E214" s="5" t="s">
-        <v>20</v>
+      <c r="E214" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>5</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C215" s="5" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
-        <v>6</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>7</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>135</v>
+        <v>5</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>8</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>107</v>
+        <v>2</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C218" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>3</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C219" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D218" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E218" s="6" t="s">
+      <c r="D219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
-        <v>1</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
+        <v>2</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
         <v>3</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C222" s="6" t="s">
+      <c r="B223" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D222" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="6" t="s">
+      <c r="D223" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
-        <v>1</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>205</v>
+        <v>270</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
+        <v>2</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
         <v>3</v>
       </c>
-      <c r="B226" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B227" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>12</v>
+        <v>270</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>206</v>
+        <v>270</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C230" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>7</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D230" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E230" s="6" t="s">
+      <c r="D231" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
-        <v>1</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>207</v>
+        <v>130</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
+        <v>2</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <v>3</v>
       </c>
-      <c r="B234" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C234" s="6" t="s">
+      <c r="B235" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D234" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E234" s="6" t="s">
+      <c r="D235" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
-        <v>1</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E236" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
-        <v>5</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>31</v>
+        <v>95</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>25</v>
+        <v>95</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>3</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E243" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
-        <v>1</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
+        <v>2</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
         <v>3</v>
       </c>
-      <c r="B246" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E246" s="6" t="s">
+      <c r="B247" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E247" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
-        <v>1</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
+        <v>2</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
         <v>3</v>
       </c>
-      <c r="B250" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C250" s="5" t="s">
+      <c r="B251" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C251" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D250" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E250" s="6" t="s">
+      <c r="D251" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>59</v>
+        <v>216</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>25</v>
+        <v>210</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>8</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C257" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>1</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C259" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D257" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E257" s="6" t="s">
+      <c r="D259" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
         <v>2</v>
       </c>
-      <c r="B258" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+      <c r="B260" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
         <v>3</v>
       </c>
-      <c r="B259" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C259" s="5" t="s">
+      <c r="B261" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D259" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E259" s="6" t="s">
+      <c r="D261" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <v>4</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <v>5</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <v>6</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>26</v>
@@ -5583,16 +5542,16 @@
         <v>1</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5600,16 +5559,16 @@
         <v>2</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,632 +5576,649 @@
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>26</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>4</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>2</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>222</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8"/>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>2</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
-        <v>4</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="8"/>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>2</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
-        <v>4</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>2</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
-        <v>4</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E290" s="6" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>2</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
-        <v>3</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="6" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>3</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B299" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E299" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
-        <v>2</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E300" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>3</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C305" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>1</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D305" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E305" s="6" t="s">
+      <c r="D307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="6" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
-        <v>3</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,16 +6226,16 @@
         <v>1</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6267,16 +6243,16 @@
         <v>2</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6284,16 +6260,16 @@
         <v>3</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6301,237 +6277,237 @@
         <v>4</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>5</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
-        <v>3</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>4</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
-        <v>4</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6539,16 +6515,16 @@
         <v>1</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6556,16 +6532,16 @@
         <v>2</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6573,16 +6549,16 @@
         <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6590,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>248</v>
@@ -6607,7 +6583,7 @@
         <v>5</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>249</v>
@@ -6624,16 +6600,16 @@
         <v>6</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6641,109 +6617,109 @@
         <v>7</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>8</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="3">
-        <v>5</v>
-      </c>
-      <c r="B346" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E346" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>6</v>
-      </c>
-      <c r="B347" s="8" t="s">
-        <v>255</v>
+        <v>1</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>12</v>
@@ -6751,477 +6727,545 @@
       <c r="D347" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E347" s="6" t="s">
+      <c r="E347" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
+        <v>2</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>3</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>4</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>5</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>6</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
         <v>7</v>
       </c>
-      <c r="B348" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
+      <c r="B353" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>1</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>2</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>3</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>4</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>5</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>6</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>7</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
         <v>8</v>
       </c>
-      <c r="B349" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E349" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
-        <v>1</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E351" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
-        <v>2</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E352" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
-        <v>3</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E353" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>4</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E354" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>5</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
-        <v>6</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C356" s="5" t="s">
+      <c r="B362" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>9</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>10</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C364" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D356" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E356" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
-        <v>7</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>8</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
-        <v>9</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E359" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
-        <v>10</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E360" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
-        <v>11</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>12</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>25</v>
+      <c r="D364" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
-        <v>2</v>
-      </c>
-      <c r="B367" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E367" s="6" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>3</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E368" s="6" t="s">
-        <v>26</v>
+      <c r="E368" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>2</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>1</v>
-      </c>
-      <c r="B370" s="8" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E370" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>2</v>
-      </c>
-      <c r="B371" s="8" t="s">
-        <v>98</v>
+        <v>4</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E371" s="6" t="s">
-        <v>99</v>
+      <c r="E371" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>3</v>
-      </c>
-      <c r="B372" s="8" t="s">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E372" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>6</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>1</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
+        <v>8</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>1</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
         <v>2</v>
       </c>
-      <c r="B375" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D375" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E375" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
+      <c r="B378" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
         <v>3</v>
       </c>
-      <c r="B376" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C376" s="6" t="s">
+      <c r="B379" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C379" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D376" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E376" s="6" t="s">
+      <c r="D379" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E379" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
-        <v>1</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D378" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E378" s="6" t="s">
+    <row r="380" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>4</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E380" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
-        <v>2</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D379" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E379" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
-        <v>3</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D380" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E380" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>5</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C382" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C382" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D382" s="6" t="s">
@@ -7231,31 +7275,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C384" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C384" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D384" s="6" t="s">
@@ -7270,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>12</v>
@@ -7287,16 +7331,16 @@
         <v>2</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -7304,7 +7348,7 @@
         <v>3</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>25</v>
@@ -7321,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>12</v>
@@ -7338,16 +7382,16 @@
         <v>2</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -7355,7 +7399,7 @@
         <v>3</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>25</v>
@@ -7364,6 +7408,57 @@
         <v>5</v>
       </c>
       <c r="E392" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>1</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>2</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>3</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="282">
   <si>
     <t>Application_Details</t>
   </si>
@@ -854,13 +854,40 @@
   </si>
   <si>
     <t>LanguageChange</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Activities Creation / Closure for a specific MSISDN</t>
+  </si>
+  <si>
+    <t>PearlMobile_Provisioning</t>
+  </si>
+  <si>
+    <t>PlanSelection_Pearl</t>
+  </si>
+  <si>
+    <t>PearlData_Provisioning</t>
+  </si>
+  <si>
+    <t>PlanSelection_Data_Pearl</t>
+  </si>
+  <si>
+    <t>OSM_Pearl_data</t>
+  </si>
+  <si>
+    <t>DAPN_Provisioning</t>
+  </si>
+  <si>
+    <t>PlanSelection_DAPN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,8 +928,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,8 +977,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -981,11 +1031,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1076,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,7 +1558,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1662,10 +1731,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="K379" sqref="K379"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="L417" sqref="L417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,21 +4748,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-    </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C205" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -4708,16 +4770,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>111</v>
+        <v>273</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>100</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4725,128 +4787,135 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>73</v>
+        <v>273</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
-        <v>4</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>4</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C215" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="6" t="s">
@@ -4861,9 +4930,9 @@
         <v>1</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C217" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="6" t="s">
@@ -4878,16 +4947,16 @@
         <v>2</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,9 +4964,9 @@
         <v>3</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C219" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="6" t="s">
@@ -4912,9 +4981,9 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C221" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C221" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -4929,16 +4998,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>268</v>
+        <v>98</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,9 +5015,9 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C223" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="6" t="s">
@@ -4963,9 +5032,9 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C225" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="6" t="s">
@@ -4980,16 +5049,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -4997,127 +5066,126 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>73</v>
+        <v>268</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
-        <v>4</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>4</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>25</v>
@@ -5129,12 +5197,13 @@
         <v>26</v>
       </c>
     </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>1</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>12</v>
@@ -5151,16 +5220,16 @@
         <v>2</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5168,7 +5237,7 @@
         <v>3</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5185,13 +5254,13 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E241" s="6" t="s">
         <v>13</v>
@@ -5202,16 +5271,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>95</v>
+        <v>133</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5219,13 +5288,13 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>88</v>
+        <v>133</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E243" s="6" t="s">
         <v>26</v>
@@ -5236,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>90</v>
@@ -5253,10 +5322,10 @@
         <v>2</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
@@ -5270,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>88</v>
@@ -5287,13 +5356,13 @@
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>12</v>
+        <v>146</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>13</v>
@@ -5304,16 +5373,16 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>210</v>
+        <v>146</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5321,166 +5390,166 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>25</v>
+        <v>146</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
-        <v>4</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="D257" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>6</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>7</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D259" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <v>1</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="E259" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E261" s="6" t="s">
         <v>26</v>
@@ -5491,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>12</v>
@@ -5508,16 +5577,16 @@
         <v>2</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5525,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>25</v>
@@ -5542,16 +5611,16 @@
         <v>1</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5559,16 +5628,16 @@
         <v>2</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,938 +5645,938 @@
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
-        <v>4</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>2</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
-        <v>4</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>2</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
-        <v>4</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E282" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="8"/>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>2</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
-        <v>4</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E288" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>235</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>2</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B293" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>1</v>
+      </c>
+      <c r="B295" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C293" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E293" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
-        <v>4</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E294" s="6" t="s">
-        <v>236</v>
+      <c r="C295" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B298" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>1</v>
+      </c>
+      <c r="B300" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
-        <v>4</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E299" s="6" t="s">
-        <v>236</v>
+      <c r="C300" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
-        <v>4</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>244</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>2</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
-        <v>4</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>3</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
-        <v>4</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C317" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D317" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E317" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>4</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
-        <v>4</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E325" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>4</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6515,16 +6584,16 @@
         <v>1</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6532,16 +6601,16 @@
         <v>2</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6549,670 +6618,670 @@
         <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
-        <v>4</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D337" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E337" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C345" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>9</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>10</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>11</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>12</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C349" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D345" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E345" s="6" t="s">
+      <c r="D349" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E349" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
-        <v>1</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E347" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
-        <v>2</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E348" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
-        <v>3</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E349" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
-        <v>4</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E350" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>4</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>1</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>2</v>
-      </c>
-      <c r="B356" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E356" s="6" t="s">
-        <v>44</v>
+      <c r="E356" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>3</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>113</v>
+        <v>7</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E357" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>4</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C358" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E366" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>9</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E367" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>1</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C368" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E368" s="5" t="s">
-        <v>13</v>
+      <c r="E368" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>2</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E369" s="5" t="s">
-        <v>44</v>
+      <c r="E369" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>3</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E370" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
-        <v>4</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D371" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E371" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E373" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E375" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>5</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>1</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>255</v>
+        <v>6</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E377" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>2</v>
-      </c>
-      <c r="B378" s="8" t="s">
-        <v>255</v>
+        <v>7</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E378" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E378" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>3</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>255</v>
+        <v>8</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>25</v>
@@ -7224,99 +7293,99 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
-        <v>4</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D380" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E380" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="381" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E381" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>5</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C386" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C386" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D386" s="6" t="s">
@@ -7326,31 +7395,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C388" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D388" s="6" t="s">
@@ -7365,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>12</v>
@@ -7382,16 +7451,16 @@
         <v>2</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -7399,7 +7468,7 @@
         <v>3</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>25</v>
@@ -7416,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>12</v>
@@ -7433,10 +7502,10 @@
         <v>2</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>15</v>
@@ -7450,7 +7519,7 @@
         <v>3</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>25</v>
@@ -7459,6 +7528,496 @@
         <v>5</v>
       </c>
       <c r="E396" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>1</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E398" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>2</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>3</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E400" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>1</v>
+      </c>
+      <c r="B402" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E402" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>2</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>3</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="13">
+        <v>1</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C406" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D406" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E406" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="13">
+        <v>2</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C407" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E407" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="13">
+        <v>3</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C408" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D408" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E408" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="13">
+        <v>4</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C409" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D409" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E409" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="13">
+        <v>5</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C410" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D410" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E410" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="13">
+        <v>6</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C411" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D411" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="13">
+        <v>7</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C412" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D412" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E412" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="13"/>
+      <c r="B413" s="17"/>
+      <c r="C413" s="17"/>
+      <c r="D413" s="17"/>
+      <c r="E413" s="17"/>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="13">
+        <v>1</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C414" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E414" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="13">
+        <v>2</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C415" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D415" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="13">
+        <v>3</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C416" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D416" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="13">
+        <v>4</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C417" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D417" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="13">
+        <v>5</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C418" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D418" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E418" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="13">
+        <v>6</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C419" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D419" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="13">
+        <v>7</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C420" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D420" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E420" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="13">
+        <v>8</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C421" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D421" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E421" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="13">
+        <v>9</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C422" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D422" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E422" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="13">
+        <v>10</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E423" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="13">
+        <v>11</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D424" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E424" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="13">
+        <v>12</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C425" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D425" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="18"/>
+      <c r="B426" s="14"/>
+      <c r="C426" s="16"/>
+      <c r="D426" s="16"/>
+      <c r="E426" s="16"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>1</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E427" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>2</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E428" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>3</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C429" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E429" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="284">
   <si>
     <t>Application_Details</t>
   </si>
@@ -881,6 +881,12 @@
   </si>
   <si>
     <t>PlanSelection_DAPN</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>Credit Limit Set</t>
   </si>
 </sst>
 </file>
@@ -1733,8 +1739,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E429"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="L417" sqref="L417"/>
+    <sheetView topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4811,9 +4817,9 @@
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C209" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="6" t="s">
@@ -4828,16 +4834,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>111</v>
+        <v>282</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>100</v>
+        <v>283</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4845,128 +4851,135 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C211" s="5" t="s">
-        <v>73</v>
+        <v>282</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
-        <v>4</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D212" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>4</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C219" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C219" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D219" s="6" t="s">
@@ -4981,9 +4994,9 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C221" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -4998,16 +5011,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5015,9 +5028,9 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C223" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D223" s="6" t="s">
@@ -5032,9 +5045,9 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C225" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C225" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="6" t="s">
@@ -5049,16 +5062,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>268</v>
+        <v>98</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,9 +5079,9 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C227" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D227" s="6" t="s">
@@ -5083,9 +5096,9 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C229" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="6" t="s">
@@ -5100,16 +5113,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5117,127 +5130,126 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>73</v>
+        <v>268</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
-        <v>4</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E232" s="6" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>4</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5249,12 +5261,13 @@
         <v>26</v>
       </c>
     </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5271,16 +5284,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5288,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -5305,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>90</v>
+        <v>133</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E245" s="6" t="s">
         <v>13</v>
@@ -5322,16 +5335,16 @@
         <v>2</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>95</v>
+        <v>133</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,13 +5352,13 @@
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>88</v>
+        <v>133</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E247" s="6" t="s">
         <v>26</v>
@@ -5356,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>90</v>
@@ -5373,10 +5386,10 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>15</v>
@@ -5390,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>88</v>
@@ -5407,13 +5420,13 @@
         <v>1</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>12</v>
+        <v>146</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>13</v>
@@ -5424,16 +5437,16 @@
         <v>2</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>210</v>
+        <v>146</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,166 +5454,166 @@
         <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>25</v>
+        <v>146</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
-        <v>4</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="D261" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>6</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>7</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D263" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
-        <v>1</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>26</v>
@@ -5611,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>12</v>
@@ -5628,16 +5641,16 @@
         <v>2</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5645,7 +5658,7 @@
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>25</v>
@@ -5662,16 +5675,16 @@
         <v>1</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,16 +5692,16 @@
         <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5696,938 +5709,938 @@
         <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>4</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>2</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
-        <v>4</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="8"/>
     </row>
     <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
-      <c r="C282" s="8"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>2</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>4</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E286" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>2</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>4</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>144</v>
-      </c>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
     </row>
     <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>235</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>2</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B297" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>1</v>
+      </c>
+      <c r="B299" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E297" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
-        <v>4</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="6" t="s">
-        <v>236</v>
+      <c r="C299" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B302" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>1</v>
+      </c>
+      <c r="B304" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
-        <v>4</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>236</v>
+      <c r="C304" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
-        <v>4</v>
-      </c>
-      <c r="B308" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" s="6" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>243</v>
+        <v>143</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>244</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>2</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
-        <v>4</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>3</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
-        <v>4</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>253</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>254</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>4</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
-        <v>4</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>251</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>4</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6635,16 +6648,16 @@
         <v>1</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6652,16 +6665,16 @@
         <v>2</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6669,670 +6682,670 @@
         <v>3</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
-        <v>4</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C349" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>9</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>10</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>11</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>12</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D349" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E349" s="6" t="s">
+      <c r="D353" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
-        <v>1</v>
-      </c>
-      <c r="B351" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C351" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E351" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
-        <v>2</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C352" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D352" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E352" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
-        <v>3</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E353" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>4</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E354" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>4</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>1</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E359" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>2</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E360" s="6" t="s">
-        <v>44</v>
+      <c r="E360" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>3</v>
-      </c>
-      <c r="B361" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>113</v>
+        <v>7</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E361" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>4</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E370" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>9</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>1</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C372" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E372" s="5" t="s">
-        <v>13</v>
+      <c r="E372" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>2</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E373" s="5" t="s">
-        <v>44</v>
+      <c r="E373" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>3</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
-        <v>4</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D375" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E374" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E379" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>5</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <v>1</v>
-      </c>
-      <c r="B381" s="8" t="s">
-        <v>255</v>
+        <v>6</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E381" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>2</v>
-      </c>
-      <c r="B382" s="8" t="s">
-        <v>255</v>
+        <v>7</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E382" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E382" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>3</v>
-      </c>
-      <c r="B383" s="8" t="s">
-        <v>255</v>
+        <v>8</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>25</v>
@@ -7344,99 +7357,99 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
-        <v>4</v>
-      </c>
-      <c r="B384" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D384" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E384" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>5</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E389" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C390" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C390" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D390" s="6" t="s">
@@ -7446,31 +7459,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C391" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C392" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C392" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D392" s="6" t="s">
@@ -7485,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>12</v>
@@ -7502,16 +7515,16 @@
         <v>2</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -7519,7 +7532,7 @@
         <v>3</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>25</v>
@@ -7536,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>12</v>
@@ -7553,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>15</v>
@@ -7570,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>25</v>
@@ -7587,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>12</v>
@@ -7604,16 +7617,16 @@
         <v>2</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -7621,7 +7634,7 @@
         <v>3</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="277">
   <si>
     <t>Application_Details</t>
   </si>
@@ -295,12 +295,6 @@
     <t>Discounts</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>testing123</t>
-  </si>
-  <si>
     <t>LogoutSSH</t>
   </si>
   <si>
@@ -319,9 +313,6 @@
     <t>URL/HOST</t>
   </si>
   <si>
-    <t>pin</t>
-  </si>
-  <si>
     <t>BillGeneration_AccountLevel</t>
   </si>
   <si>
@@ -508,9 +499,6 @@
     <t>SingleAccount</t>
   </si>
   <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
     <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
   </si>
   <si>
@@ -628,15 +616,9 @@
     <t>10.162.53.120</t>
   </si>
   <si>
-    <t>Mav@2018</t>
-  </si>
-  <si>
     <t>ParallelRun</t>
   </si>
   <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
@@ -809,9 +791,6 @@
   </si>
   <si>
     <t>Invoke</t>
-  </si>
-  <si>
-    <t>USSDMenu</t>
   </si>
   <si>
     <t>SearchAsset</t>
@@ -1565,7 +1544,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1552,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1586,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1606,16 +1585,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,33 +1612,21 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1704,10 +1665,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -1737,10 +1698,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E429"/>
+  <dimension ref="A1:E428"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="G215" sqref="G215"/>
+    <sheetView topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="I347" sqref="I347:J347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1791,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1808,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1825,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1842,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1859,7 +1820,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -1876,16 +1837,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1893,7 +1854,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>73</v>
@@ -1910,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -1927,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -1944,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -1961,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -1978,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -1995,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -2012,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -2029,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2046,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2063,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -2080,16 +2041,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>73</v>
@@ -2114,7 +2075,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2131,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -2148,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>31</v>
@@ -2165,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>25</v>
@@ -2182,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -2199,7 +2160,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2216,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -2233,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2250,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>21</v>
@@ -2267,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2284,16 +2245,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,16 +2262,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,7 +2279,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>73</v>
@@ -2335,7 +2296,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2352,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>29</v>
@@ -2369,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -2386,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -2403,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2420,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -2437,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
@@ -2454,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -2471,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
@@ -2488,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -2505,16 +2466,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>73</v>
@@ -2539,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -2556,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>29</v>
@@ -2573,7 +2534,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
@@ -2590,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -2607,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -2624,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>39</v>
@@ -2641,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>41</v>
@@ -2658,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -2675,7 +2636,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>21</v>
@@ -2692,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -2709,16 +2670,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2726,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>73</v>
@@ -2743,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -2760,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>29</v>
@@ -2777,7 +2738,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>31</v>
@@ -2794,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -2814,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -2831,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
@@ -2848,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>41</v>
@@ -2865,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -2882,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>21</v>
@@ -2899,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -2916,16 +2877,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2933,16 +2894,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2950,7 +2911,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>73</v>
@@ -2967,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>27</v>
@@ -2984,7 +2945,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>29</v>
@@ -3001,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
@@ -3018,7 +2979,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>25</v>
@@ -3259,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3276,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>73</v>
@@ -3293,10 +3254,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3310,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>73</v>
@@ -3327,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -3344,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>29</v>
@@ -3361,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>31</v>
@@ -3378,7 +3339,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -3939,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>12</v>
@@ -3956,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>27</v>
@@ -3973,7 +3934,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>29</v>
@@ -3990,16 +3951,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4007,7 +3968,7 @@
         <v>5</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>27</v>
@@ -4024,7 +3985,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>79</v>
@@ -4041,7 +4002,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>25</v>
@@ -4095,13 +4056,13 @@
         <v>65</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,13 +4124,13 @@
         <v>66</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4245,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4262,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -4279,7 +4240,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4501,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
@@ -4518,16 +4479,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4553,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -4570,16 +4531,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -4605,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -4622,16 +4583,16 @@
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -4657,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -4674,16 +4635,16 @@
         <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4691,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -4708,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -4725,16 +4686,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4742,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -4759,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -4776,16 +4737,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4793,7 +4754,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -4817,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -4834,16 +4795,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -4875,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>12</v>
@@ -4892,16 +4853,16 @@
         <v>2</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,7 +4870,7 @@
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>73</v>
@@ -4926,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>27</v>
@@ -4943,7 +4904,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>29</v>
@@ -4960,7 +4921,7 @@
         <v>6</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>31</v>
@@ -4977,7 +4938,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -4994,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>12</v>
@@ -5011,16 +4972,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5028,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>25</v>
@@ -5045,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>12</v>
@@ -5062,16 +5023,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5079,7 +5040,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -5096,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>12</v>
@@ -5113,16 +5074,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5130,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5147,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>12</v>
@@ -5164,16 +5125,16 @@
         <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5181,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>73</v>
@@ -5198,7 +5159,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>27</v>
@@ -5215,7 +5176,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>29</v>
@@ -5232,7 +5193,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>31</v>
@@ -5249,7 +5210,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5267,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5284,16 +5245,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5301,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -5318,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>12</v>
@@ -5335,16 +5296,16 @@
         <v>2</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5352,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
@@ -5369,13 +5330,13 @@
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>13</v>
@@ -5386,16 +5347,16 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5403,13 +5364,13 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E251" s="6" t="s">
         <v>26</v>
@@ -5420,13 +5381,13 @@
         <v>1</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>13</v>
@@ -5437,16 +5398,16 @@
         <v>2</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5454,13 +5415,13 @@
         <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>26</v>
@@ -5471,7 +5432,7 @@
         <v>1</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>12</v>
@@ -5488,16 +5449,16 @@
         <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5505,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>25</v>
@@ -5522,16 +5483,16 @@
         <v>4</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5539,16 +5500,16 @@
         <v>5</v>
       </c>
       <c r="B261" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E261" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5556,16 +5517,16 @@
         <v>6</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5573,13 +5534,13 @@
         <v>7</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E263" s="6" t="s">
         <v>13</v>
@@ -5590,16 +5551,16 @@
         <v>8</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5607,13 +5568,13 @@
         <v>9</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E265" s="6" t="s">
         <v>26</v>
@@ -5624,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>12</v>
@@ -5641,16 +5602,16 @@
         <v>2</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5658,7 +5619,7 @@
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>25</v>
@@ -5675,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>12</v>
@@ -5692,16 +5653,16 @@
         <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>25</v>
@@ -5726,16 +5687,16 @@
         <v>1</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5743,16 +5704,16 @@
         <v>2</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,16 +5721,16 @@
         <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,16 +5738,16 @@
         <v>4</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5794,16 +5755,16 @@
         <v>5</v>
       </c>
       <c r="B279" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5818,16 +5779,16 @@
         <v>1</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5835,16 +5796,16 @@
         <v>2</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,16 +5813,16 @@
         <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5869,16 +5830,16 @@
         <v>4</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5886,16 +5847,16 @@
         <v>5</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5910,16 +5871,16 @@
         <v>1</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,16 +5888,16 @@
         <v>2</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,16 +5905,16 @@
         <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,16 +5922,16 @@
         <v>4</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5978,16 +5939,16 @@
         <v>5</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6002,16 +5963,16 @@
         <v>1</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,16 +5980,16 @@
         <v>2</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6036,16 +5997,16 @@
         <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,16 +6014,16 @@
         <v>4</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,16 +6031,16 @@
         <v>5</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,16 +6048,16 @@
         <v>1</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,16 +6065,16 @@
         <v>2</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,16 +6082,16 @@
         <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6138,16 +6099,16 @@
         <v>4</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6155,16 +6116,16 @@
         <v>1</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6172,16 +6133,16 @@
         <v>2</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6189,16 +6150,16 @@
         <v>3</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6206,16 +6167,16 @@
         <v>4</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6223,16 +6184,16 @@
         <v>1</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6240,16 +6201,16 @@
         <v>2</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6257,16 +6218,16 @@
         <v>3</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6274,16 +6235,16 @@
         <v>4</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6291,16 +6252,16 @@
         <v>5</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6308,16 +6269,16 @@
         <v>1</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6325,16 +6286,16 @@
         <v>2</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6342,16 +6303,16 @@
         <v>3</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6359,16 +6320,16 @@
         <v>4</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6376,16 +6337,16 @@
         <v>5</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,16 +6354,16 @@
         <v>6</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6410,16 +6371,16 @@
         <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6427,16 +6388,16 @@
         <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,16 +6405,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6461,16 +6422,16 @@
         <v>4</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6478,16 +6439,16 @@
         <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6495,16 +6456,16 @@
         <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,16 +6473,16 @@
         <v>7</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6529,16 +6490,16 @@
         <v>1</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6546,16 +6507,16 @@
         <v>2</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6563,16 +6524,16 @@
         <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6580,16 +6541,16 @@
         <v>4</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6597,16 +6558,16 @@
         <v>5</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6614,16 +6575,16 @@
         <v>6</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6631,16 +6592,16 @@
         <v>7</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,16 +6609,16 @@
         <v>1</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6665,16 +6626,16 @@
         <v>2</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6682,16 +6643,16 @@
         <v>3</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6699,16 +6660,16 @@
         <v>1</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6716,16 +6677,16 @@
         <v>2</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6733,16 +6694,16 @@
         <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6750,16 +6711,16 @@
         <v>4</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6767,16 +6728,16 @@
         <v>5</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,16 +6745,16 @@
         <v>6</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6801,16 +6762,16 @@
         <v>7</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6818,16 +6779,16 @@
         <v>8</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6835,16 +6796,16 @@
         <v>9</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6852,16 +6813,16 @@
         <v>10</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,1168 +6830,1151 @@
         <v>11</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>1</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C354" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B353" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E353" s="6" t="s">
-        <v>25</v>
+      <c r="D354" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
-        <v>7</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E361" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>1</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B370" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C370" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D370" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>1</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C375" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B374" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D374" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>110</v>
+      <c r="D375" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
-        <v>8</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D383" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E383" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>1</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E384" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
-        <v>8</v>
-      </c>
-      <c r="B392" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E392" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>1</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
-        <v>3</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C396" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>1</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
-        <v>3</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E400" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>1</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
-        <v>3</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E404" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="13">
+        <v>1</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C405" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E405" s="16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C407" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D407" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D408" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D409" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="D410" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="13">
-        <v>7</v>
-      </c>
-      <c r="B412" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C412" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D412" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E412" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="A412" s="13"/>
+      <c r="B412" s="17"/>
+      <c r="C412" s="17"/>
+      <c r="D412" s="17"/>
+      <c r="E412" s="17"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="13"/>
-      <c r="B413" s="17"/>
-      <c r="C413" s="17"/>
-      <c r="D413" s="17"/>
-      <c r="E413" s="17"/>
+      <c r="A413" s="13">
+        <v>1</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C413" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D413" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E413" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D415" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D416" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D417" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="D418" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C422" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
+      </c>
+      <c r="C422" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D422" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="13">
+      <c r="A425" s="18"/>
+      <c r="B425" s="14"/>
+      <c r="C425" s="16"/>
+      <c r="D425" s="16"/>
+      <c r="E425" s="16"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>1</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C426" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B425" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C425" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D425" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E425" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="18"/>
-      <c r="B426" s="14"/>
-      <c r="C426" s="16"/>
-      <c r="D426" s="16"/>
-      <c r="E426" s="16"/>
+      <c r="D426" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E426" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E428" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="3">
-        <v>3</v>
-      </c>
-      <c r="B429" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C429" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D429" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E429" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8092,19 +8036,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8112,19 +8056,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8132,19 +8076,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8152,19 +8096,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,19 +8116,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8192,19 +8136,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
         <v>119</v>
       </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8212,19 +8156,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8232,19 +8176,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8252,19 +8196,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8272,19 +8216,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8292,19 +8236,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8312,19 +8256,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8332,19 +8276,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8352,19 +8296,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
         <v>175</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8372,19 +8316,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8392,19 +8336,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8412,19 +8356,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" t="s">
         <v>119</v>
       </c>
-      <c r="D18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8432,19 +8376,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8452,19 +8396,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8472,19 +8416,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8492,19 +8436,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
         <v>115</v>
       </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" t="s">
-        <v>118</v>
-      </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8512,19 +8456,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8532,19 +8476,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8552,19 +8496,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8572,19 +8516,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
-        <v>119</v>
-      </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8592,19 +8536,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
-        <v>119</v>
-      </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8612,19 +8556,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8632,19 +8576,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" t="s">
-        <v>118</v>
-      </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8652,19 +8596,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8724,19 +8668,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8744,19 +8688,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8764,19 +8708,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8784,19 +8728,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8804,19 +8748,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8824,19 +8768,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8844,19 +8788,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="283">
   <si>
     <t>Application_Details</t>
   </si>
@@ -307,565 +307,583 @@
     <t>BRM_Putty</t>
   </si>
   <si>
+    <t>URL/HOST</t>
+  </si>
+  <si>
+    <t>BillGeneration_AccountLevel</t>
+  </si>
+  <si>
+    <t>SIMSwap_Guided_Journey</t>
+  </si>
+  <si>
+    <t>SIMSwap Guided journey</t>
+  </si>
+  <si>
+    <t>SIMSwap_Global_Search</t>
+  </si>
+  <si>
+    <t>SIMSwap Global Search</t>
+  </si>
+  <si>
+    <t>Post-paid guided flow</t>
+  </si>
+  <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>Transfer of Service</t>
+  </si>
+  <si>
+    <t>ConsumerFixedLine_Provision</t>
+  </si>
+  <si>
+    <t>PlanSelection_FL</t>
+  </si>
+  <si>
+    <t>OSM_Login</t>
+  </si>
+  <si>
+    <t>OSM_SearchFL</t>
+  </si>
+  <si>
+    <t>EnterpriseFixedLine_Provision</t>
+  </si>
+  <si>
+    <t>PlanSelection_FL_ENT</t>
+  </si>
+  <si>
+    <t>login into OSM</t>
+  </si>
+  <si>
+    <t>Update the Status</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_GuidedJourney</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership</t>
+  </si>
+  <si>
+    <t>ServicePoint</t>
+  </si>
+  <si>
+    <t>Checking service Point</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>CRM_Level</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Postpaid_To_Prepaid</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_Account360</t>
+  </si>
+  <si>
+    <t>Upgrading promotion via Account 360</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Account360view</t>
+  </si>
+  <si>
+    <t>Account360</t>
+  </si>
+  <si>
+    <t>Account 360 view</t>
+  </si>
+  <si>
+    <t>OpenUI_AccesRrights_6Segments</t>
+  </si>
+  <si>
+    <t>OrderSubmission</t>
+  </si>
+  <si>
+    <t>Order Submition</t>
+  </si>
+  <si>
+    <t>OrderPayments</t>
+  </si>
+  <si>
+    <t>Order level payment</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provision</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provision</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provision</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Provision</t>
+  </si>
+  <si>
+    <t>LocalCall</t>
+  </si>
+  <si>
+    <t>PrevCheckBalance</t>
+  </si>
+  <si>
+    <t>PostCheckBalance</t>
+  </si>
+  <si>
+    <t>LocalCallCharging</t>
+  </si>
+  <si>
+    <t>InvoiceToPDF_Generation</t>
+  </si>
+  <si>
+    <t>Invoicegeneration</t>
+  </si>
+  <si>
+    <t>Plan selection &amp; order submition</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>PlanDiscount</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
+  </si>
+  <si>
+    <t>SingleAccount</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>GlobalSearchMSISDN</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692,97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
+  </si>
+  <si>
+    <t>GlobalSearchContact</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_ContactID--GTYH1234||Black_ContactID--99900007765||VVIP_ContactID--99987876U,23457||Qatari_ContactID--VQFT12370897||Expatriate_ContactID--454345||</t>
+  </si>
+  <si>
+    <t>AssertMSISDNQuery</t>
+  </si>
+  <si>
+    <t>GuidedSIMSwap</t>
+  </si>
+  <si>
+    <t>AccountNameQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_AccountName--VFQA Test OUI SP2 Mav test Live SIM||Black_AccountName--VFQATEST_ EV11_TEST||VVIP_AccountName--VFQATEST_EODS_RetroPost VFQATEST_EODS_RetroPost,VFQATEST_Retest_Ankur VFQATEST_Retest_Ankur||Qatari_AccountName--VFQA_Mav VFQA_Test944||Expatriate_AccountName--VFQATEST_XR188_DataPlan200_Iv VFQATEST_XR188_DataPlan200_Iv||</t>
+  </si>
+  <si>
+    <t>AccountNumberQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_AccountNumber--8959436734||Black_AccountNumber--5637448925||VVIP_AccountNumber--7321895097,7779562981||Qatari_AccountNumber--9811140835||Expatriate_AccountNumber--7769191001||</t>
+  </si>
+  <si>
+    <t>ContactIDQuery</t>
+  </si>
+  <si>
+    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692||VIP_MSISDN--97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||New_PlanName--Postpaid Red 250 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152668||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||SIM--8962702800901163669||PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152669||NEW_MSISDN--97478152662||</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>MSISDN--97478119570||SIM--8962702800901129570||PlanName--Postpaid Red 350 Promotion||PayType--Cash||PaymentReference--2131234||TransactionAmt--100||</t>
+  </si>
+  <si>
+    <t>AccountNo--10077053778||PVT_Date--020112002018||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 250 Promotion||Account_No--10092270788||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152661||PlanName--Postpaid Red 250 Promotion||Discounts--30% Monthly Discount||PlanBundle--Red 250||</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152662||New_PlanName--Postpaid Standard Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478127832||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478127832||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--10109137161||</t>
+  </si>
+  <si>
+    <t>AccountNo--10109137161||</t>
+  </si>
+  <si>
+    <t>AccountNo--10111455142||</t>
+  </si>
+  <si>
+    <t>ParallelRun</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>ModifySmartLimit</t>
+  </si>
+  <si>
+    <t>OrderVerfication</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_C2C</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_C2E</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_E2C</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership_E2E</t>
+  </si>
+  <si>
+    <t>CheckBarringCall</t>
+  </si>
+  <si>
+    <t>Making a call after Bar</t>
+  </si>
+  <si>
+    <t>DunningProcess</t>
+  </si>
+  <si>
+    <t>Dunning Process</t>
+  </si>
+  <si>
+    <t>DBConnection</t>
+  </si>
+  <si>
+    <t>BRM_DB</t>
+  </si>
+  <si>
+    <t>Connecting to BRM DB</t>
+  </si>
+  <si>
+    <t>BillPoID</t>
+  </si>
+  <si>
+    <t>Getting Bill PoID   from DB</t>
+  </si>
+  <si>
+    <t>DBDisconnection</t>
+  </si>
+  <si>
+    <t>DB Disconnected</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collection Commands</t>
+  </si>
+  <si>
+    <t>DunningAction</t>
+  </si>
+  <si>
+    <t>CollectionExit</t>
+  </si>
+  <si>
+    <t>SetCallCapabilities</t>
+  </si>
+  <si>
+    <t>Dialer</t>
+  </si>
+  <si>
+    <t>InternationalCall</t>
+  </si>
+  <si>
+    <t>InternationalCallCharging</t>
+  </si>
+  <si>
+    <t>International Call Charging</t>
+  </si>
+  <si>
+    <t>LocalSMS</t>
+  </si>
+  <si>
+    <t>setMessengerCapabilities</t>
+  </si>
+  <si>
+    <t>smsSender</t>
+  </si>
+  <si>
+    <t>SMS Sender</t>
+  </si>
+  <si>
+    <t>LocalSMSCharging</t>
+  </si>
+  <si>
+    <t>InternationalSMS</t>
+  </si>
+  <si>
+    <t>InternationalSMSCharging</t>
+  </si>
+  <si>
+    <t>International SMS Charging</t>
+  </si>
+  <si>
+    <t>BalanceCheck</t>
+  </si>
+  <si>
+    <t>BalanceCheckDialer</t>
+  </si>
+  <si>
+    <t>SetUpMobileDevice</t>
+  </si>
+  <si>
+    <t>RestartMobile</t>
+  </si>
+  <si>
+    <t>ConfigureSMSC</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>RechargeDialer</t>
+  </si>
+  <si>
+    <t>VerifyRecharge</t>
+  </si>
+  <si>
+    <t>RechargeUSSD</t>
+  </si>
+  <si>
+    <t>FlexBalanceCheck</t>
+  </si>
+  <si>
+    <t>ProductInfo_USSD</t>
+  </si>
+  <si>
+    <t>InvokeUSSDMenu</t>
+  </si>
+  <si>
+    <t>USSDJourney</t>
+  </si>
+  <si>
+    <t>USSDCleaner</t>
+  </si>
+  <si>
+    <t>ProductInfoNotification</t>
+  </si>
+  <si>
+    <t>Recharge_USSDMenu</t>
+  </si>
+  <si>
+    <t>PunchRechargePIN</t>
+  </si>
+  <si>
+    <t>ProductActivation_USSD_Prepaid</t>
+  </si>
+  <si>
+    <t>VerifyProductActivationPrepaid</t>
+  </si>
+  <si>
+    <t>FL_ONT_CPE_Replacement</t>
+  </si>
+  <si>
+    <t>Postpaid_USSD_Act-DeAct</t>
+  </si>
+  <si>
+    <t>Invoke</t>
+  </si>
+  <si>
+    <t>SearchAsset</t>
+  </si>
+  <si>
+    <t>CheckOrder</t>
+  </si>
+  <si>
+    <t>CheckUnBarringCall</t>
+  </si>
+  <si>
+    <t>Making a call after UnBar</t>
+  </si>
+  <si>
+    <t>ETHERNET</t>
+  </si>
+  <si>
+    <t>Ethernet Plan Selection</t>
+  </si>
+  <si>
+    <t>LEASEDLINE</t>
+  </si>
+  <si>
+    <t>Leased line  Plan Selection</t>
+  </si>
+  <si>
+    <t>IPLC</t>
+  </si>
+  <si>
+    <t>ModifySmartLimit_Acc360</t>
+  </si>
+  <si>
+    <t>Modify Spend Limit</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_Acc360</t>
+  </si>
+  <si>
+    <t>UpgradePromotion</t>
+  </si>
+  <si>
+    <t>LanguageChange</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Activities Creation / Closure for a specific MSISDN</t>
+  </si>
+  <si>
+    <t>PearlMobile_Provisioning</t>
+  </si>
+  <si>
+    <t>PlanSelection_Pearl</t>
+  </si>
+  <si>
+    <t>PearlData_Provisioning</t>
+  </si>
+  <si>
+    <t>PlanSelection_Data_Pearl</t>
+  </si>
+  <si>
+    <t>OSM_Pearl_data</t>
+  </si>
+  <si>
+    <t>DAPN_Provisioning</t>
+  </si>
+  <si>
+    <t>PlanSelection_DAPN</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>Credit Limit Set</t>
+  </si>
+  <si>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2018</t>
+  </si>
+  <si>
     <t>QA07</t>
   </si>
   <si>
-    <t>URL/HOST</t>
-  </si>
-  <si>
-    <t>BillGeneration_AccountLevel</t>
-  </si>
-  <si>
-    <t>SIMSwap_Guided_Journey</t>
-  </si>
-  <si>
-    <t>SIMSwap Guided journey</t>
-  </si>
-  <si>
-    <t>SIMSwap_Global_Search</t>
-  </si>
-  <si>
-    <t>SIMSwap Global Search</t>
-  </si>
-  <si>
-    <t>Post-paid guided flow</t>
-  </si>
-  <si>
-    <t>TransferOfService</t>
-  </si>
-  <si>
-    <t>Transfer of Service</t>
-  </si>
-  <si>
-    <t>ConsumerFixedLine_Provision</t>
-  </si>
-  <si>
-    <t>PlanSelection_FL</t>
-  </si>
-  <si>
-    <t>OSM_Login</t>
-  </si>
-  <si>
-    <t>OSM_SearchFL</t>
-  </si>
-  <si>
-    <t>EnterpriseFixedLine_Provision</t>
-  </si>
-  <si>
-    <t>PlanSelection_FL_ENT</t>
-  </si>
-  <si>
-    <t>login into OSM</t>
-  </si>
-  <si>
-    <t>Update the Status</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_GuidedJourney</t>
-  </si>
-  <si>
-    <t>TransferOfOwnership</t>
-  </si>
-  <si>
-    <t>ServicePoint</t>
-  </si>
-  <si>
-    <t>Checking service Point</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NewAccount</t>
-  </si>
-  <si>
-    <t>NewCustomer</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Prepaid_To_Postpaid</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid</t>
-  </si>
-  <si>
-    <t>ExtCustomer</t>
-  </si>
-  <si>
-    <t>CRM_Level</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Postpaid_To_Prepaid</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid</t>
-  </si>
-  <si>
-    <t>UpgradePromotion_Account360</t>
-  </si>
-  <si>
-    <t>Upgrading promotion via Account 360</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Account360view</t>
-  </si>
-  <si>
-    <t>Account360</t>
-  </si>
-  <si>
-    <t>Account 360 view</t>
-  </si>
-  <si>
-    <t>OpenUI_AccesRrights_6Segments</t>
-  </si>
-  <si>
-    <t>OrderSubmission</t>
-  </si>
-  <si>
-    <t>Order Submition</t>
-  </si>
-  <si>
-    <t>OrderPayments</t>
-  </si>
-  <si>
-    <t>Order level payment</t>
-  </si>
-  <si>
-    <t>ConsumerPrepaid_Provision</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_Provision</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid_Provision</t>
-  </si>
-  <si>
-    <t>EnterprisePrepaid_Provision</t>
-  </si>
-  <si>
-    <t>LocalCall</t>
-  </si>
-  <si>
-    <t>PrevCheckBalance</t>
-  </si>
-  <si>
-    <t>PostCheckBalance</t>
-  </si>
-  <si>
-    <t>LocalCallCharging</t>
-  </si>
-  <si>
-    <t>InvoiceToPDF_Generation</t>
-  </si>
-  <si>
-    <t>Invoicegeneration</t>
-  </si>
-  <si>
-    <t>Plan selection &amp; order submition</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||New_SIM--8962702800901163662||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||SIM--8962702800901163665||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>PlanDiscount</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_SIM--8962702800901163666||</t>
-  </si>
-  <si>
-    <t>SingleAccount</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||SL_LimitAmount--450||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||Add_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>AccountNo--Fetch#IDP||PVT_Date--020112002018||</t>
-  </si>
-  <si>
-    <t>GlobalSearchMSISDN</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692,97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
-  </si>
-  <si>
-    <t>GlobalSearchContact</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_ContactID--GTYH1234||Black_ContactID--99900007765||VVIP_ContactID--99987876U,23457||Qatari_ContactID--VQFT12370897||Expatriate_ContactID--454345||</t>
-  </si>
-  <si>
-    <t>AssertMSISDNQuery</t>
-  </si>
-  <si>
-    <t>GuidedSIMSwap</t>
-  </si>
-  <si>
-    <t>AccountNameQuery</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_AccountName--VFQA Test OUI SP2 Mav test Live SIM||Black_AccountName--VFQATEST_ EV11_TEST||VVIP_AccountName--VFQATEST_EODS_RetroPost VFQATEST_EODS_RetroPost,VFQATEST_Retest_Ankur VFQATEST_Retest_Ankur||Qatari_AccountName--VFQA_Mav VFQA_Test944||Expatriate_AccountName--VFQATEST_XR188_DataPlan200_Iv VFQATEST_XR188_DataPlan200_Iv||</t>
-  </si>
-  <si>
-    <t>AccountNumberQuery</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_AccountNumber--8959436734||Black_AccountNumber--5637448925||VVIP_AccountNumber--7321895097,7779562981||Qatari_AccountNumber--9811140835||Expatriate_AccountNumber--7769191001||</t>
-  </si>
-  <si>
-    <t>ContactIDQuery</t>
-  </si>
-  <si>
-    <t>Segment--Royal||Royal_MSISDN--97470899087||Black_MSISDN--97489755046||VVIP_MSISDN--97489756692||VIP_MSISDN--97478151045||Qatari_MSISDN--97478152922||Expatriate_MSISDN--97478151043||</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||SIM--8962702800901163669||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||NEW_MSISDN--97478152662||</t>
-  </si>
-  <si>
-    <t>ConsumerPostpaid_Prov_OrdPay</t>
-  </si>
-  <si>
-    <t>EnterprisePostpaid_Prov_OrdPay</t>
-  </si>
-  <si>
-    <t>MSISDN--97478119570||SIM--8962702800901129570||PlanName--Postpaid Red 350 Promotion||PayType--Cash||PaymentReference--2131234||TransactionAmt--100||</t>
-  </si>
-  <si>
-    <t>AccountNo--10077053778||PVT_Date--020112002018||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||SIM--8962702800901163661||PlanName--Postpaid Red 250 Promotion||Account_No--10092270788||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152661||PlanName--Postpaid Red 250 Promotion||Discounts--30% Monthly Discount||PlanBundle--Red 250||</t>
-  </si>
-  <si>
-    <t>EnterprisePrepaid</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152662||New_PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||Pay_Type--Upfront||Channel--Cash||BillAmt--100||Reference--123098763||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478127832||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478127832||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152664||SIM--8962702800901163664||PlanName--Postpaid Basic Promotion||Account_No--10109137161||</t>
-  </si>
-  <si>
-    <t>AccountNo--10109137161||</t>
-  </si>
-  <si>
-    <t>AccountNo--10111455142||</t>
-  </si>
-  <si>
-    <t>10.162.53.120</t>
-  </si>
-  <si>
-    <t>ParallelRun</t>
-  </si>
-  <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>Dependency</t>
-  </si>
-  <si>
-    <t>ModifySmartLimit</t>
-  </si>
-  <si>
-    <t>OrderVerfication</t>
-  </si>
-  <si>
-    <t>TransferOfOwnership_C2C</t>
-  </si>
-  <si>
-    <t>TransferOfOwnership_C2E</t>
-  </si>
-  <si>
-    <t>TransferOfOwnership_E2C</t>
-  </si>
-  <si>
-    <t>TransferOfOwnership_E2E</t>
-  </si>
-  <si>
-    <t>CheckBarringCall</t>
-  </si>
-  <si>
-    <t>Making a call after Bar</t>
-  </si>
-  <si>
-    <t>DunningProcess</t>
-  </si>
-  <si>
-    <t>Dunning Process</t>
-  </si>
-  <si>
-    <t>DBConnection</t>
-  </si>
-  <si>
-    <t>BRM_DB</t>
-  </si>
-  <si>
-    <t>Connecting to BRM DB</t>
-  </si>
-  <si>
-    <t>BillPoID</t>
-  </si>
-  <si>
-    <t>Getting Bill PoID   from DB</t>
-  </si>
-  <si>
-    <t>DBDisconnection</t>
-  </si>
-  <si>
-    <t>DB Disconnected</t>
-  </si>
-  <si>
-    <t>Collections</t>
-  </si>
-  <si>
-    <t>Collection Commands</t>
-  </si>
-  <si>
-    <t>DunningAction</t>
-  </si>
-  <si>
-    <t>CollectionExit</t>
-  </si>
-  <si>
-    <t>SetCallCapabilities</t>
-  </si>
-  <si>
-    <t>Dialer</t>
-  </si>
-  <si>
-    <t>InternationalCall</t>
-  </si>
-  <si>
-    <t>InternationalCallCharging</t>
-  </si>
-  <si>
-    <t>International Call Charging</t>
-  </si>
-  <si>
-    <t>LocalSMS</t>
-  </si>
-  <si>
-    <t>setMessengerCapabilities</t>
-  </si>
-  <si>
-    <t>smsSender</t>
-  </si>
-  <si>
-    <t>SMS Sender</t>
-  </si>
-  <si>
-    <t>LocalSMSCharging</t>
-  </si>
-  <si>
-    <t>InternationalSMS</t>
-  </si>
-  <si>
-    <t>InternationalSMSCharging</t>
-  </si>
-  <si>
-    <t>International SMS Charging</t>
-  </si>
-  <si>
-    <t>BalanceCheck</t>
-  </si>
-  <si>
-    <t>BalanceCheckDialer</t>
-  </si>
-  <si>
-    <t>SetUpMobileDevice</t>
-  </si>
-  <si>
-    <t>RestartMobile</t>
-  </si>
-  <si>
-    <t>ConfigureSMSC</t>
-  </si>
-  <si>
-    <t>Recharge</t>
-  </si>
-  <si>
-    <t>RechargeDialer</t>
-  </si>
-  <si>
-    <t>VerifyRecharge</t>
-  </si>
-  <si>
-    <t>RechargeUSSD</t>
-  </si>
-  <si>
-    <t>FlexBalanceCheck</t>
-  </si>
-  <si>
-    <t>ProductInfo_USSD</t>
-  </si>
-  <si>
-    <t>InvokeUSSDMenu</t>
-  </si>
-  <si>
-    <t>USSDJourney</t>
-  </si>
-  <si>
-    <t>USSDCleaner</t>
-  </si>
-  <si>
-    <t>ProductInfoNotification</t>
-  </si>
-  <si>
-    <t>Recharge_USSDMenu</t>
-  </si>
-  <si>
-    <t>PunchRechargePIN</t>
-  </si>
-  <si>
-    <t>ProductActivation_USSD_Prepaid</t>
-  </si>
-  <si>
-    <t>VerifyProductActivationPrepaid</t>
-  </si>
-  <si>
-    <t>FL_ONT_CPE_Replacement</t>
-  </si>
-  <si>
-    <t>Postpaid_USSD_Act-DeAct</t>
-  </si>
-  <si>
-    <t>Invoke</t>
-  </si>
-  <si>
-    <t>SearchAsset</t>
-  </si>
-  <si>
-    <t>CheckOrder</t>
-  </si>
-  <si>
-    <t>CheckUnBarringCall</t>
-  </si>
-  <si>
-    <t>Making a call after UnBar</t>
-  </si>
-  <si>
-    <t>ETHERNET</t>
-  </si>
-  <si>
-    <t>Ethernet Plan Selection</t>
-  </si>
-  <si>
-    <t>LEASEDLINE</t>
-  </si>
-  <si>
-    <t>Leased line  Plan Selection</t>
-  </si>
-  <si>
-    <t>IPLC</t>
-  </si>
-  <si>
-    <t>ModifySmartLimit_Acc360</t>
-  </si>
-  <si>
-    <t>Modify Spend Limit</t>
-  </si>
-  <si>
-    <t>UpgradePromotion_Acc360</t>
-  </si>
-  <si>
-    <t>UpgradePromotion</t>
-  </si>
-  <si>
-    <t>LanguageChange</t>
-  </si>
-  <si>
-    <t>Activities</t>
-  </si>
-  <si>
-    <t>Activities Creation / Closure for a specific MSISDN</t>
-  </si>
-  <si>
-    <t>PearlMobile_Provisioning</t>
-  </si>
-  <si>
-    <t>PlanSelection_Pearl</t>
-  </si>
-  <si>
-    <t>PearlData_Provisioning</t>
-  </si>
-  <si>
-    <t>PlanSelection_Data_Pearl</t>
-  </si>
-  <si>
-    <t>OSM_Pearl_data</t>
-  </si>
-  <si>
-    <t>DAPN_Provisioning</t>
-  </si>
-  <si>
-    <t>PlanSelection_DAPN</t>
-  </si>
-  <si>
-    <t>CreditLimit</t>
-  </si>
-  <si>
-    <t>Credit Limit Set</t>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>MSISDN--111||SIM--11||PlanName--Prepaid Red Promotion||</t>
   </si>
 </sst>
 </file>
@@ -1543,8 +1561,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1570,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1565,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1585,10 +1603,16 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" t="s">
+        <v>279</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,15 +1642,21 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1641,7 +1671,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,11 +1680,11 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1665,10 +1695,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -1684,6 +1714,29 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1698,10 +1751,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E428"/>
+  <dimension ref="A1:E429"/>
   <sheetViews>
-    <sheetView topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="I347" sqref="I347:J347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1752,7 +1805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1769,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1786,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1803,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1820,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -1837,16 +1890,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>73</v>
@@ -1871,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -1888,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -1905,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -1922,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -1939,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -1956,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -1973,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -1990,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2007,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2024,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -2041,16 +2094,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>73</v>
@@ -2075,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2092,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -2109,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>31</v>
@@ -2126,7 +2179,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>25</v>
@@ -2143,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -2160,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2177,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -2194,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2211,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>21</v>
@@ -2228,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2245,16 +2298,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2262,16 +2315,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>73</v>
@@ -2296,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2313,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>29</v>
@@ -2330,7 +2383,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -2347,7 +2400,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -2364,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2381,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -2398,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
@@ -2415,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -2432,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
@@ -2449,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -2466,16 +2519,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>73</v>
@@ -2500,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -2517,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>29</v>
@@ -2534,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
@@ -2551,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -2568,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -2585,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>39</v>
@@ -2602,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>41</v>
@@ -2619,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -2636,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>21</v>
@@ -2653,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -2670,16 +2723,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>73</v>
@@ -2704,7 +2757,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -2721,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>29</v>
@@ -2738,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>31</v>
@@ -2755,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -2775,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -2792,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
@@ -2809,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>41</v>
@@ -2826,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -2843,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>21</v>
@@ -2860,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -2877,16 +2930,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2894,16 +2947,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2911,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>73</v>
@@ -2928,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>27</v>
@@ -2945,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>29</v>
@@ -2962,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
@@ -2979,7 +3032,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>25</v>
@@ -3220,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3237,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>73</v>
@@ -3254,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3271,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>73</v>
@@ -3288,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -3305,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>29</v>
@@ -3322,7 +3375,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>31</v>
@@ -3339,7 +3392,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -3900,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>12</v>
@@ -3917,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>27</v>
@@ -3934,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>29</v>
@@ -3951,16 +4004,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>27</v>
@@ -3985,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>79</v>
@@ -4002,7 +4055,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>25</v>
@@ -4056,13 +4109,13 @@
         <v>65</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4124,13 +4177,13 @@
         <v>66</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4223,10 +4276,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -4240,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4462,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
@@ -4479,16 +4532,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4496,7 +4549,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4514,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -4531,16 +4584,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4548,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -4566,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -4583,16 +4636,16 @@
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4600,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -4618,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -4635,16 +4688,16 @@
         <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4652,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -4669,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -4686,16 +4739,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,7 +4756,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -4720,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -4737,16 +4790,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4754,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -4778,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -4795,16 +4848,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4812,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -4836,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>12</v>
@@ -4853,16 +4906,16 @@
         <v>2</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4870,7 +4923,7 @@
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>73</v>
@@ -4887,7 +4940,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>27</v>
@@ -4904,7 +4957,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>29</v>
@@ -4921,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>31</v>
@@ -4938,7 +4991,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -4955,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>12</v>
@@ -4972,16 +5025,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>25</v>
@@ -5006,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>12</v>
@@ -5023,16 +5076,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -5057,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>12</v>
@@ -5074,16 +5127,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5108,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>12</v>
@@ -5125,16 +5178,16 @@
         <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5142,7 +5195,7 @@
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>73</v>
@@ -5159,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>27</v>
@@ -5176,7 +5229,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>29</v>
@@ -5193,7 +5246,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>31</v>
@@ -5210,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5228,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5245,16 +5298,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="D242" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5262,7 +5315,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -5279,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>12</v>
@@ -5296,16 +5349,16 @@
         <v>2</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
@@ -5330,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>88</v>
@@ -5347,16 +5400,16 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5364,2617 +5417,2634 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C251" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>4</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="D252" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E251" s="6" t="s">
+      <c r="E252" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
-        <v>1</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
+        <v>2</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
         <v>3</v>
       </c>
-      <c r="B255" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C255" s="6" t="s">
+      <c r="B256" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D255" s="6" t="s">
+      <c r="D256" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E255" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <v>1</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B261" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="D261" s="6" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
+        <v>7</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
         <v>8</v>
       </c>
-      <c r="B264" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="B265" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
         <v>9</v>
       </c>
-      <c r="B265" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C265" s="5" t="s">
+      <c r="B266" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D265" s="6" t="s">
+      <c r="D266" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E265" s="6" t="s">
+      <c r="E266" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
-        <v>1</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
+        <v>2</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
         <v>3</v>
       </c>
-      <c r="B269" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C269" s="5" t="s">
+      <c r="B270" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C270" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D269" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E269" s="6" t="s">
+      <c r="D270" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
-        <v>1</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
+        <v>2</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
         <v>3</v>
       </c>
-      <c r="B273" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C273" s="5" t="s">
+      <c r="B274" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C274" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D273" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E273" s="6" t="s">
+      <c r="D274" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
-        <v>1</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="D276" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
-      <c r="C280" s="8"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="8"/>
-    </row>
-    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
-        <v>1</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C281" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D281" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>140</v>
-      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>5</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="8"/>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>5</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E285" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-    </row>
-    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
-        <v>1</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E287" s="6" t="s">
-        <v>140</v>
-      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C290" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-    </row>
-    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
-        <v>1</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C293" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D293" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E293" s="6" t="s">
-        <v>140</v>
-      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>5</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B297" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>5</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E297" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
-        <v>1</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E299" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
+        <v>3</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
         <v>4</v>
       </c>
-      <c r="B302" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
-        <v>1</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>217</v>
+      <c r="B303" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
+        <v>3</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
         <v>4</v>
       </c>
-      <c r="B307" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
-        <v>1</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E309" s="6" t="s">
-        <v>140</v>
+      <c r="B308" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B313" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>5</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C314" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C313" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
-        <v>1</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D315" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E315" s="6" t="s">
-        <v>217</v>
+      <c r="D314" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C318" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C318" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
+        <v>5</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
         <v>6</v>
       </c>
-      <c r="B320" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
-        <v>1</v>
-      </c>
-      <c r="B322" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C322" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E322" s="6" t="s">
-        <v>140</v>
+      <c r="B321" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
+        <v>6</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
         <v>7</v>
       </c>
-      <c r="B328" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3">
-        <v>1</v>
-      </c>
-      <c r="B330" s="8" t="s">
+      <c r="B329" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C330" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E330" s="6" t="s">
-        <v>140</v>
+      <c r="C329" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
+        <v>6</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
         <v>7</v>
       </c>
-      <c r="B336" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E336" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
-        <v>1</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E338" s="6" t="s">
-        <v>233</v>
+      <c r="B337" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
+        <v>2</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
         <v>3</v>
       </c>
-      <c r="B340" s="8" t="s">
+      <c r="B341" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C341" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
-        <v>1</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E342" s="6" t="s">
-        <v>217</v>
+      <c r="D341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B348" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C348" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C348" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
+        <v>10</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E352" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
         <v>11</v>
       </c>
-      <c r="B352" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C352" s="5" t="s">
+      <c r="B353" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D352" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E352" s="6" t="s">
+      <c r="D353" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E353" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>1</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E354" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C360" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>7</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C361" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D360" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E360" s="5" t="s">
+      <c r="D361" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E361" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>1</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B369" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C369" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D369" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
+        <v>11</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
         <v>12</v>
       </c>
-      <c r="B373" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C373" s="6" t="s">
+      <c r="B374" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C374" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D373" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E373" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
-        <v>1</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D375" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>13</v>
+      <c r="D374" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E374" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E376" s="5" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B381" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C381" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C381" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D381" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
+        <v>7</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
         <v>8</v>
       </c>
-      <c r="B382" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C382" s="5" t="s">
+      <c r="B383" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C383" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D382" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E382" s="6" t="s">
+      <c r="D383" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E383" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
-        <v>1</v>
-      </c>
-      <c r="B384" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D384" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E384" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
+        <v>7</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
         <v>8</v>
       </c>
-      <c r="B391" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C391" s="5" t="s">
+      <c r="B392" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C392" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D391" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E391" s="6" t="s">
+      <c r="D392" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
-        <v>1</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C393" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E393" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
+        <v>2</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
         <v>3</v>
       </c>
-      <c r="B395" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C395" s="6" t="s">
+      <c r="B396" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C396" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D395" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E395" s="6" t="s">
+      <c r="D396" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
-        <v>1</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D397" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E397" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
+        <v>2</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
         <v>3</v>
       </c>
-      <c r="B399" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C399" s="6" t="s">
+      <c r="B400" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C400" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E399" s="6" t="s">
+      <c r="D400" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E400" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
-        <v>1</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D401" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E401" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
+        <v>2</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
         <v>3</v>
       </c>
-      <c r="B403" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C403" s="6" t="s">
+      <c r="B404" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C404" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E403" s="6" t="s">
+      <c r="D404" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E404" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="13">
-        <v>1</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C405" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D405" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E405" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C406" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D406" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C407" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D407" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D408" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D409" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="D410" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="13">
+        <v>6</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C411" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D411" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="13">
         <v>7</v>
       </c>
-      <c r="B411" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C411" s="15" t="s">
+      <c r="B412" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C412" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D411" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E411" s="16" t="s">
+      <c r="D412" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E412" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="13"/>
-      <c r="B412" s="17"/>
-      <c r="C412" s="17"/>
-      <c r="D412" s="17"/>
-      <c r="E412" s="17"/>
-    </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="13">
-        <v>1</v>
-      </c>
-      <c r="B413" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C413" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D413" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E413" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="A413" s="13"/>
+      <c r="B413" s="17"/>
+      <c r="C413" s="17"/>
+      <c r="D413" s="17"/>
+      <c r="E413" s="17"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D415" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D416" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D417" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="D418" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B422" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C422" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C422" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="D422" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="13">
+        <v>11</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D424" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E424" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="13">
         <v>12</v>
       </c>
-      <c r="B424" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C424" s="16" t="s">
+      <c r="B425" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C425" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D424" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="18"/>
-      <c r="B425" s="14"/>
-      <c r="C425" s="16"/>
-      <c r="D425" s="16"/>
-      <c r="E425" s="16"/>
+      <c r="D425" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="3">
-        <v>1</v>
-      </c>
-      <c r="B426" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C426" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D426" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E426" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A426" s="18"/>
+      <c r="B426" s="14"/>
+      <c r="C426" s="16"/>
+      <c r="D426" s="16"/>
+      <c r="E426" s="16"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E427" s="6" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
+        <v>2</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E428" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
         <v>3</v>
       </c>
-      <c r="B428" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C428" s="6" t="s">
+      <c r="B429" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C429" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D428" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E428" s="6" t="s">
+      <c r="D429" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E429" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7989,8 +8059,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8036,19 +8106,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8056,19 +8126,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8076,19 +8146,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8096,19 +8166,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8116,19 +8186,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8136,19 +8206,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8156,19 +8226,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8176,19 +8246,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8196,19 +8266,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8216,19 +8286,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8236,19 +8306,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8256,19 +8326,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8276,19 +8346,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8296,19 +8366,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8316,19 +8386,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8336,19 +8406,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8356,19 +8426,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8376,19 +8446,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8396,19 +8466,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8416,19 +8486,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8436,19 +8506,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8456,19 +8526,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8476,19 +8546,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8496,19 +8566,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8516,19 +8586,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8536,19 +8606,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8556,19 +8626,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8576,19 +8646,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8596,19 +8666,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -8668,19 +8738,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8688,19 +8758,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
         <v>161</v>
-      </c>
-      <c r="G3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8708,19 +8778,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8728,19 +8798,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8748,19 +8818,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
         <v>165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8768,19 +8838,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" t="s">
         <v>167</v>
-      </c>
-      <c r="G7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8788,19 +8858,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="287">
   <si>
     <t>Application_Details</t>
   </si>
@@ -877,13 +877,25 @@
     <t>Maveric@2018</t>
   </si>
   <si>
-    <t>QA07</t>
-  </si>
-  <si>
     <t>Batch1</t>
   </si>
   <si>
-    <t>MSISDN--111||SIM--11||PlanName--Prepaid Red Promotion||</t>
+    <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t>HALEEMI</t>
+  </si>
+  <si>
+    <t>MultipleAccount</t>
+  </si>
+  <si>
+    <t>XML Invoicegeneration</t>
+  </si>
+  <si>
+    <t>AccountNo--11004935055||Beyond_PVT_Date--03-05-2017 00:00:00M||</t>
+  </si>
+  <si>
+    <t>MultipleAccountNo--11004935055||PVT_Date--050200002018||</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1574,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1654,7 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>275</v>
@@ -1652,6 +1664,23 @@
       </c>
       <c r="E5" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1670,8 +1699,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,10 +1709,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1724,22 +1753,44 @@
         <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1751,10 +1802,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E429"/>
+  <dimension ref="A1:E432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,1301 +5487,1318 @@
       <c r="B252" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>5</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D252" s="6" t="s">
+      <c r="D253" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E252" s="6" t="s">
+      <c r="E253" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <v>1</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C256" s="6" t="s">
-        <v>86</v>
+      <c r="C256" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>26</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>3</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>202</v>
+        <v>142</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <v>3</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E260" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="D266" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>7</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E266" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E267" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B269" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>1</v>
+      </c>
+      <c r="B271" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
-        <v>3</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>26</v>
+      <c r="C271" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>1</v>
+      </c>
+      <c r="B275" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>3</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D274" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E274" s="6" t="s">
-        <v>26</v>
+      <c r="C275" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
-        <v>3</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C278" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>216</v>
+        <v>26</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
-      <c r="C281" s="8"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="8"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>3</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
-        <v>3</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E284" s="6" t="s">
-        <v>216</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>3</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
-        <v>3</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E290" s="6" t="s">
-        <v>223</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>3</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
-        <v>3</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E296" s="6" t="s">
-        <v>216</v>
-      </c>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>3</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
-        <v>3</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E302" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C303" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>2</v>
+      </c>
+      <c r="B304" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D303" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>228</v>
+      <c r="C304" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
-        <v>3</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C308" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>2</v>
+      </c>
+      <c r="B309" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D308" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" s="6" t="s">
-        <v>228</v>
+      <c r="C309" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
-        <v>3</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D312" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E312" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>236</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>3</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
-        <v>3</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E318" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>4</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
-        <v>3</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E325" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>5</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
-        <v>3</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E333" s="6" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>5</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B340" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>1</v>
+      </c>
+      <c r="B342" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D340" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E340" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
-        <v>3</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C341" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D341" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E341" s="6" t="s">
-        <v>232</v>
+      <c r="C342" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>215</v>
@@ -6744,696 +6812,679 @@
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3">
-        <v>3</v>
-      </c>
-      <c r="B345" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C345" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D345" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E345" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C353" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E353" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>9</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>10</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>11</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C356" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D353" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E353" s="6" t="s">
+      <c r="D356" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E356" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>1</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
-        <v>2</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D356" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E356" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
-        <v>3</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D357" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E357" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>5</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>1</v>
-      </c>
-      <c r="B363" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E363" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>2</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E364" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
-        <v>3</v>
-      </c>
-      <c r="B365" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E365" s="6" t="s">
-        <v>110</v>
+        <v>5</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E374" s="6" t="s">
         <v>106</v>
       </c>
     </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>10</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>1</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E376" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E376" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>2</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E377" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
-        <v>3</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D378" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E378" s="5" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="E377" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E380" s="5" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C383" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>6</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>7</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>8</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C386" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D383" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E383" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
-        <v>1</v>
-      </c>
-      <c r="B385" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D385" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E385" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="3">
-        <v>2</v>
-      </c>
-      <c r="B386" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="D386" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
-        <v>3</v>
-      </c>
-      <c r="B387" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D387" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E387" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E388" s="6" t="s">
         <v>13</v>
@@ -7441,610 +7492,661 @@
     </row>
     <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C392" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>6</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>7</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E394" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>8</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C395" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D392" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E392" s="6" t="s">
+      <c r="D395" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
         <v>1</v>
       </c>
-      <c r="B394" s="8" t="s">
+      <c r="B397" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C397" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E394" s="6" t="s">
+      <c r="D397" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E397" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
-        <v>2</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C395" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D395" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E395" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
-        <v>3</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C396" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B399" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E399" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>1</v>
+      </c>
+      <c r="B401" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C399" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D399" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E399" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
-        <v>3</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E400" s="6" t="s">
-        <v>26</v>
+      <c r="C401" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
+        <v>3</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>1</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E405" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
         <v>2</v>
       </c>
-      <c r="B403" s="8" t="s">
+      <c r="B406" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C406" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D403" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E403" s="6" t="s">
+      <c r="D406" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E406" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
         <v>3</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B407" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C407" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D404" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E404" s="6" t="s">
+      <c r="D407" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E407" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="13">
-        <v>1</v>
-      </c>
-      <c r="B406" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C406" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D406" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E406" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="13">
-        <v>2</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C407" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D407" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E407" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="13">
-        <v>3</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C408" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D408" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E408" s="16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B409" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C409" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D409" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B410" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C410" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D410" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="D411" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B412" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D412" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="13"/>
-      <c r="B413" s="17"/>
-      <c r="C413" s="17"/>
-      <c r="D413" s="17"/>
-      <c r="E413" s="17"/>
+      <c r="A413" s="13">
+        <v>5</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C413" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D413" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="D414" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="13">
-        <v>3</v>
-      </c>
-      <c r="B416" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C416" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D416" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E416" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="A416" s="13"/>
+      <c r="B416" s="17"/>
+      <c r="C416" s="17"/>
+      <c r="D416" s="17"/>
+      <c r="E416" s="17"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B417" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D417" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B418" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D418" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B419" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="D419" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B421" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B422" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D422" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C423" s="16" t="s">
-        <v>12</v>
+      <c r="C423" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D423" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C424" s="16" t="s">
-        <v>195</v>
+      <c r="C424" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B425" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C425" s="16" t="s">
+      <c r="C425" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D425" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E425" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="13">
+        <v>10</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C426" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D426" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E426" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="13">
+        <v>11</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C427" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D427" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E427" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="13">
+        <v>12</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C428" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D425" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E425" s="16" t="s">
+      <c r="D428" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E428" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="18"/>
-      <c r="B426" s="14"/>
-      <c r="C426" s="16"/>
-      <c r="D426" s="16"/>
-      <c r="E426" s="16"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="18"/>
+      <c r="B429" s="14"/>
+      <c r="C429" s="16"/>
+      <c r="D429" s="16"/>
+      <c r="E429" s="16"/>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
         <v>1</v>
       </c>
-      <c r="B427" s="8" t="s">
+      <c r="B430" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C427" s="6" t="s">
+      <c r="C430" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D427" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E427" s="6" t="s">
+      <c r="D430" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E430" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
         <v>2</v>
       </c>
-      <c r="B428" s="8" t="s">
+      <c r="B431" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C428" s="6" t="s">
+      <c r="C431" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D428" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E428" s="6" t="s">
+      <c r="D431" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E431" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
         <v>3</v>
       </c>
-      <c r="B429" s="8" t="s">
+      <c r="B432" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C429" s="6" t="s">
+      <c r="C432" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D429" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E429" s="6" t="s">
+      <c r="D432" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E432" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Work_New\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="292">
   <si>
     <t>Application_Details</t>
   </si>
@@ -895,7 +895,22 @@
     <t>AccountNo--11004935055||Beyond_PVT_Date--03-05-2017 00:00:00M||</t>
   </si>
   <si>
-    <t>MultipleAccountNo--11004935055||PVT_Date--050200002018||</t>
+    <t>MultipleAccountNo--11004935055||PVT_Date--050100002018||</t>
+  </si>
+  <si>
+    <t>Prepaid_Happy_Offers</t>
+  </si>
+  <si>
+    <t>Postpaid_Bill_Payment</t>
+  </si>
+  <si>
+    <t>Bill_Enquiry</t>
+  </si>
+  <si>
+    <t>BillSummary</t>
+  </si>
+  <si>
+    <t>DueAmount</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1014,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1057,11 +1072,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1123,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,7 +1598,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1699,7 +1724,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1802,10 +1827,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E432"/>
+  <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8148,6 +8173,128 @@
       </c>
       <c r="E432" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B433" s="8"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E434" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C435" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E435" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C436" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E436" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C437" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E437" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>3</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C438" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E439" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C440" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E440" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="298">
   <si>
     <t>Application_Details</t>
   </si>
@@ -911,6 +911,24 @@
   </si>
   <si>
     <t>DueAmount</t>
+  </si>
+  <si>
+    <t>HappyOffers</t>
+  </si>
+  <si>
+    <t>PJM_Login</t>
+  </si>
+  <si>
+    <t>PJM_Upload</t>
+  </si>
+  <si>
+    <t>PJM_APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launching the browser </t>
+  </si>
+  <si>
+    <t>Uploading File</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1072,20 +1090,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1132,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1827,10 +1835,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E440"/>
+  <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+    <sheetView topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5624,1719 +5632,1719 @@
         <v>26</v>
       </c>
     </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>6</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>12</v>
+        <v>142</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <v>2</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>205</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>8</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>2</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E272" s="6" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D273" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>2</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
-        <v>2</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>2</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
-        <v>2</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
-      <c r="C284" s="8"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="8"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>4</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>2</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E286" s="6" t="s">
-        <v>215</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
     </row>
     <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
-      <c r="C290" s="8"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>4</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>2</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>221</v>
-      </c>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
     </row>
     <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
-      <c r="C296" s="8"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>4</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
-        <v>2</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E298" s="6" t="s">
-        <v>215</v>
-      </c>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
     </row>
     <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>4</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
-        <v>2</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C306" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>3</v>
+      </c>
+      <c r="B307" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D306" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E306" s="6" t="s">
-        <v>228</v>
+      <c r="C307" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
-        <v>2</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E309" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>237</v>
       </c>
       <c r="C311" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>3</v>
+      </c>
+      <c r="B312" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D311" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>228</v>
+      <c r="C312" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>139</v>
+        <v>237</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
-        <v>2</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>233</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>4</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
-        <v>2</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C320" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E320" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>238</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>5</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
-        <v>2</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E327" s="6" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>6</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
-        <v>2</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E335" s="6" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>6</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3">
-        <v>2</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D343" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E343" s="6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>2</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E345" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
-        <v>2</v>
-      </c>
-      <c r="B347" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C347" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D347" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E347" s="6" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="D354" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C356" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>10</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>11</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C358" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D356" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E356" s="6" t="s">
+      <c r="D358" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>1</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E358" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
-        <v>2</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E359" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>6</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>1</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E366" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
-        <v>2</v>
-      </c>
-      <c r="B367" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E367" s="6" t="s">
-        <v>44</v>
+      <c r="E366" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E368" s="6" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>15</v>
@@ -7347,13 +7355,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>5</v>
@@ -7362,239 +7370,239 @@
         <v>106</v>
       </c>
     </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>11</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>1</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C379" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B379" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D379" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E379" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
-        <v>2</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D380" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>44</v>
+      <c r="E379" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C386" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>7</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>8</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D386" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E386" s="6" t="s">
+      <c r="D388" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E388" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
-        <v>1</v>
-      </c>
-      <c r="B388" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D388" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E388" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3">
-        <v>2</v>
-      </c>
-      <c r="B389" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E389" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E393" s="6" t="s">
         <v>13</v>
@@ -7602,513 +7610,513 @@
     </row>
     <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C395" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>7</v>
+      </c>
+      <c r="B396" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>8</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C397" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D395" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E395" s="6" t="s">
+      <c r="D397" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E397" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
-        <v>1</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D397" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E397" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
-        <v>2</v>
-      </c>
-      <c r="B398" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C398" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D398" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E398" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E399" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>2</v>
+      </c>
+      <c r="B400" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
-        <v>2</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C402" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D402" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E402" s="6" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>256</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E403" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>2</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E404" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
-        <v>2</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E406" s="6" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>258</v>
       </c>
       <c r="C407" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>2</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E408" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>3</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C409" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D407" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E407" s="6" t="s">
+      <c r="D409" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E409" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="13">
-        <v>1</v>
-      </c>
-      <c r="B409" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C409" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D409" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E409" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="13">
-        <v>2</v>
-      </c>
-      <c r="B410" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C410" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D410" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E410" s="16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C411" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D411" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B412" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D412" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B413" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D413" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E413" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B414" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="D414" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B415" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D415" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="13"/>
-      <c r="B416" s="17"/>
-      <c r="C416" s="17"/>
-      <c r="D416" s="17"/>
-      <c r="E416" s="17"/>
+      <c r="A416" s="13">
+        <v>6</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C416" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D416" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D417" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="13">
-        <v>2</v>
-      </c>
-      <c r="B418" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C418" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D418" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E418" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="A418" s="13"/>
+      <c r="B418" s="17"/>
+      <c r="C418" s="17"/>
+      <c r="D418" s="17"/>
+      <c r="E418" s="17"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B419" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B420" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D420" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B421" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D421" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B422" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="D422" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B423" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C423" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D423" s="16" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B424" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B425" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="D425" s="16" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E425" s="16" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B426" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C426" s="16" t="s">
-        <v>12</v>
+      <c r="C426" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="D426" s="16" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E426" s="16" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B427" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C427" s="16" t="s">
-        <v>195</v>
+      <c r="C427" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D427" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E427" s="16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B428" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D428" s="16" t="s">
         <v>5</v>
@@ -8118,106 +8126,106 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="18"/>
-      <c r="B429" s="14"/>
-      <c r="C429" s="16"/>
-      <c r="D429" s="16"/>
-      <c r="E429" s="16"/>
+      <c r="A429" s="13">
+        <v>11</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C429" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D429" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E429" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="3">
-        <v>1</v>
-      </c>
-      <c r="B430" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C430" s="6" t="s">
+      <c r="A430" s="13">
         <v>12</v>
       </c>
-      <c r="D430" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E430" s="6" t="s">
-        <v>13</v>
+      <c r="B430" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C430" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D430" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E430" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="3">
-        <v>2</v>
-      </c>
-      <c r="B431" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C431" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D431" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E431" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="A431" s="18"/>
+      <c r="B431" s="14"/>
+      <c r="C431" s="16"/>
+      <c r="D431" s="16"/>
+      <c r="E431" s="16"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B432" s="8" t="s">
         <v>271</v>
       </c>
       <c r="C432" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E432" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>2</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C433" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E433" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>3</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C434" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D432" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E432" s="6" t="s">
+      <c r="D434" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E434" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B433" s="8"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>1</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D434" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E434" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>2</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C435" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D435" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E435" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="B435" s="8"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>12</v>
@@ -8234,10 +8242,10 @@
         <v>2</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C437" s="19" t="s">
-        <v>291</v>
+        <v>287</v>
+      </c>
+      <c r="C437" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>15</v>
@@ -8248,52 +8256,86 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C438" s="19" t="s">
-        <v>290</v>
+      <c r="C438" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
+        <v>3</v>
+      </c>
+      <c r="B440" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E440" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E441" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
         <v>2</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B442" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C440" s="19" t="s">
+      <c r="C442" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D440" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E440" s="6" t="s">
+      <c r="D442" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="6" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\Work_New\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Olympus\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="316">
   <si>
     <t>Application_Details</t>
   </si>
@@ -613,9 +613,6 @@
     <t>ParallelRun</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>Dependency</t>
   </si>
   <si>
@@ -871,64 +868,121 @@
     <t>Brmsitenv@123</t>
   </si>
   <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
-    <t>Maveric@2018</t>
+    <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t>HALEEMI</t>
+  </si>
+  <si>
+    <t>XML Invoicegeneration</t>
+  </si>
+  <si>
+    <t>BillSummary</t>
+  </si>
+  <si>
+    <t>DueAmount</t>
+  </si>
+  <si>
+    <t>HappyOffers</t>
+  </si>
+  <si>
+    <t>PJM_Login</t>
+  </si>
+  <si>
+    <t>PJM_Upload</t>
+  </si>
+  <si>
+    <t>PJM_APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launching the browser </t>
+  </si>
+  <si>
+    <t>Uploading File</t>
+  </si>
+  <si>
+    <t>ProductDeActivation_USSD_Prepaid</t>
+  </si>
+  <si>
+    <t>VerifyProductDeActivationPrepaid</t>
+  </si>
+  <si>
+    <t>BillEnquiryDialler</t>
+  </si>
+  <si>
+    <t>Extracting Bill via USSD</t>
+  </si>
+  <si>
+    <t>BillPayment_USSD</t>
+  </si>
+  <si>
+    <t>setMCareCapabilities</t>
+  </si>
+  <si>
+    <t>verifyMCareLogin</t>
+  </si>
+  <si>
+    <t>verifyPlanNameMCare</t>
+  </si>
+  <si>
+    <t>billEnquiryMCare</t>
+  </si>
+  <si>
+    <t>Verifying Happy Offers</t>
+  </si>
+  <si>
+    <t>Validating the Bill Amount</t>
+  </si>
+  <si>
+    <t>Capturing the Existing Bill Amount</t>
+  </si>
+  <si>
+    <t>Prepaid_Happy_Offers_USSD</t>
+  </si>
+  <si>
+    <t>Fetching Bill Amount from Siebel</t>
+  </si>
+  <si>
+    <t>BillEnquiry_USSD</t>
+  </si>
+  <si>
+    <t>QA05</t>
   </si>
   <si>
     <t>Batch1</t>
   </si>
   <si>
-    <t>10.162.53.94</t>
-  </si>
-  <si>
-    <t>HALEEMI</t>
-  </si>
-  <si>
-    <t>MultipleAccount</t>
-  </si>
-  <si>
-    <t>XML Invoicegeneration</t>
-  </si>
-  <si>
-    <t>AccountNo--11004935055||Beyond_PVT_Date--03-05-2017 00:00:00M||</t>
-  </si>
-  <si>
-    <t>MultipleAccountNo--11004935055||PVT_Date--050100002018||</t>
-  </si>
-  <si>
-    <t>Prepaid_Happy_Offers</t>
-  </si>
-  <si>
-    <t>Postpaid_Bill_Payment</t>
-  </si>
-  <si>
-    <t>Bill_Enquiry</t>
-  </si>
-  <si>
-    <t>BillSummary</t>
-  </si>
-  <si>
-    <t>DueAmount</t>
-  </si>
-  <si>
-    <t>HappyOffers</t>
-  </si>
-  <si>
-    <t>PJM_Login</t>
-  </si>
-  <si>
-    <t>PJM_Upload</t>
-  </si>
-  <si>
-    <t>PJM_APP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Launching the browser </t>
-  </si>
-  <si>
-    <t>Uploading File</t>
+    <t>MCare_BillEnquiry</t>
+  </si>
+  <si>
+    <t>MCare_VerifyPlanName</t>
+  </si>
+  <si>
+    <t>MVCareBill</t>
+  </si>
+  <si>
+    <t>To Fetch Mcare Fetch</t>
+  </si>
+  <si>
+    <t>MSISDN--97470899060||DeviceName--DeviceOne||Env--Test||</t>
+  </si>
+  <si>
+    <t>MSISDN--97431356005||DeviceName--DeviceOne||USSDMenu--*123#||USSDJourney--#,#,7||</t>
+  </si>
+  <si>
+    <t>https://10.160.222.21:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>HaleemBaig</t>
+  </si>
+  <si>
+    <t>Mav@2018</t>
+  </si>
+  <si>
+    <t>MSISDN--97431356005||DeviceName--DeviceOne||USSDMenu--*100#||USSDJourney--1,3,1||</t>
+  </si>
+  <si>
+    <t>MSISDN--97430992830||DeviceName--DeviceOne||BillEnquiryCode--*122#||</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1086,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1079,22 +1133,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,20 +1161,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1607,7 +1648,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1656,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1645,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>125</v>
@@ -1690,30 +1731,30 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" t="s">
         <v>275</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>276</v>
-      </c>
-      <c r="E5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,7 +1774,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,10 +1783,9 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1760,7 +1800,7 @@
         <v>191</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -1783,22 +1823,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,22 +1846,68 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
         <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1835,18 +1921,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E442"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
-    <sheetView topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="E261" sqref="E261"/>
+    <sheetView topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2905,7 +2992,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -3129,7 +3216,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="15"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -3357,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3374,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>73</v>
@@ -3391,10 +3478,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3408,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>73</v>
@@ -3425,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -3442,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>29</v>
@@ -3459,7 +3546,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>31</v>
@@ -3476,7 +3563,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -4193,13 +4280,13 @@
         <v>65</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4261,13 +4348,13 @@
         <v>66</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4343,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4360,10 +4447,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -4377,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4599,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
@@ -4616,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>15</v>
@@ -4633,7 +4720,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4651,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -4668,10 +4755,10 @@
         <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
@@ -4685,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -4703,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -4720,10 +4807,10 @@
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
@@ -4737,7 +4824,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -4755,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -4772,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>15</v>
@@ -4789,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -4806,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -4823,16 +4910,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4840,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -4857,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -4874,16 +4961,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4891,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -4904,18 +4991,18 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -4932,16 +5019,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4949,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -4962,11 +5049,11 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -5194,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>12</v>
@@ -5211,16 +5298,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5228,7 +5315,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5245,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>12</v>
@@ -5262,10 +5349,10 @@
         <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
@@ -5279,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>73</v>
@@ -5296,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>27</v>
@@ -5313,7 +5400,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>29</v>
@@ -5330,7 +5417,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>31</v>
@@ -5347,7 +5434,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5487,13 +5574,13 @@
         <v>91</v>
       </c>
       <c r="C250" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="E250" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,13 +5608,13 @@
         <v>91</v>
       </c>
       <c r="C252" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E252" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,13 +5659,13 @@
         <v>142</v>
       </c>
       <c r="C256" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5595,7 +5682,7 @@
         <v>15</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,13 +5693,13 @@
         <v>142</v>
       </c>
       <c r="C258" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,13 +5727,13 @@
         <v>142</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,13 +5744,13 @@
         <v>142</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>12</v>
@@ -5688,16 +5775,16 @@
         <v>2</v>
       </c>
       <c r="B264" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E264" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -5705,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>25</v>
@@ -5722,16 +5809,16 @@
         <v>4</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C266" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D266" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D266" s="6" t="s">
+      <c r="E266" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="E266" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -5739,16 +5826,16 @@
         <v>5</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C267" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5756,16 +5843,16 @@
         <v>6</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C268" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E268" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E268" s="6" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5773,7 +5860,7 @@
         <v>7</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>88</v>
@@ -5790,16 +5877,16 @@
         <v>8</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C270" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E270" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,7 +5894,7 @@
         <v>9</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>86</v>
@@ -5824,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>12</v>
@@ -5841,16 +5928,16 @@
         <v>2</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5858,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>25</v>
@@ -5875,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>12</v>
@@ -5892,16 +5979,16 @@
         <v>2</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>25</v>
@@ -5946,13 +6033,13 @@
         <v>138</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5963,13 +6050,13 @@
         <v>138</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6018,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>139</v>
@@ -6035,16 +6122,16 @@
         <v>2</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6052,16 +6139,16 @@
         <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6069,7 +6156,7 @@
         <v>4</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>140</v>
@@ -6086,16 +6173,16 @@
         <v>5</v>
       </c>
       <c r="B291" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C291" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C291" s="5" t="s">
+      <c r="D291" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6110,7 +6197,7 @@
         <v>1</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>139</v>
@@ -6127,16 +6214,16 @@
         <v>2</v>
       </c>
       <c r="B294" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C294" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C294" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6144,16 +6231,16 @@
         <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C295" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E295" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6161,7 +6248,7 @@
         <v>4</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>140</v>
@@ -6178,16 +6265,16 @@
         <v>5</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6202,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>139</v>
@@ -6219,16 +6306,16 @@
         <v>2</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6236,16 +6323,16 @@
         <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6253,7 +6340,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>140</v>
@@ -6270,16 +6357,16 @@
         <v>5</v>
       </c>
       <c r="B303" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6287,16 +6374,16 @@
         <v>1</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,16 +6391,16 @@
         <v>2</v>
       </c>
       <c r="B306" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C306" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C306" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6321,16 +6408,16 @@
         <v>3</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6338,16 +6425,16 @@
         <v>4</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6355,16 +6442,16 @@
         <v>1</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6372,16 +6459,16 @@
         <v>2</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6389,16 +6476,16 @@
         <v>3</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6406,16 +6493,16 @@
         <v>4</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6423,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>139</v>
@@ -6440,16 +6527,16 @@
         <v>2</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6457,16 +6544,16 @@
         <v>3</v>
       </c>
       <c r="B317" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C317" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C317" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>140</v>
@@ -6491,16 +6578,16 @@
         <v>5</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C319" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6508,16 +6595,16 @@
         <v>1</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6525,16 +6612,16 @@
         <v>2</v>
       </c>
       <c r="B322" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C322" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C322" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6542,16 +6629,16 @@
         <v>3</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6559,16 +6646,16 @@
         <v>4</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6576,16 +6663,16 @@
         <v>5</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,16 +6680,16 @@
         <v>6</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6610,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>139</v>
@@ -6627,16 +6714,16 @@
         <v>2</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6644,16 +6731,16 @@
         <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,16 +6748,16 @@
         <v>4</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,16 +6765,16 @@
         <v>5</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6695,7 +6782,7 @@
         <v>6</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>140</v>
@@ -6712,16 +6799,16 @@
         <v>7</v>
       </c>
       <c r="B334" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C334" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C334" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6729,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>139</v>
@@ -6746,16 +6833,16 @@
         <v>2</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6763,16 +6850,16 @@
         <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6780,16 +6867,16 @@
         <v>4</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6797,16 +6884,16 @@
         <v>5</v>
       </c>
       <c r="B340" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C340" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6814,7 +6901,7 @@
         <v>6</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>140</v>
@@ -6831,16 +6918,16 @@
         <v>7</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6848,16 +6935,16 @@
         <v>1</v>
       </c>
       <c r="B344" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C344" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C344" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,16 +6952,16 @@
         <v>2</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6882,16 +6969,16 @@
         <v>3</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6899,16 +6986,16 @@
         <v>1</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E348" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6916,16 +7003,16 @@
         <v>2</v>
       </c>
       <c r="B349" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C349" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D349" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E349" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6933,16 +7020,16 @@
         <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6950,16 +7037,16 @@
         <v>4</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6967,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>12</v>
@@ -6984,16 +7071,16 @@
         <v>6</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7001,16 +7088,16 @@
         <v>7</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D354" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7018,7 +7105,7 @@
         <v>8</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>27</v>
@@ -7035,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>29</v>
@@ -7052,7 +7139,7 @@
         <v>10</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>31</v>
@@ -7069,7 +7156,7 @@
         <v>11</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>25</v>
@@ -7378,7 +7465,7 @@
         <v>99</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
@@ -7545,7 +7632,7 @@
         <v>1</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>12</v>
@@ -7562,10 +7649,10 @@
         <v>2</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
@@ -7579,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>25</v>
@@ -7596,7 +7683,7 @@
         <v>4</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>101</v>
@@ -7613,7 +7700,7 @@
         <v>5</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>102</v>
@@ -7630,7 +7717,7 @@
         <v>6</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>12</v>
@@ -7647,10 +7734,10 @@
         <v>7</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>15</v>
@@ -7664,7 +7751,7 @@
         <v>8</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>25</v>
@@ -7681,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>12</v>
@@ -7698,16 +7785,16 @@
         <v>2</v>
       </c>
       <c r="B400" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E400" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -7715,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>25</v>
@@ -7732,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>12</v>
@@ -7749,16 +7836,16 @@
         <v>2</v>
       </c>
       <c r="B404" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E404" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -7766,7 +7853,7 @@
         <v>3</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>25</v>
@@ -7783,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>12</v>
@@ -7800,16 +7887,16 @@
         <v>2</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -7817,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>25</v>
@@ -7830,348 +7917,348 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="13">
+      <c r="A411" s="11">
         <v>1</v>
       </c>
-      <c r="B411" s="14" t="s">
+      <c r="B411" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C411" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D411" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="11">
+        <v>2</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C412" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="11">
+        <v>3</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="11">
+        <v>4</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D414" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="11">
+        <v>5</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C415" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D415" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="11">
+        <v>6</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C416" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C411" s="15" t="s">
+      <c r="D416" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="11">
+        <v>7</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C417" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D417" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="11"/>
+      <c r="B418" s="11"/>
+      <c r="C418" s="11"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="11">
+        <v>1</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C419" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D411" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E411" s="16" t="s">
+      <c r="D419" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E419" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="13">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="11">
         <v>2</v>
       </c>
-      <c r="B412" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C412" s="15" t="s">
+      <c r="B420" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C420" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D412" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E412" s="16" t="s">
+      <c r="D420" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E420" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="13">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="11">
         <v>3</v>
       </c>
-      <c r="B413" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C413" s="15" t="s">
+      <c r="B421" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C421" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D413" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E413" s="16" t="s">
+      <c r="D421" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E421" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="13">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="11">
         <v>4</v>
       </c>
-      <c r="B414" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C414" s="15" t="s">
+      <c r="B422" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C422" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D414" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E414" s="16" t="s">
+      <c r="D422" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E422" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="13">
-        <v>5</v>
-      </c>
-      <c r="B415" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C415" s="15" t="s">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="11">
+        <v>5</v>
+      </c>
+      <c r="B423" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C423" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D415" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E415" s="16" t="s">
+      <c r="D423" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E423" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="13">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="11">
         <v>6</v>
       </c>
-      <c r="B416" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C416" s="15" t="s">
+      <c r="B424" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D416" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E416" s="16" t="s">
+      <c r="C424" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D424" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E424" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="13">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="11">
         <v>7</v>
       </c>
-      <c r="B417" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C417" s="15" t="s">
+      <c r="B425" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C425" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D417" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E417" s="16" t="s">
+      <c r="D425" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="13"/>
-      <c r="B418" s="17"/>
-      <c r="C418" s="17"/>
-      <c r="D418" s="17"/>
-      <c r="E418" s="17"/>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="13">
-        <v>1</v>
-      </c>
-      <c r="B419" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C419" s="15" t="s">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="11">
+        <v>8</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D426" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="11">
+        <v>9</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C427" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D427" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E427" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="11">
+        <v>10</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C428" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D419" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E419" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="13">
-        <v>2</v>
-      </c>
-      <c r="B420" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C420" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D420" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E420" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="13">
-        <v>3</v>
-      </c>
-      <c r="B421" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C421" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D421" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E421" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="13">
-        <v>4</v>
-      </c>
-      <c r="B422" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C422" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D422" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E422" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="13">
-        <v>5</v>
-      </c>
-      <c r="B423" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C423" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D423" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E423" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="13">
-        <v>6</v>
-      </c>
-      <c r="B424" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C424" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D424" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="13">
-        <v>7</v>
-      </c>
-      <c r="B425" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C425" s="15" t="s">
+      <c r="D428" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="11">
+        <v>11</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C429" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D429" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E429" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="11">
+        <v>12</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C430" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D425" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E425" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="13">
-        <v>8</v>
-      </c>
-      <c r="B426" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C426" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D426" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E426" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="13">
-        <v>9</v>
-      </c>
-      <c r="B427" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C427" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D427" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E427" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="13">
-        <v>10</v>
-      </c>
-      <c r="B428" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C428" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D428" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E428" s="16" t="s">
+      <c r="D430" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E430" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="13">
-        <v>11</v>
-      </c>
-      <c r="B429" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C429" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D429" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E429" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="13">
-        <v>12</v>
-      </c>
-      <c r="B430" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C430" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D430" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E430" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="18"/>
-      <c r="B431" s="14"/>
-      <c r="C431" s="16"/>
-      <c r="D431" s="16"/>
-      <c r="E431" s="16"/>
+      <c r="A431" s="11"/>
+      <c r="B431" s="12"/>
+      <c r="C431" s="14"/>
+      <c r="D431" s="14"/>
+      <c r="E431" s="14"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>1</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>12</v>
@@ -8188,10 +8275,10 @@
         <v>2</v>
       </c>
       <c r="B433" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C433" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="C433" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>15</v>
@@ -8205,7 +8292,7 @@
         <v>3</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>25</v>
@@ -8217,126 +8304,659 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B435" s="8"/>
-    </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="3">
         <v>1</v>
       </c>
-      <c r="B436" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C436" s="6" t="s">
-        <v>12</v>
+      <c r="B436" s="8"/>
+      <c r="C436" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E436" s="6" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="3">
         <v>2</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C437" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>1</v>
+      <c r="A438" s="3">
+        <v>3</v>
       </c>
       <c r="B438" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C438" s="6" t="s">
-        <v>12</v>
+      <c r="C438" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>2</v>
+      <c r="A439" s="3">
+        <v>4</v>
       </c>
       <c r="B439" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C439" s="6" t="s">
-        <v>291</v>
+      <c r="C439" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>3</v>
+      <c r="A440" s="3">
+        <v>5</v>
       </c>
       <c r="B440" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C440" s="6" t="s">
+      <c r="C440" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E440" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>6</v>
+      </c>
+      <c r="B441" s="8"/>
+      <c r="C441" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E441" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>7</v>
+      </c>
+      <c r="B442" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>1</v>
+      </c>
+      <c r="B444" s="8"/>
+      <c r="C444" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E444" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <v>2</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E445" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>3</v>
+      </c>
+      <c r="B446" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E446" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <v>4</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E447" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>5</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <v>6</v>
+      </c>
+      <c r="B449" s="8"/>
+      <c r="C449" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E449" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>7</v>
+      </c>
+      <c r="B450" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E450" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>8</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E451" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>1</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E453" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>2</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E454" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>3</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E455" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>4</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E456" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>5</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C457" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D440" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E440" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="D457" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E457" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
         <v>1</v>
       </c>
-      <c r="B441" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C441" s="6" t="s">
+      <c r="B459" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C459" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D441" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E441" s="6" t="s">
+      <c r="D459" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E459" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
         <v>2</v>
       </c>
-      <c r="B442" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C442" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E442" s="6" t="s">
-        <v>128</v>
+      <c r="B460" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E460" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>3</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E461" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>4</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>5</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>6</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>7</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E465" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>8</v>
+      </c>
+      <c r="B466" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E466" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>9</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E467" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>10</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>1</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C470" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E470" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <v>2</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D471" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E471" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>3</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E472" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <v>4</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D473" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>5</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D474" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>6</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>1</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D477" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E477" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>2</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D478" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>3</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D479" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -8350,7 +8970,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -8983,7 +9603,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Olympus\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="314">
   <si>
     <t>Application_Details</t>
   </si>
@@ -196,9 +196,6 @@
     <t>ValidationData</t>
   </si>
   <si>
-    <t>QA06</t>
-  </si>
-  <si>
     <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
   </si>
   <si>
@@ -946,43 +943,40 @@
     <t>BillEnquiry_USSD</t>
   </si>
   <si>
-    <t>QA05</t>
+    <t>MCare_BillEnquiry</t>
+  </si>
+  <si>
+    <t>MCare_VerifyPlanName</t>
+  </si>
+  <si>
+    <t>MVCareBill</t>
+  </si>
+  <si>
+    <t>To Fetch Mcare Fetch</t>
+  </si>
+  <si>
+    <t>GetZipFile</t>
+  </si>
+  <si>
+    <t>ZIP XML File</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2018</t>
   </si>
   <si>
     <t>Batch1</t>
   </si>
   <si>
-    <t>MCare_BillEnquiry</t>
-  </si>
-  <si>
-    <t>MCare_VerifyPlanName</t>
-  </si>
-  <si>
-    <t>MVCareBill</t>
-  </si>
-  <si>
-    <t>To Fetch Mcare Fetch</t>
-  </si>
-  <si>
-    <t>MSISDN--97470899060||DeviceName--DeviceOne||Env--Test||</t>
-  </si>
-  <si>
-    <t>MSISDN--97431356005||DeviceName--DeviceOne||USSDMenu--*123#||USSDJourney--#,#,7||</t>
-  </si>
-  <si>
-    <t>https://10.160.222.21:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>HaleemBaig</t>
-  </si>
-  <si>
-    <t>Mav@2018</t>
-  </si>
-  <si>
-    <t>MSISDN--97431356005||DeviceName--DeviceOne||USSDMenu--*100#||USSDJourney--1,3,1||</t>
-  </si>
-  <si>
-    <t>MSISDN--97430992830||DeviceName--DeviceOne||BillEnquiryCode--*122#||</t>
+    <t>AccountNo--11004935055||PVT_Date--90200002018||</t>
+  </si>
+  <si>
+    <t>AccountNo--11004935055||Beyond_PVT_Date--03-09-2017 00:00:00M||</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1641,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1656,7 +1650,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1669,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1685,81 +1679,66 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="s">
         <v>274</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>275</v>
-      </c>
-      <c r="E5" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
         <v>277</v>
       </c>
-      <c r="D6" t="s">
-        <v>278</v>
-      </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1773,8 +1752,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,10 +1762,11 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1797,10 +1777,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>192</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -1823,22 +1803,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1846,68 +1826,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1921,10 +1855,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E483"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454"/>
+    <sheetView topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="K477" sqref="K477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1976,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1993,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -2010,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -2027,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -2044,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -2061,16 +1995,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,16 +2012,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2112,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -2129,7 +2063,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -2138,7 +2072,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -2163,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -2180,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -2197,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -2214,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2231,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2248,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -2265,16 +2199,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,16 +2216,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2316,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -2333,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>31</v>
@@ -2342,7 +2276,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>25</v>
@@ -2367,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -2384,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2401,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -2418,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2435,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>21</v>
@@ -2452,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2469,16 +2403,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,16 +2420,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,16 +2437,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2537,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>29</v>
@@ -2554,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -2563,7 +2497,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,7 +2505,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -2588,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2605,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -2622,7 +2556,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
@@ -2639,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -2656,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
@@ -2673,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -2690,16 +2624,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,16 +2641,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,7 +2658,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -2741,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>29</v>
@@ -2758,7 +2692,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
@@ -2767,7 +2701,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -2792,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -2809,7 +2743,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>39</v>
@@ -2826,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>41</v>
@@ -2843,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -2860,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>21</v>
@@ -2877,7 +2811,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -2894,16 +2828,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2911,16 +2845,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -2945,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>29</v>
@@ -2962,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>31</v>
@@ -2971,7 +2905,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -2999,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -3016,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
@@ -3033,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>41</v>
@@ -3050,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -3067,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>21</v>
@@ -3084,7 +3018,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -3101,16 +3035,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3118,16 +3052,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,16 +3069,16 @@
         <v>9</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>27</v>
@@ -3169,7 +3103,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>29</v>
@@ -3186,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
@@ -3195,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,7 +3137,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>25</v>
@@ -3260,13 +3194,13 @@
         <v>34</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>12</v>
@@ -3359,16 +3293,16 @@
         <v>2</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>25</v>
@@ -3393,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
@@ -3410,16 +3344,16 @@
         <v>2</v>
       </c>
       <c r="B95" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>25</v>
@@ -3444,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3461,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>15</v>
@@ -3478,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3495,10 +3429,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>15</v>
@@ -3512,7 +3446,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -3521,7 +3455,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>29</v>
@@ -3546,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>31</v>
@@ -3555,7 +3489,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -3580,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>12</v>
@@ -3597,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>27</v>
@@ -3614,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>29</v>
@@ -3631,16 +3565,16 @@
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C110" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,16 +3582,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,16 +3599,16 @@
         <v>6</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -3699,16 +3633,16 @@
         <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>31</v>
@@ -3725,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3733,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>25</v>
@@ -3750,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>12</v>
@@ -3767,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>27</v>
@@ -3784,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>29</v>
@@ -3801,16 +3735,16 @@
         <v>4</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,16 +3752,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,16 +3769,16 @@
         <v>6</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,7 +3786,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>27</v>
@@ -3869,16 +3803,16 @@
         <v>8</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>31</v>
@@ -3895,7 +3829,7 @@
         <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>25</v>
@@ -3920,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>12</v>
@@ -3937,7 +3871,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>27</v>
@@ -3954,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>29</v>
@@ -3971,16 +3905,16 @@
         <v>4</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3988,16 +3922,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,16 +3939,16 @@
         <v>6</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>27</v>
@@ -4039,16 +3973,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>25</v>
@@ -4124,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>12</v>
@@ -4141,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>27</v>
@@ -4158,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>29</v>
@@ -4175,16 +4109,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,7 +4126,7 @@
         <v>5</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>27</v>
@@ -4209,16 +4143,16 @@
         <v>6</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>25</v>
@@ -4243,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>12</v>
@@ -4260,16 +4194,16 @@
         <v>2</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4277,16 +4211,16 @@
         <v>3</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,7 +4228,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>25</v>
@@ -4311,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>12</v>
@@ -4328,16 +4262,16 @@
         <v>2</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,16 +4279,16 @@
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>25</v>
@@ -4379,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>12</v>
@@ -4396,16 +4330,16 @@
         <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4413,7 +4347,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>25</v>
@@ -4430,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4447,10 +4381,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -4464,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4481,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>12</v>
@@ -4498,16 +4432,16 @@
         <v>2</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4515,7 +4449,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>25</v>
@@ -4532,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>12</v>
@@ -4549,16 +4483,16 @@
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,7 +4500,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>25</v>
@@ -4583,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>12</v>
@@ -4600,16 +4534,16 @@
         <v>2</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>25</v>
@@ -4634,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>12</v>
@@ -4651,16 +4585,16 @@
         <v>2</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4668,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>25</v>
@@ -4686,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
@@ -4703,16 +4637,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4720,7 +4654,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4738,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -4755,16 +4689,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4772,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -4790,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -4807,16 +4741,16 @@
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -4842,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -4859,16 +4793,16 @@
         <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4876,7 +4810,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -4893,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -4910,16 +4844,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4927,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -4944,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -4961,16 +4895,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E206" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4978,7 +4912,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -5002,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -5019,16 +4953,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5036,7 +4970,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -5060,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>12</v>
@@ -5077,16 +5011,16 @@
         <v>2</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5094,16 +5028,16 @@
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C215" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>27</v>
@@ -5128,7 +5062,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>29</v>
@@ -5145,7 +5079,7 @@
         <v>6</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>31</v>
@@ -5154,7 +5088,7 @@
         <v>15</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5162,7 +5096,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -5179,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>12</v>
@@ -5196,16 +5130,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5213,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>25</v>
@@ -5230,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>12</v>
@@ -5247,16 +5181,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5264,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -5281,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>12</v>
@@ -5298,16 +5232,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5332,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>12</v>
@@ -5349,16 +5283,16 @@
         <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5366,10 +5300,10 @@
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>15</v>
@@ -5383,7 +5317,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>27</v>
@@ -5392,7 +5326,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5400,7 +5334,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>29</v>
@@ -5417,7 +5351,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>31</v>
@@ -5426,7 +5360,7 @@
         <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5434,7 +5368,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5452,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5469,16 +5403,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="D242" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5486,7 +5420,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -5503,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>12</v>
@@ -5520,16 +5454,16 @@
         <v>2</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5537,7 +5471,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
@@ -5554,13 +5488,13 @@
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C249" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D249" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>13</v>
@@ -5571,16 +5505,16 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D250" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="E250" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5588,16 +5522,16 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5605,16 +5539,16 @@
         <v>4</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C252" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E252" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5622,13 +5556,13 @@
         <v>5</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>26</v>
@@ -5639,13 +5573,13 @@
         <v>1</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C255" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D255" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>13</v>
@@ -5656,16 +5590,16 @@
         <v>2</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C256" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5673,16 +5607,16 @@
         <v>3</v>
       </c>
       <c r="B257" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="D257" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5690,16 +5624,16 @@
         <v>4</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C258" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5707,16 +5641,16 @@
         <v>5</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>86</v>
+        <v>141</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,16 +5658,16 @@
         <v>6</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -5741,3222 +5675,3290 @@
         <v>7</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C261" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D261" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D261" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="E261" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
-        <v>1</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E263" s="6" t="s">
-        <v>13</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>8</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B265" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>205</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
+        <v>7</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
         <v>8</v>
       </c>
-      <c r="B270" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C270" s="5" t="s">
+      <c r="B271" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D270" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E270" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+    </row>
+    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
         <v>9</v>
       </c>
-      <c r="B271" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E271" s="6" t="s">
+      <c r="B272" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E272" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
-        <v>1</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
+        <v>2</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
         <v>3</v>
       </c>
-      <c r="B275" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C275" s="5" t="s">
+      <c r="B276" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D275" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E275" s="6" t="s">
+      <c r="D276" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>1</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
+        <v>2</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
         <v>3</v>
       </c>
-      <c r="B279" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C279" s="5" t="s">
+      <c r="B280" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D279" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E279" s="6" t="s">
+      <c r="D280" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
-        <v>1</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B282" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C282" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-    </row>
-    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
-        <v>1</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C287" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D287" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E287" s="6" t="s">
-        <v>139</v>
-      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>5</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B291" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>5</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C292" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C291" s="5" t="s">
+      <c r="D292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D291" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
-      <c r="C292" s="8"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-    </row>
-    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
-        <v>1</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E293" s="6" t="s">
-        <v>139</v>
-      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B295" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C295" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C295" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
-      <c r="C298" s="8"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-    </row>
-    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
-        <v>1</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C299" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D299" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E299" s="6" t="s">
-        <v>139</v>
-      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>5</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B303" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>5</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C304" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C303" s="5" t="s">
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E303" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
-        <v>1</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E305" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B307" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
+        <v>3</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
         <v>4</v>
       </c>
-      <c r="B308" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
-        <v>1</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E310" s="6" t="s">
-        <v>214</v>
+      <c r="B309" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
+        <v>3</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
         <v>4</v>
       </c>
-      <c r="B313" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
-        <v>1</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D315" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E315" s="6" t="s">
-        <v>139</v>
+      <c r="B314" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C318" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C318" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C319" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>5</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
-        <v>1</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C321" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E321" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C323" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C323" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
+        <v>5</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
         <v>6</v>
       </c>
-      <c r="B326" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C326" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E326" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3">
-        <v>1</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D328" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E328" s="6" t="s">
-        <v>139</v>
+      <c r="B327" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
+        <v>6</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
         <v>7</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="B335" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C335" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C334" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E334" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3">
-        <v>1</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D336" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E336" s="6" t="s">
-        <v>139</v>
+      <c r="D335" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B341" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C341" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C341" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
+        <v>6</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
         <v>7</v>
       </c>
-      <c r="B342" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E342" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="3">
-        <v>1</v>
-      </c>
-      <c r="B344" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C344" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E344" s="6" t="s">
-        <v>230</v>
+      <c r="B343" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C345" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C345" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
+        <v>2</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
         <v>3</v>
       </c>
-      <c r="B346" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C346" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D346" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E346" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
-        <v>1</v>
-      </c>
-      <c r="B348" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C348" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E348" s="6" t="s">
-        <v>214</v>
+      <c r="B347" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E347" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B350" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E350" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D354" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
+        <v>10</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
         <v>11</v>
       </c>
-      <c r="B358" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C358" s="5" t="s">
+      <c r="B359" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C359" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D358" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E358" s="6" t="s">
+      <c r="D359" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
-        <v>1</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C360" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E360" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E365" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C366" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>7</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C367" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D366" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E366" s="5" t="s">
+      <c r="D367" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E367" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="3">
-        <v>1</v>
-      </c>
-      <c r="B368" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D368" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E368" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E374" s="6" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B375" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C375" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C375" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D375" s="6" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
+        <v>11</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
         <v>12</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C379" s="6" t="s">
+      <c r="B380" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C380" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D379" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E379" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
-        <v>1</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D381" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E381" s="5" t="s">
-        <v>13</v>
+      <c r="D380" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E380" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E382" s="5" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E383" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E386" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B387" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C387" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C387" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="D387" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
+        <v>7</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
         <v>8</v>
       </c>
-      <c r="B388" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C388" s="5" t="s">
+      <c r="B389" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C389" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D388" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E388" s="6" t="s">
+      <c r="D389" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E389" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="3">
-        <v>1</v>
-      </c>
-      <c r="B390" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E390" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E394" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E396" s="6" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
+        <v>7</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
         <v>8</v>
       </c>
-      <c r="B397" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C397" s="5" t="s">
+      <c r="B398" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C398" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D397" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E397" s="6" t="s">
+      <c r="D398" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E398" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
-        <v>1</v>
-      </c>
-      <c r="B399" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C399" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D399" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E399" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>254</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
+        <v>2</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
         <v>3</v>
       </c>
-      <c r="B401" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C401" s="6" t="s">
+      <c r="B402" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C402" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D401" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E401" s="6" t="s">
+      <c r="D402" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E402" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
-        <v>1</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C403" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D403" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E403" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>256</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
+        <v>2</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E405" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
         <v>3</v>
       </c>
-      <c r="B405" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C405" s="6" t="s">
+      <c r="B406" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C406" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D405" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E405" s="6" t="s">
+      <c r="D406" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E406" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="3">
-        <v>1</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C407" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E407" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>256</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
+        <v>2</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E409" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
         <v>3</v>
       </c>
-      <c r="B409" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C409" s="6" t="s">
+      <c r="B410" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C410" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D409" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E409" s="6" t="s">
+      <c r="D410" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E410" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="11">
-        <v>1</v>
-      </c>
-      <c r="B411" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C411" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D411" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E411" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E412" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D413" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E413" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D414" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E414" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D415" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E415" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="D416" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E416" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="11">
+        <v>6</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C417" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D417" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="11">
         <v>7</v>
       </c>
-      <c r="B417" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C417" s="13" t="s">
+      <c r="B418" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C418" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D417" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E417" s="14" t="s">
+      <c r="D418" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="11"/>
-      <c r="B418" s="11"/>
-      <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
-    </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="11">
-        <v>1</v>
-      </c>
-      <c r="B419" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C419" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D419" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E419" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="A419" s="11"/>
+      <c r="B419" s="11"/>
+      <c r="C419" s="11"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B420" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E420" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D421" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E421" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D422" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E422" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D423" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E423" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B424" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="D424" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E424" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B425" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C425" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C425" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="D425" s="14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E425" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D426" s="14" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E426" s="14" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E427" s="14" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B428" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C428" s="14" t="s">
-        <v>12</v>
+        <v>266</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="D428" s="14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E428" s="14" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B429" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E429" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="11">
+        <v>11</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C430" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D430" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E430" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="11">
         <v>12</v>
       </c>
-      <c r="B430" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C430" s="14" t="s">
+      <c r="B431" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C431" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D430" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E430" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="11"/>
-      <c r="B431" s="12"/>
-      <c r="C431" s="14"/>
-      <c r="D431" s="14"/>
-      <c r="E431" s="14"/>
+      <c r="D431" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="3">
-        <v>1</v>
-      </c>
-      <c r="B432" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C432" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D432" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E432" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A432" s="11"/>
+      <c r="B432" s="12"/>
+      <c r="C432" s="14"/>
+      <c r="D432" s="14"/>
+      <c r="E432" s="14"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E433" s="6" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
+        <v>2</v>
+      </c>
+      <c r="B434" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C434" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E434" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
         <v>3</v>
       </c>
-      <c r="B434" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C434" s="6" t="s">
+      <c r="B435" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C435" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D434" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E434" s="6" t="s">
+      <c r="D435" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E435" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="3">
-        <v>1</v>
-      </c>
-      <c r="B436" s="8"/>
-      <c r="C436" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D436" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E436" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
-        <v>2</v>
-      </c>
-      <c r="B437" s="8" t="s">
-        <v>288</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B437" s="8"/>
       <c r="C437" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
-        <v>6</v>
-      </c>
-      <c r="B441" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="C441" s="5" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
+        <v>6</v>
+      </c>
+      <c r="B442" s="8"/>
+      <c r="C442" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
         <v>7</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B443" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C443" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C442" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E442" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="3">
-        <v>1</v>
-      </c>
-      <c r="B444" s="8"/>
-      <c r="C444" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D444" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E444" s="6" t="s">
-        <v>139</v>
+      <c r="D443" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
-        <v>2</v>
-      </c>
-      <c r="B445" s="8" t="s">
-        <v>300</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B445" s="8"/>
       <c r="C445" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
-        <v>6</v>
-      </c>
-      <c r="B449" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="C449" s="5" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
-        <v>7</v>
-      </c>
-      <c r="B450" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B450" s="8"/>
+      <c r="C450" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
+        <v>7</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E451" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
         <v>8</v>
       </c>
-      <c r="B451" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D451" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E451" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="3">
+      <c r="B452" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E452" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
         <v>1</v>
       </c>
-      <c r="B453" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C453" s="6" t="s">
+      <c r="B454" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C454" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D453" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E453" s="6" t="s">
+      <c r="D454" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E454" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="3">
-        <v>2</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C454" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D454" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E454" s="6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>26</v>
+        <v>300</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>214</v>
+        <v>301</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E456" s="6" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C457" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E457" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>5</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E458" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="D457" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E457" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="3">
-        <v>1</v>
-      </c>
-      <c r="B459" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C459" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D459" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E459" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E460" s="6" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>26</v>
+        <v>298</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C462" s="5" t="s">
-        <v>214</v>
+        <v>291</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E462" s="5" t="s">
-        <v>214</v>
+        <v>5</v>
+      </c>
+      <c r="E462" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C466" s="6" t="s">
-        <v>12</v>
+        <v>291</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E466" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
+        <v>9</v>
+      </c>
+      <c r="B468" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
         <v>10</v>
       </c>
-      <c r="B468" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C468" s="6" t="s">
+      <c r="B469" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C469" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D468" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E468" s="6" t="s">
+      <c r="D469" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E469" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="3">
-        <v>1</v>
-      </c>
-      <c r="B470" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C470" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D470" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E470" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E471" s="6" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E472" s="6" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C473" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D473" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E473" s="5" t="s">
-        <v>293</v>
+        <v>303</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E473" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E474" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
+        <v>5</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D475" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
         <v>6</v>
       </c>
-      <c r="B475" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C475" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D475" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E475" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="3">
-        <v>1</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C477" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D477" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E477" s="5" t="s">
-        <v>293</v>
+      <c r="B476" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E478" s="5" t="s">
-        <v>294</v>
+        <v>302</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E478" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
+        <v>2</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
         <v>3</v>
       </c>
-      <c r="B479" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E479" s="5" t="s">
-        <v>296</v>
+      <c r="B480" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E480" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>4</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C481" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D481" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E481" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>5</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>6</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C483" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -9017,19 +9019,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9037,19 +9039,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9057,19 +9059,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9077,19 +9079,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9097,19 +9099,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9117,19 +9119,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9137,19 +9139,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9157,19 +9159,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9177,19 +9179,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9197,19 +9199,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9217,19 +9219,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9237,19 +9239,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9257,19 +9259,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9277,19 +9279,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9297,19 +9299,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9317,19 +9319,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
         <v>115</v>
       </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>116</v>
-      </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9337,19 +9339,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9357,19 +9359,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9377,19 +9379,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9397,19 +9399,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -9417,19 +9419,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9437,19 +9439,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9457,19 +9459,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -9477,19 +9479,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -9497,19 +9499,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -9517,19 +9519,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9537,19 +9539,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -9557,19 +9559,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -9577,19 +9579,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -9649,19 +9651,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9669,19 +9671,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" t="s">
         <v>160</v>
-      </c>
-      <c r="G3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9689,19 +9691,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9709,19 +9711,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9729,19 +9731,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
         <v>164</v>
-      </c>
-      <c r="G6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9749,19 +9751,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
         <v>166</v>
-      </c>
-      <c r="G7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9769,19 +9771,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="315">
   <si>
     <t>Application_Details</t>
   </si>
@@ -977,6 +977,9 @@
   </si>
   <si>
     <t>AccountNo--11004935055||Beyond_PVT_Date--03-09-2017 00:00:00M||</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1644,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1736,6 +1739,14 @@
         <v>277</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>314</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>124</v>
@@ -1752,7 +1763,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -1868,8 +1868,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E483"/>
   <sheetViews>
-    <sheetView topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="K477" sqref="K477"/>
+    <sheetView topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8877,13 +8877,13 @@
       <c r="B478" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C478" s="6" t="s">
+      <c r="C478" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D478" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E478" s="6" t="s">
+      <c r="D478" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E478" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8894,13 +8894,13 @@
       <c r="B479" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C479" s="6" t="s">
+      <c r="C479" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D479" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E479" s="6" t="s">
+      <c r="D479" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479" s="5" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8911,13 +8911,13 @@
       <c r="B480" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C480" s="6" t="s">
+      <c r="C480" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D480" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E480" s="6" t="s">
+      <c r="D480" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E480" s="5" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="317">
   <si>
     <t>Application_Details</t>
   </si>
@@ -980,6 +980,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
+  </si>
+  <si>
+    <t>QA6</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152237||Barring Options--User Bar - Mobile Full||DeviceName--DeviceOne||</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1650,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1682,6 +1688,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
       <c r="C2" t="s">
         <v>308</v>
       </c>
@@ -1699,6 +1708,9 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -1707,6 +1719,9 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
       <c r="C4" t="s">
         <v>54</v>
       </c>
@@ -1715,6 +1730,9 @@
       <c r="A5" t="s">
         <v>88</v>
       </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
       <c r="C5" t="s">
         <v>273</v>
       </c>
@@ -1729,6 +1747,9 @@
       <c r="A6" t="s">
         <v>203</v>
       </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
       <c r="C6" t="s">
         <v>276</v>
       </c>
@@ -1742,6 +1763,9 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
       </c>
       <c r="C7" t="s">
         <v>314</v>
@@ -1764,7 +1788,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,9 +1798,9 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1814,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>311</v>
@@ -1837,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>311</v>
@@ -1853,6 +1877,52 @@
       </c>
       <c r="H3" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1868,8 +1938,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E483"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="C485" sqref="C485"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,7 +4345,7 @@
       <c r="B157" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D157" s="6" t="s">
@@ -4309,7 +4379,7 @@
       <c r="B159" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="6" t="s">

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="319">
   <si>
     <t>Application_Details</t>
   </si>
@@ -961,31 +961,37 @@
     <t>ZIP XML File</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>KALISARAVANAN</t>
+    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
+  </si>
+  <si>
+    <t>QA6</t>
+  </si>
+  <si>
+    <t>Project_Name</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>QA5</t>
+  </si>
+  <si>
+    <t>https://10.162.53.75:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>SARAVANANK</t>
   </si>
   <si>
     <t>Maveric@2018</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>AccountNo--11004935055||PVT_Date--90200002018||</t>
-  </si>
-  <si>
-    <t>AccountNo--11004935055||Beyond_PVT_Date--03-09-2017 00:00:00M||</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
-  </si>
-  <si>
-    <t>QA6</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152237||Barring Options--User Bar - Mobile Full||DeviceName--DeviceOne||</t>
+    <t>Cancel_Order</t>
+  </si>
+  <si>
+    <t>CancelOrder</t>
+  </si>
+  <si>
+    <t>To Cancel Open Orders</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1654,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1657,121 +1663,143 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" t="s">
         <v>315</v>
       </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
         <v>273</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>274</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" t="s">
         <v>276</v>
-      </c>
-      <c r="D6" t="s">
-        <v>277</v>
       </c>
       <c r="E6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>124</v>
       </c>
@@ -1797,10 +1825,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1833,98 +1861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>316</v>
-      </c>
-    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1936,10 +1873,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E483"/>
+  <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9040,6 +8977,57 @@
       </c>
       <c r="E483" s="5" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>1</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>2</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>3</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="318">
   <si>
     <t>Application_Details</t>
   </si>
@@ -973,15 +973,6 @@
     <t>Olympus</t>
   </si>
   <si>
-    <t>QA5</t>
-  </si>
-  <si>
-    <t>https://10.162.53.75:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>SARAVANANK</t>
-  </si>
-  <si>
     <t>Maveric@2018</t>
   </si>
   <si>
@@ -992,6 +983,12 @@
   </si>
   <si>
     <t>To Cancel Open Orders</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1653,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1663,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1690,7 +1687,7 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1702,16 +1699,16 @@
         <v>311</v>
       </c>
       <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
         <v>312</v>
-      </c>
-      <c r="D2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" t="s">
-        <v>315</v>
       </c>
       <c r="G2" t="s">
         <v>124</v>
@@ -1876,7 +1873,7 @@
   <dimension ref="A1:E487"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="C490" sqref="C490"/>
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8984,7 +8981,7 @@
         <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>12</v>
@@ -9001,16 +8998,16 @@
         <v>2</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D486" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -9018,7 +9015,7 @@
         <v>3</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="312">
   <si>
     <t>Application_Details</t>
   </si>
@@ -196,12 +196,6 @@
     <t>ValidationData</t>
   </si>
   <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>10.162.53.102:7001/OrderManagement/control/home</t>
-  </si>
-  <si>
     <t>OSM_APP</t>
   </si>
   <si>
@@ -856,21 +850,6 @@
     <t>Credit Limit Set</t>
   </si>
   <si>
-    <t>10.162.53.95</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
-    <t>10.162.53.94</t>
-  </si>
-  <si>
-    <t>HALEEMI</t>
-  </si>
-  <si>
     <t>XML Invoicegeneration</t>
   </si>
   <si>
@@ -961,9 +940,6 @@
     <t>ZIP XML File</t>
   </si>
   <si>
-    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
-  </si>
-  <si>
     <t>QA6</t>
   </si>
   <si>
@@ -973,9 +949,6 @@
     <t>Olympus</t>
   </si>
   <si>
-    <t>Maveric@2018</t>
-  </si>
-  <si>
     <t>Cancel_Order</t>
   </si>
   <si>
@@ -985,10 +958,19 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Batch2</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152245||SIM--8962702800901163245||PlanName--Postpaid Standard Promotion||LastName--Khan||FirstName--Ahmed||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152245||SIM--8962702800901163245||PlanName--Postpaid Standard Promotion||Account_No--11104563261||</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1633,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -1662,8 +1644,8 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1673,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1696,109 +1678,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1707,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,10 +1716,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="126.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1837,10 +1731,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -1858,7 +1752,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1872,8 +1811,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="B495" sqref="B495"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1925,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1942,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -1959,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1976,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -1993,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -2010,16 +1949,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,16 +1966,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,7 +1983,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2061,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -2078,7 +2017,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -2087,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -2112,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -2129,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -2146,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -2163,7 +2102,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2180,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2197,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -2214,16 +2153,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,16 +2170,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2265,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -2282,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>31</v>
@@ -2291,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,7 +2238,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>25</v>
@@ -2316,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -2333,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2350,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -2367,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2384,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>21</v>
@@ -2401,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2418,16 +2357,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2435,16 +2374,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2452,16 +2391,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2486,7 +2425,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>29</v>
@@ -2503,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -2512,7 +2451,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,7 +2459,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -2537,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -2554,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -2571,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
@@ -2588,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -2605,7 +2544,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
@@ -2622,7 +2561,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -2639,16 +2578,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,16 +2595,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,7 +2612,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -2690,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>29</v>
@@ -2707,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
@@ -2716,7 +2655,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,7 +2663,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -2741,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -2758,7 +2697,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>39</v>
@@ -2775,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>41</v>
@@ -2792,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -2809,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>21</v>
@@ -2826,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -2843,16 +2782,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,16 +2799,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -2894,7 +2833,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>29</v>
@@ -2911,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>31</v>
@@ -2920,7 +2859,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -2948,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -2965,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
@@ -2982,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>41</v>
@@ -2999,7 +2938,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -3016,7 +2955,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>21</v>
@@ -3033,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -3050,16 +2989,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3067,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,16 +3023,16 @@
         <v>9</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3101,7 +3040,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>27</v>
@@ -3118,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>29</v>
@@ -3135,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
@@ -3144,7 +3083,7 @@
         <v>15</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,7 +3091,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>25</v>
@@ -3209,13 +3148,13 @@
         <v>34</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,7 +3205,7 @@
         <v>15</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3291,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>12</v>
@@ -3308,16 +3247,16 @@
         <v>2</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3325,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>25</v>
@@ -3342,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
@@ -3359,16 +3298,16 @@
         <v>2</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>25</v>
@@ -3393,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3410,10 +3349,10 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>15</v>
@@ -3427,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3444,10 +3383,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>15</v>
@@ -3461,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -3470,7 +3409,7 @@
         <v>6</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,7 +3417,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>29</v>
@@ -3495,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>31</v>
@@ -3504,7 +3443,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,7 +3451,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -3529,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>12</v>
@@ -3546,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>27</v>
@@ -3563,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>29</v>
@@ -3580,16 +3519,16 @@
         <v>4</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,16 +3536,16 @@
         <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,16 +3553,16 @@
         <v>6</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,7 +3570,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>27</v>
@@ -3648,16 +3587,16 @@
         <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,7 +3604,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>31</v>
@@ -3674,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>25</v>
@@ -3699,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>12</v>
@@ -3716,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>27</v>
@@ -3733,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>29</v>
@@ -3750,16 +3689,16 @@
         <v>4</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D121" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,16 +3706,16 @@
         <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,16 +3723,16 @@
         <v>6</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D123" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,7 +3740,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>27</v>
@@ -3818,16 +3757,16 @@
         <v>8</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C125" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3835,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>31</v>
@@ -3844,7 +3783,7 @@
         <v>15</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>25</v>
@@ -3869,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>12</v>
@@ -3886,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>27</v>
@@ -3903,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>29</v>
@@ -3920,16 +3859,16 @@
         <v>4</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,16 +3876,16 @@
         <v>5</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,16 +3893,16 @@
         <v>6</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,7 +3910,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>27</v>
@@ -3988,16 +3927,16 @@
         <v>8</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4005,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>25</v>
@@ -4073,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>12</v>
@@ -4090,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>27</v>
@@ -4107,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>29</v>
@@ -4124,16 +4063,16 @@
         <v>4</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>27</v>
@@ -4158,16 +4097,16 @@
         <v>6</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4175,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>25</v>
@@ -4192,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>12</v>
@@ -4209,16 +4148,16 @@
         <v>2</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4226,16 +4165,16 @@
         <v>3</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>25</v>
@@ -4260,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>12</v>
@@ -4277,16 +4216,16 @@
         <v>2</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,16 +4233,16 @@
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4311,7 +4250,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>25</v>
@@ -4328,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>12</v>
@@ -4345,16 +4284,16 @@
         <v>2</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4362,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>25</v>
@@ -4379,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>12</v>
@@ -4396,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -4413,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>25</v>
@@ -4430,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>12</v>
@@ -4447,16 +4386,16 @@
         <v>2</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>25</v>
@@ -4481,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>12</v>
@@ -4498,16 +4437,16 @@
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4515,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>25</v>
@@ -4532,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>12</v>
@@ -4549,16 +4488,16 @@
         <v>2</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4566,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>25</v>
@@ -4583,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>12</v>
@@ -4600,16 +4539,16 @@
         <v>2</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>25</v>
@@ -4635,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>12</v>
@@ -4652,16 +4591,16 @@
         <v>2</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4669,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>25</v>
@@ -4687,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>12</v>
@@ -4704,16 +4643,16 @@
         <v>2</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4721,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>25</v>
@@ -4739,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>12</v>
@@ -4756,16 +4695,16 @@
         <v>2</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4773,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>25</v>
@@ -4791,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>12</v>
@@ -4808,16 +4747,16 @@
         <v>2</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4825,7 +4764,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>25</v>
@@ -4842,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>12</v>
@@ -4859,16 +4798,16 @@
         <v>2</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -4876,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>25</v>
@@ -4893,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>12</v>
@@ -4910,16 +4849,16 @@
         <v>2</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4927,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>25</v>
@@ -4951,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>12</v>
@@ -4968,16 +4907,16 @@
         <v>2</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4985,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>25</v>
@@ -5009,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>12</v>
@@ -5026,16 +4965,16 @@
         <v>2</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5043,16 +4982,16 @@
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5060,7 +4999,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>27</v>
@@ -5077,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>29</v>
@@ -5094,7 +5033,7 @@
         <v>6</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>31</v>
@@ -5103,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5111,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>25</v>
@@ -5128,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>12</v>
@@ -5145,16 +5084,16 @@
         <v>2</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5162,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>25</v>
@@ -5179,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>12</v>
@@ -5196,16 +5135,16 @@
         <v>2</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5213,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>25</v>
@@ -5230,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>12</v>
@@ -5247,16 +5186,16 @@
         <v>2</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5264,7 +5203,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>25</v>
@@ -5281,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>12</v>
@@ -5298,16 +5237,16 @@
         <v>2</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5315,10 +5254,10 @@
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>15</v>
@@ -5332,7 +5271,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>27</v>
@@ -5341,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5349,7 +5288,7 @@
         <v>5</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>29</v>
@@ -5366,7 +5305,7 @@
         <v>6</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>31</v>
@@ -5375,7 +5314,7 @@
         <v>15</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5383,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>25</v>
@@ -5401,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5418,16 +5357,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5435,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>25</v>
@@ -5452,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>12</v>
@@ -5469,16 +5408,16 @@
         <v>2</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -5486,7 +5425,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
@@ -5503,13 +5442,13 @@
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>13</v>
@@ -5520,16 +5459,16 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C250" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E250" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5537,16 +5476,16 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -5554,16 +5493,16 @@
         <v>4</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -5571,13 +5510,13 @@
         <v>5</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E253" s="6" t="s">
         <v>26</v>
@@ -5588,13 +5527,13 @@
         <v>1</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E255" s="6" t="s">
         <v>13</v>
@@ -5605,16 +5544,16 @@
         <v>2</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C256" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E256" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -5622,16 +5561,16 @@
         <v>3</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,16 +5578,16 @@
         <v>4</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5656,16 +5595,16 @@
         <v>5</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -5673,13 +5612,13 @@
         <v>6</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E260" s="6" t="s">
         <v>26</v>
@@ -5690,16 +5629,16 @@
         <v>7</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -5707,16 +5646,16 @@
         <v>8</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -5724,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>12</v>
@@ -5741,16 +5680,16 @@
         <v>2</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,7 +5697,7 @@
         <v>3</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>25</v>
@@ -5775,16 +5714,16 @@
         <v>4</v>
       </c>
       <c r="B267" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C267" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="D267" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E267" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -5792,16 +5731,16 @@
         <v>5</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -5809,16 +5748,16 @@
         <v>6</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -5826,13 +5765,13 @@
         <v>7</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E270" s="6" t="s">
         <v>13</v>
@@ -5843,16 +5782,16 @@
         <v>8</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5860,13 +5799,13 @@
         <v>9</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E272" s="6" t="s">
         <v>26</v>
@@ -5877,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>12</v>
@@ -5894,16 +5833,16 @@
         <v>2</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5911,7 +5850,7 @@
         <v>3</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>25</v>
@@ -5928,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>12</v>
@@ -5945,16 +5884,16 @@
         <v>2</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5962,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>25</v>
@@ -5979,16 +5918,16 @@
         <v>1</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5996,16 +5935,16 @@
         <v>2</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6013,16 +5952,16 @@
         <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6030,16 +5969,16 @@
         <v>4</v>
       </c>
       <c r="B285" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C285" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6047,16 +5986,16 @@
         <v>5</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6071,16 +6010,16 @@
         <v>1</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6088,16 +6027,16 @@
         <v>2</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6105,16 +6044,16 @@
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6122,16 +6061,16 @@
         <v>4</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6139,16 +6078,16 @@
         <v>5</v>
       </c>
       <c r="B292" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E292" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E292" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6163,16 +6102,16 @@
         <v>1</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6180,16 +6119,16 @@
         <v>2</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,16 +6136,16 @@
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,16 +6153,16 @@
         <v>4</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6231,16 +6170,16 @@
         <v>5</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6255,16 +6194,16 @@
         <v>1</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6272,16 +6211,16 @@
         <v>2</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6289,16 +6228,16 @@
         <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6306,16 +6245,16 @@
         <v>4</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6323,16 +6262,16 @@
         <v>5</v>
       </c>
       <c r="B304" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6340,16 +6279,16 @@
         <v>1</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6357,16 +6296,16 @@
         <v>2</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,16 +6313,16 @@
         <v>3</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,16 +6330,16 @@
         <v>4</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6408,16 +6347,16 @@
         <v>1</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E311" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6425,16 +6364,16 @@
         <v>2</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,16 +6381,16 @@
         <v>3</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6459,16 +6398,16 @@
         <v>4</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6476,16 +6415,16 @@
         <v>1</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E316" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6493,16 +6432,16 @@
         <v>2</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,16 +6449,16 @@
         <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6527,16 +6466,16 @@
         <v>4</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,16 +6483,16 @@
         <v>5</v>
       </c>
       <c r="B320" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C320" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C320" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6561,16 +6500,16 @@
         <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6578,16 +6517,16 @@
         <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6595,16 +6534,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C324" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C324" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6612,16 +6551,16 @@
         <v>4</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6629,16 +6568,16 @@
         <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6646,16 +6585,16 @@
         <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E327" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,16 +6602,16 @@
         <v>1</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,16 +6619,16 @@
         <v>2</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6697,16 +6636,16 @@
         <v>3</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6714,16 +6653,16 @@
         <v>4</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6731,16 +6670,16 @@
         <v>5</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6748,16 +6687,16 @@
         <v>6</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6765,16 +6704,16 @@
         <v>7</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6782,16 +6721,16 @@
         <v>1</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6799,16 +6738,16 @@
         <v>2</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6816,16 +6755,16 @@
         <v>3</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6833,16 +6772,16 @@
         <v>4</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6850,16 +6789,16 @@
         <v>5</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6867,16 +6806,16 @@
         <v>6</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6884,16 +6823,16 @@
         <v>7</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6901,16 +6840,16 @@
         <v>1</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6918,16 +6857,16 @@
         <v>2</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6935,16 +6874,16 @@
         <v>3</v>
       </c>
       <c r="B347" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C347" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C347" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="D347" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6952,16 +6891,16 @@
         <v>1</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6969,16 +6908,16 @@
         <v>2</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6986,16 +6925,16 @@
         <v>3</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7003,16 +6942,16 @@
         <v>4</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7020,7 +6959,7 @@
         <v>5</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>12</v>
@@ -7037,16 +6976,16 @@
         <v>6</v>
       </c>
       <c r="B354" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C354" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C354" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="D354" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7054,16 +6993,16 @@
         <v>7</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7071,7 +7010,7 @@
         <v>8</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>27</v>
@@ -7088,7 +7027,7 @@
         <v>9</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>29</v>
@@ -7105,7 +7044,7 @@
         <v>10</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>31</v>
@@ -7122,7 +7061,7 @@
         <v>11</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>25</v>
@@ -7258,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>12</v>
@@ -7275,7 +7214,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>14</v>
@@ -7292,16 +7231,16 @@
         <v>3</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -7309,7 +7248,7 @@
         <v>4</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>17</v>
@@ -7326,7 +7265,7 @@
         <v>5</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>19</v>
@@ -7343,7 +7282,7 @@
         <v>6</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>21</v>
@@ -7360,16 +7299,16 @@
         <v>7</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,16 +7316,16 @@
         <v>8</v>
       </c>
       <c r="B376" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C376" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C376" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D376" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -7394,16 +7333,16 @@
         <v>9</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -7411,7 +7350,7 @@
         <v>10</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>12</v>
@@ -7420,7 +7359,7 @@
         <v>5</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -7428,16 +7367,16 @@
         <v>11</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,7 +7384,7 @@
         <v>12</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>25</v>
@@ -7454,7 +7393,7 @@
         <v>5</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -7462,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>12</v>
@@ -7479,7 +7418,7 @@
         <v>2</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>39</v>
@@ -7496,7 +7435,7 @@
         <v>3</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>41</v>
@@ -7513,7 +7452,7 @@
         <v>4</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>19</v>
@@ -7530,7 +7469,7 @@
         <v>5</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>21</v>
@@ -7547,10 +7486,10 @@
         <v>6</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>15</v>
@@ -7564,16 +7503,16 @@
         <v>7</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -7581,7 +7520,7 @@
         <v>8</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>25</v>
@@ -7598,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>12</v>
@@ -7615,16 +7554,16 @@
         <v>2</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E392" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7632,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>25</v>
@@ -7649,13 +7588,13 @@
         <v>4</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E394" s="6" t="s">
         <v>13</v>
@@ -7666,10 +7605,10 @@
         <v>5</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>15</v>
@@ -7683,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>12</v>
@@ -7700,16 +7639,16 @@
         <v>7</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7717,7 +7656,7 @@
         <v>8</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>25</v>
@@ -7734,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>12</v>
@@ -7751,16 +7690,16 @@
         <v>2</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -7768,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>25</v>
@@ -7785,7 +7724,7 @@
         <v>1</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>12</v>
@@ -7802,16 +7741,16 @@
         <v>2</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E405" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -7819,7 +7758,7 @@
         <v>3</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>25</v>
@@ -7836,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C408" s="6" t="s">
         <v>12</v>
@@ -7853,16 +7792,16 @@
         <v>2</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -7870,7 +7809,7 @@
         <v>3</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>25</v>
@@ -7887,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C412" s="13" t="s">
         <v>12</v>
@@ -7904,7 +7843,7 @@
         <v>2</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C413" s="13" t="s">
         <v>14</v>
@@ -7921,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C414" s="13" t="s">
         <v>17</v>
@@ -7938,7 +7877,7 @@
         <v>4</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C415" s="13" t="s">
         <v>19</v>
@@ -7955,7 +7894,7 @@
         <v>5</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C416" s="13" t="s">
         <v>21</v>
@@ -7972,10 +7911,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D417" s="14" t="s">
         <v>15</v>
@@ -7989,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="B418" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C418" s="13" t="s">
         <v>25</v>
@@ -8013,7 +7952,7 @@
         <v>1</v>
       </c>
       <c r="B420" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C420" s="13" t="s">
         <v>12</v>
@@ -8030,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C421" s="13" t="s">
         <v>14</v>
@@ -8047,7 +7986,7 @@
         <v>3</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C422" s="13" t="s">
         <v>17</v>
@@ -8064,7 +8003,7 @@
         <v>4</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C423" s="13" t="s">
         <v>19</v>
@@ -8081,7 +8020,7 @@
         <v>5</v>
       </c>
       <c r="B424" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C424" s="13" t="s">
         <v>21</v>
@@ -8098,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="B425" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D425" s="14" t="s">
         <v>15</v>
@@ -8115,7 +8054,7 @@
         <v>7</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C426" s="13" t="s">
         <v>25</v>
@@ -8132,13 +8071,13 @@
         <v>8</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E427" s="14" t="s">
         <v>13</v>
@@ -8149,16 +8088,16 @@
         <v>9</v>
       </c>
       <c r="B428" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C428" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C428" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="D428" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E428" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -8166,7 +8105,7 @@
         <v>10</v>
       </c>
       <c r="B429" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C429" s="14" t="s">
         <v>12</v>
@@ -8175,7 +8114,7 @@
         <v>5</v>
       </c>
       <c r="E429" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -8183,16 +8122,16 @@
         <v>11</v>
       </c>
       <c r="B430" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D430" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E430" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -8200,7 +8139,7 @@
         <v>12</v>
       </c>
       <c r="B431" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C431" s="14" t="s">
         <v>25</v>
@@ -8209,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="E431" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -8224,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>12</v>
@@ -8241,16 +8180,16 @@
         <v>2</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E434" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -8258,7 +8197,7 @@
         <v>3</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>25</v>
@@ -8276,13 +8215,13 @@
       </c>
       <c r="B437" s="8"/>
       <c r="C437" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E437" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -8290,16 +8229,16 @@
         <v>2</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E438" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -8307,16 +8246,16 @@
         <v>3</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -8324,16 +8263,16 @@
         <v>4</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -8341,16 +8280,16 @@
         <v>5</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -8359,13 +8298,13 @@
       </c>
       <c r="B442" s="8"/>
       <c r="C442" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E442" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -8373,16 +8312,16 @@
         <v>7</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E443" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -8391,13 +8330,13 @@
       </c>
       <c r="B445" s="8"/>
       <c r="C445" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,16 +8344,16 @@
         <v>2</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -8422,16 +8361,16 @@
         <v>3</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -8439,16 +8378,16 @@
         <v>4</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -8456,16 +8395,16 @@
         <v>5</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -8474,13 +8413,13 @@
       </c>
       <c r="B450" s="8"/>
       <c r="C450" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -8488,7 +8427,7 @@
         <v>7</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>12</v>
@@ -8505,16 +8444,16 @@
         <v>8</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -8522,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>12</v>
@@ -8539,16 +8478,16 @@
         <v>2</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8556,7 +8495,7 @@
         <v>3</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>25</v>
@@ -8573,16 +8512,16 @@
         <v>4</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8590,16 +8529,16 @@
         <v>5</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -8607,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>12</v>
@@ -8624,16 +8563,16 @@
         <v>2</v>
       </c>
       <c r="B461" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E461" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C461" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D461" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E461" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -8641,7 +8580,7 @@
         <v>3</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>25</v>
@@ -8658,16 +8597,16 @@
         <v>4</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E463" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -8675,16 +8614,16 @@
         <v>5</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E464" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -8692,16 +8631,16 @@
         <v>6</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E465" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -8709,16 +8648,16 @@
         <v>7</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E466" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -8726,7 +8665,7 @@
         <v>8</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>12</v>
@@ -8743,16 +8682,16 @@
         <v>9</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E468" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -8760,7 +8699,7 @@
         <v>10</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>25</v>
@@ -8777,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C471" s="6" t="s">
         <v>12</v>
@@ -8794,16 +8733,16 @@
         <v>2</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E472" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -8811,7 +8750,7 @@
         <v>3</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>25</v>
@@ -8828,16 +8767,16 @@
         <v>4</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E474" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -8845,16 +8784,16 @@
         <v>5</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -8862,16 +8801,16 @@
         <v>6</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -8879,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>12</v>
@@ -8896,16 +8835,16 @@
         <v>2</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D479" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -8913,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>25</v>
@@ -8930,16 +8869,16 @@
         <v>4</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -8947,16 +8886,16 @@
         <v>5</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D482" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -8964,16 +8903,16 @@
         <v>6</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D483" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -8981,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C485" s="5" t="s">
         <v>12</v>
@@ -8998,16 +8937,16 @@
         <v>2</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D486" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -9015,7 +8954,7 @@
         <v>3</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C487" s="5" t="s">
         <v>25</v>
@@ -9085,19 +9024,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9105,19 +9044,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9125,19 +9064,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9145,19 +9084,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9165,19 +9104,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9185,19 +9124,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9205,19 +9144,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9225,19 +9164,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9245,19 +9184,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9265,19 +9204,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9285,19 +9224,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9305,19 +9244,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9325,19 +9264,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9345,19 +9284,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9365,19 +9304,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -9385,19 +9324,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9405,19 +9344,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -9425,19 +9364,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -9445,19 +9384,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -9465,19 +9404,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -9485,19 +9424,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -9505,19 +9444,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9525,19 +9464,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -9545,19 +9484,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -9565,19 +9504,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>116</v>
-      </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -9585,19 +9524,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -9605,19 +9544,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -9625,19 +9564,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" t="s">
         <v>111</v>
       </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>175</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -9645,19 +9584,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9717,19 +9656,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9737,19 +9676,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9757,19 +9696,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9777,19 +9716,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9797,19 +9736,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9817,19 +9756,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9837,19 +9776,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ImranH2\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\WS\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="325">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,19 +958,58 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
     <t>Batch1</t>
   </si>
   <si>
     <t>Batch2</t>
   </si>
   <si>
-    <t>MSISDN--97478152245||SIM--8962702800901163245||PlanName--Postpaid Standard Promotion||LastName--Khan||FirstName--Ahmed||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152245||SIM--8962702800901163245||PlanName--Postpaid Standard Promotion||Account_No--11104563261||</t>
+    <t>MSISDN--97478151643||SIM--8962702800901162643||PlanName--Prepaid Red Promotion||ReservationToken--26182||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478151644||SIM--8962702800901162644||PlanName--Postpaid Flex 100 Promotion||ReservationToken--26183||</t>
+  </si>
+  <si>
+    <t>Batch3</t>
+  </si>
+  <si>
+    <t>MSISDN--97478151645||SIM--8962702800901162645||PlanName--Postpaid Business Flex 150 Promotion||ReservationToken--26184||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478151645||Add_Addon--Others,Mobile Voicemail||</t>
+  </si>
+  <si>
+    <t>https://10.162.53.75:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>RUCHIS</t>
+  </si>
+  <si>
+    <t>mav@2018</t>
+  </si>
+  <si>
+    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
+  </si>
+  <si>
+    <t>10.162.53.102:7001/OrderManagement/control/home</t>
+  </si>
+  <si>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t>HALEEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
   </si>
 </sst>
 </file>
@@ -1633,9 +1672,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1644,7 +1683,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1684,15 +1723,98 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>314</v>
+      </c>
+      <c r="E2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" t="s">
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>122</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1717,9 +1839,9 @@
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="126.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1757,22 +1879,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,22 +1902,68 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
         <v>108</v>
       </c>
       <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
         <v>133</v>
       </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>311</v>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1979,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="H38" sqref="H38:I38"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KalivaradhanS\Desktop\WS\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="318">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,36 +958,6 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>Batch2</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151643||SIM--8962702800901162643||PlanName--Prepaid Red Promotion||ReservationToken--26182||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151644||SIM--8962702800901162644||PlanName--Postpaid Flex 100 Promotion||ReservationToken--26183||</t>
-  </si>
-  <si>
-    <t>Batch3</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151645||SIM--8962702800901162645||PlanName--Postpaid Business Flex 150 Promotion||ReservationToken--26184||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478151645||Add_Addon--Others,Mobile Voicemail||</t>
-  </si>
-  <si>
-    <t>https://10.162.53.75:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>RUCHIS</t>
-  </si>
-  <si>
-    <t>mav@2018</t>
-  </si>
-  <si>
     <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
   </si>
   <si>
@@ -1010,6 +980,15 @@
   </si>
   <si>
     <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2018</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1092,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1160,11 +1139,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,6 +1188,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1674,8 +1666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1676,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1723,13 +1715,13 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1746,7 +1738,7 @@
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1760,7 +1752,7 @@
         <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1774,13 +1766,13 @@
         <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,13 +1786,13 @@
         <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1814,7 +1806,7 @@
         <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1826,10 +1818,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,18 +1830,18 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -1874,100 +1866,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1979,8 +1889,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E487"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:I38"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,8 +9055,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="313">
   <si>
     <t>Application_Details</t>
   </si>
@@ -967,28 +967,13 @@
     <t>10.162.53.95</t>
   </si>
   <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
     <t>10.162.53.94</t>
   </si>
   <si>
-    <t>HALEEMI</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
   </si>
   <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
-    <t>Maveric@2018</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1661,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1715,13 +1700,7 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1768,12 +1747,6 @@
       <c r="D5" t="s">
         <v>309</v>
       </c>
-      <c r="E5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1786,13 +1759,7 @@
         <v>301</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1806,7 +1773,7 @@
         <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="310">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,22 +958,13 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>10.162.53.102:7001/OrderManagement/control/home</t>
-  </si>
-  <si>
-    <t>10.162.53.95</t>
-  </si>
-  <si>
-    <t>10.162.53.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
-  </si>
-  <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Trial_BillRun</t>
+  </si>
+  <si>
+    <t>Trail Bill generation</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1640,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1660,7 +1651,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1700,80 +1691,10 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -1854,10 +1775,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E487"/>
+  <dimension ref="A1:E493"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5707,14 +5628,14 @@
       <c r="A264" s="3">
         <v>1</v>
       </c>
-      <c r="B264" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>12</v>
+      <c r="B264" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E264" s="6" t="s">
         <v>13</v>
@@ -5724,31 +5645,31 @@
       <c r="A265" s="3">
         <v>2</v>
       </c>
-      <c r="B265" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>198</v>
+      <c r="B265" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>3</v>
       </c>
-      <c r="B266" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>25</v>
+      <c r="B266" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E266" s="6" t="s">
         <v>26</v>
@@ -5758,65 +5679,48 @@
       <c r="A267" s="3">
         <v>4</v>
       </c>
-      <c r="B267" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>200</v>
+      <c r="B267" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>5</v>
       </c>
-      <c r="B268" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>203</v>
+      <c r="B268" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
-        <v>6</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E269" s="6" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E270" s="6" t="s">
         <v>13</v>
@@ -5824,238 +5728,248 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E272" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>4</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E274" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>6</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>7</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E276" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
-        <v>2</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
-        <v>3</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D276" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E276" s="6" t="s">
-        <v>26</v>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>8</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
-        <v>2</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>2</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
-        <v>2</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C283" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="6" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>1</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>136</v>
@@ -6072,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>211</v>
@@ -6089,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>212</v>
@@ -6106,7 +6020,7 @@
         <v>4</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>137</v>
@@ -6123,16 +6037,16 @@
         <v>5</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>136</v>
@@ -6164,16 +6078,16 @@
         <v>2</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,16 +6095,16 @@
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6198,7 +6112,7 @@
         <v>4</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>137</v>
@@ -6215,16 +6129,16 @@
         <v>5</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6239,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>136</v>
@@ -6256,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>217</v>
@@ -6265,7 +6179,7 @@
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>218</v>
@@ -6282,7 +6196,7 @@
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6290,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>137</v>
@@ -6307,33 +6221,40 @@
         <v>5</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>223</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="8"/>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>1</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6341,16 +6262,16 @@
         <v>2</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,16 +6279,16 @@
         <v>3</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6375,109 +6296,109 @@
         <v>4</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
-        <v>1</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D311" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E311" s="6" t="s">
-        <v>211</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>5</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
+        <v>3</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
         <v>4</v>
       </c>
-      <c r="B314" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D314" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E314" s="6" t="s">
+      <c r="B315" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
-        <v>1</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C316" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E316" s="6" t="s">
-        <v>136</v>
+      <c r="C315" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>211</v>
@@ -6491,53 +6412,53 @@
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6545,16 +6466,16 @@
         <v>1</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,16 +6483,16 @@
         <v>2</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6579,16 +6500,16 @@
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6596,16 +6517,16 @@
         <v>4</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6613,1985 +6534,1985 @@
         <v>5</v>
       </c>
       <c r="B326" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>1</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C326" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D326" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E326" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
-        <v>6</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C327" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D327" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E327" s="6" t="s">
-        <v>238</v>
+      <c r="C328" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="3">
-        <v>6</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D334" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E334" s="6" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>242</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>2</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
-        <v>6</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C342" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E342" s="6" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>231</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>2</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>228</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>6</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
-        <v>2</v>
-      </c>
-      <c r="B350" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E350" s="6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>6</v>
-      </c>
-      <c r="B354" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D354" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E354" s="6" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>29</v>
+        <v>236</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>6</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>7</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E361" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>8</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>9</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E363" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>10</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>11</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C365" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D359" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E359" s="6" t="s">
+      <c r="D365" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E365" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
-        <v>1</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C361" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D361" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>2</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
-        <v>3</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D363" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
-        <v>4</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
-        <v>5</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C365" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D365" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E365" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="3">
-        <v>6</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D366" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E367" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>2</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>1</v>
-      </c>
-      <c r="B369" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E369" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>2</v>
-      </c>
-      <c r="B370" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E370" s="6" t="s">
-        <v>44</v>
+      <c r="E370" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>3</v>
-      </c>
-      <c r="B371" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E371" s="6" t="s">
-        <v>107</v>
+      <c r="E371" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>4</v>
-      </c>
-      <c r="B372" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E372" s="6" t="s">
-        <v>45</v>
+      <c r="E372" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>5</v>
-      </c>
-      <c r="B373" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E373" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
-        <v>6</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D374" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E376" s="6" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E378" s="6" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E379" s="6" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>103</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>7</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <v>1</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C382" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="E382" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>2</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C383" s="5" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E383" s="5" t="s">
-        <v>44</v>
+      <c r="E383" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <v>3</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C384" s="5" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E384" s="5" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="E384" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>4</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E385" s="5" t="s">
-        <v>20</v>
+      <c r="E385" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>5</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C386" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
-        <v>6</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C387" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D387" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E387" s="5" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E386" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C389" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>3</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>4</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>5</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>6</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>7</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>8</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C395" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D389" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E389" s="6" t="s">
+      <c r="D395" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
-        <v>1</v>
-      </c>
-      <c r="B391" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C391" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D391" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E391" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
-        <v>2</v>
-      </c>
-      <c r="B392" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D392" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
-        <v>3</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E393" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
-        <v>4</v>
-      </c>
-      <c r="B394" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C394" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D394" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E394" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
-        <v>5</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C395" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D395" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E395" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
-        <v>6</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C396" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D396" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E397" s="6" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C398" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>3</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C399" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D398" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E398" s="6" t="s">
+      <c r="D399" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E399" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>12</v>
+        <v>243</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E400" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D401" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E401" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C402" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E402" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>7</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>8</v>
+      </c>
+      <c r="B404" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C404" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D402" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E402" s="6" t="s">
+      <c r="D404" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E404" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
-        <v>1</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="3">
-        <v>2</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C405" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D405" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E405" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>2</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E407" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D408" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E408" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="3">
-        <v>2</v>
-      </c>
-      <c r="B409" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C409" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D409" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E409" s="6" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
+        <v>1</v>
+      </c>
+      <c r="B410" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E410" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>2</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
         <v>3</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B412" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E412" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>1</v>
+      </c>
+      <c r="B414" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C414" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E414" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>2</v>
+      </c>
+      <c r="B415" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>3</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C416" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D410" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E410" s="6" t="s">
+      <c r="D416" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E416" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="11">
-        <v>1</v>
-      </c>
-      <c r="B412" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C412" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D412" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E412" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="11">
-        <v>2</v>
-      </c>
-      <c r="B413" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C413" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D413" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E413" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="11">
-        <v>3</v>
-      </c>
-      <c r="B414" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C414" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D414" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E414" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="11">
-        <v>4</v>
-      </c>
-      <c r="B415" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C415" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D415" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E415" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="11">
-        <v>5</v>
-      </c>
-      <c r="B416" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C416" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D416" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E416" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="11">
-        <v>6</v>
-      </c>
-      <c r="B417" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C417" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D417" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E417" s="14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B418" s="12" t="s">
         <v>262</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D418" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E418" s="14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="11"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
+      <c r="A419" s="11">
+        <v>2</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C419" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D419" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B420" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E420" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B421" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D421" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E421" s="14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B422" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D422" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E422" s="14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B423" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="D423" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E423" s="14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B424" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E424" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="11">
-        <v>6</v>
-      </c>
-      <c r="B425" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C425" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D425" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E425" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="A425" s="11"/>
+      <c r="B425" s="11"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B426" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D426" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E426" s="14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B427" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E427" s="14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B428" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E428" s="14" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B429" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C429" s="14" t="s">
-        <v>12</v>
+      <c r="C429" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E429" s="14" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B430" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C430" s="14" t="s">
-        <v>191</v>
+      <c r="C430" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D430" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E430" s="14" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B431" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C431" s="14" t="s">
+      <c r="C431" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D431" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="11">
+        <v>7</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C432" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D431" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E431" s="14" t="s">
+      <c r="D432" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E432" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="11">
+        <v>8</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C433" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D433" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E433" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="11">
+        <v>9</v>
+      </c>
+      <c r="B434" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D434" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="11">
+        <v>10</v>
+      </c>
+      <c r="B435" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C435" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E435" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="11"/>
-      <c r="B432" s="12"/>
-      <c r="C432" s="14"/>
-      <c r="D432" s="14"/>
-      <c r="E432" s="14"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="3">
-        <v>1</v>
-      </c>
-      <c r="B433" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C433" s="6" t="s">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="11">
+        <v>11</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C436" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D436" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="11">
         <v>12</v>
       </c>
-      <c r="D433" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E433" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="3">
-        <v>2</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C434" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D434" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E434" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="3">
-        <v>3</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C435" s="6" t="s">
+      <c r="B437" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C437" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D435" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E435" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="3">
-        <v>1</v>
-      </c>
-      <c r="B437" s="8"/>
-      <c r="C437" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D437" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E437" s="6" t="s">
-        <v>136</v>
+      <c r="D437" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="3">
-        <v>2</v>
-      </c>
-      <c r="B438" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D438" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E438" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="A438" s="11"/>
+      <c r="B438" s="12"/>
+      <c r="C438" s="14"/>
+      <c r="D438" s="14"/>
+      <c r="E438" s="14"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C439" s="5" t="s">
-        <v>235</v>
+        <v>267</v>
+      </c>
+      <c r="C439" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E439" s="6" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>236</v>
+        <v>267</v>
+      </c>
+      <c r="C440" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E440" s="6" t="s">
-        <v>236</v>
+        <v>125</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>237</v>
+        <v>267</v>
+      </c>
+      <c r="C441" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E441" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="3">
-        <v>6</v>
-      </c>
-      <c r="B442" s="8"/>
-      <c r="C442" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D442" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E442" s="6" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
-        <v>7</v>
-      </c>
-      <c r="B443" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B443" s="8"/>
+      <c r="C443" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>2</v>
+      </c>
+      <c r="B444" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C443" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D443" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E443" s="6" t="s">
-        <v>242</v>
+      <c r="C444" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E444" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
-        <v>1</v>
-      </c>
-      <c r="B445" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>280</v>
+      </c>
       <c r="C445" s="5" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E445" s="6" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
-        <v>4</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>292</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B448" s="8"/>
       <c r="C448" s="5" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="3">
-        <v>6</v>
-      </c>
-      <c r="B450" s="8"/>
-      <c r="C450" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D450" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E450" s="6" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
-        <v>7</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="B451" s="8"/>
+      <c r="C451" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B452" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C452" s="6" t="s">
-        <v>274</v>
+      <c r="C452" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>289</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>3</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E453" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
-        <v>1</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C454" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E454" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>5</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E455" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>6</v>
+      </c>
+      <c r="B456" s="8"/>
+      <c r="C456" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E456" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>7</v>
+      </c>
+      <c r="B457" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C457" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D454" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E454" s="6" t="s">
+      <c r="D457" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E457" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3">
-        <v>2</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C455" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D455" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E455" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="3">
-        <v>3</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C456" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D456" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E456" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3">
-        <v>4</v>
-      </c>
-      <c r="B457" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D457" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E457" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
-        <v>5</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>282</v>
+        <v>8</v>
+      </c>
+      <c r="B458" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>1</v>
       </c>
-      <c r="B460" s="8" t="s">
-        <v>284</v>
+      <c r="B460" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>12</v>
@@ -8603,12 +8524,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>2</v>
       </c>
-      <c r="B461" s="8" t="s">
-        <v>284</v>
+      <c r="B461" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>273</v>
@@ -8617,15 +8538,15 @@
         <v>15</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>3</v>
       </c>
-      <c r="B462" s="8" t="s">
-        <v>284</v>
+      <c r="B462" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>25</v>
@@ -8637,12 +8558,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>4</v>
       </c>
-      <c r="B463" s="8" t="s">
-        <v>284</v>
+      <c r="B463" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>211</v>
@@ -8650,364 +8571,449 @@
       <c r="D463" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E463" s="5" t="s">
+      <c r="E463" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>5</v>
       </c>
-      <c r="B464" s="8" t="s">
-        <v>284</v>
+      <c r="B464" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E464" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="3">
-        <v>6</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C465" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D465" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E465" s="5" t="s">
-        <v>236</v>
+      <c r="E464" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B466" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C466" s="5" t="s">
-        <v>240</v>
+      <c r="C466" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E466" s="5" t="s">
-        <v>240</v>
+        <v>5</v>
+      </c>
+      <c r="E466" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B467" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B468" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E468" s="6" t="s">
-        <v>290</v>
+        <v>26</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B469" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C469" s="6" t="s">
-        <v>25</v>
+      <c r="C469" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E469" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E469" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>5</v>
+      </c>
+      <c r="B470" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
-        <v>1</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C471" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E471" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E471" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
-        <v>2</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C472" s="6" t="s">
-        <v>297</v>
+        <v>7</v>
+      </c>
+      <c r="B472" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E472" s="6" t="s">
-        <v>298</v>
+      <c r="E472" s="5" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
-        <v>3</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>296</v>
+        <v>8</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E473" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
-        <v>4</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C474" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D474" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E474" s="5" t="s">
-        <v>285</v>
+        <v>9</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E474" s="6" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
-        <v>5</v>
-      </c>
-      <c r="B475" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>1</v>
+      </c>
+      <c r="B477" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C475" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D475" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E475" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
-        <v>6</v>
-      </c>
-      <c r="B476" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C476" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D476" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E476" s="5" t="s">
-        <v>287</v>
+      <c r="C477" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E477" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C478" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D478" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E478" s="5" t="s">
-        <v>13</v>
+        <v>296</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E478" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D479" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E479" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E479" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B482" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D482" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>1</v>
+      </c>
+      <c r="B484" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C482" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D482" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E482" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
-        <v>6</v>
-      </c>
-      <c r="B483" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C483" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D483" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E483" s="5" t="s">
-        <v>288</v>
+      <c r="C484" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="D485" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E485" s="5" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="D486" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>306</v>
+        <v>26</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
+        <v>4</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C487" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E487" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>5</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>6</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>1</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C491" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E491" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>2</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
         <v>3</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B493" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C487" s="5" t="s">
+      <c r="C493" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D487" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E487" s="5" t="s">
+      <c r="D493" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E493" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9023,7 +9029,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surendarana\Desktop\WorkSpace\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="322">
   <si>
     <t>Application_Details</t>
   </si>
@@ -965,12 +965,48 @@
   </si>
   <si>
     <t>Trail Bill generation</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2018</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152123||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
+  </si>
+  <si>
+    <t>10.162.53.102:7001/OrderManagement/control/home</t>
+  </si>
+  <si>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>10.162.53.94</t>
+  </si>
+  <si>
+    <t>HALEEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1640,9 +1676,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1651,8 +1687,8 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1693,8 +1729,96 @@
       <c r="D2" t="s">
         <v>307</v>
       </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>312</v>
+      </c>
       <c r="G2" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1833,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,10 +1842,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1754,7 +1878,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1777,8 +1923,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E493"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,9 +3460,7 @@
       <c r="A99" s="3">
         <v>2</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="B99" s="8"/>
       <c r="C99" s="5" t="s">
         <v>70</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="322">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:E493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="B98" sqref="B98:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3460,7 +3460,9 @@
       <c r="A99" s="3">
         <v>2</v>
       </c>
-      <c r="B99" s="8"/>
+      <c r="B99" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="C99" s="5" t="s">
         <v>70</v>
       </c>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surendarana\Desktop\WorkSpace\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="314">
   <si>
     <t>Application_Details</t>
   </si>
@@ -967,46 +967,22 @@
     <t>Trail Bill generation</t>
   </si>
   <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2018</t>
+  </si>
+  <si>
     <t>Batch1</t>
   </si>
   <si>
-    <t>KALISARAVANAN</t>
-  </si>
-  <si>
-    <t>Maveric@2018</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152123||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
-    <t>http://10.162.53.91:8001/soa-infra/services/vfqamrgdomain/QueryRealTimeBalanceSiebelReqABCSImpl/queryrealtimebalancesiebelreqabcsimpl_client_ep?WSDL</t>
-  </si>
-  <si>
-    <t>10.162.53.102:7001/OrderManagement/control/home</t>
-  </si>
-  <si>
-    <t>10.162.53.95</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>Brmsitenv@123</t>
-  </si>
-  <si>
-    <t>10.162.53.94</t>
-  </si>
-  <si>
-    <t>HALEEMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://10.162.52.113:8011/CustomerBill/PS_VFQA_CustomerBill?wsdl </t>
+    <t>MSISDN--97478152244||SIM--8962702800901163244||PlanName--Postpaid Red 350 Promotion||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1676,10 +1652,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1663,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1730,95 +1706,13 @@
         <v>307</v>
       </c>
       <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" t="s">
         <v>311</v>
-      </c>
-      <c r="F2" t="s">
-        <v>312</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1832,8 +1726,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,10 +1736,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="88.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1886,16 +1780,16 @@
         <v>109</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>313</v>
@@ -1923,8 +1817,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:B99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5794,7 +5688,7 @@
       <c r="B265" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="6" t="s">
         <v>308</v>
       </c>
       <c r="D265" s="6" t="s">

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="312">
   <si>
     <t>Application_Details</t>
   </si>
@@ -971,12 +971,6 @@
   </si>
   <si>
     <t>Maveric@2018</t>
-  </si>
-  <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152244||SIM--8962702800901163244||PlanName--Postpaid Red 350 Promotion||</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1721,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,10 +1730,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="88.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1772,29 +1766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="319">
   <si>
     <t>Application_Details</t>
   </si>
@@ -971,6 +971,27 @@
   </si>
   <si>
     <t>Maveric@2018</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Account360_Modify</t>
+  </si>
+  <si>
+    <t>Addon Activation 360 View</t>
+  </si>
+  <si>
+    <t>10.162.53.95</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>Brmsitenv@123</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152241||New_PlanName--Postpaid Red 350 Promotion||</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,6 +1730,26 @@
         <v>122</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1720,8 +1761,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,10 +1771,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,7 +1807,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1787,16 +1850,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="32.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -5312,13 +5375,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5335,16 +5397,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>124</v>
+        <v>313</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>125</v>
+        <v>314</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5352,58 +5414,75 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>4</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>126</v>
+        <v>313</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
@@ -5415,18 +5494,19 @@
         <v>26</v>
       </c>
     </row>
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>1</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>85</v>
+        <v>123</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>13</v>
@@ -5437,16 +5517,16 @@
         <v>2</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -5454,523 +5534,523 @@
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>88</v>
+        <v>123</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
-        <v>4</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>83</v>
+        <v>126</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>2</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>85</v>
+        <v>126</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
-        <v>2</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>201</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>299</v>
+        <v>88</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>300</v>
+        <v>84</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B261" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>1</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E261" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <v>8</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D262" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>279</v>
+      <c r="C263" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>1</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>2</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>308</v>
+        <v>3</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>3</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>83</v>
+        <v>4</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>4</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>275</v>
+        <v>5</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>5</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>308</v>
+        <v>6</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>276</v>
+        <v>83</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>279</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>7</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>12</v>
+        <v>139</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
-        <v>2</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>3</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>4</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>5</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>203</v>
+        <v>3</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>6</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>205</v>
+        <v>4</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>7</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>8</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="D278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>2</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>3</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>4</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>5</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>6</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>7</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D284" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E278" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
-        <v>1</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
-        <v>2</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
-        <v>3</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C282" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E282" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
-        <v>1</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C284" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="E284" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="E286" s="6" t="s">
         <v>26</v>
@@ -5981,16 +6061,16 @@
         <v>1</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,16 +6078,16 @@
         <v>2</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,674 +6095,657 @@
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
-        <v>4</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E291" s="6" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
-      <c r="C293" s="8"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>2</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
-        <v>2</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="6" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
-      <c r="C299" s="8"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>4</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
-        <v>2</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E301" s="6" t="s">
-        <v>217</v>
-      </c>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="8"/>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>219</v>
+        <v>136</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E304" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="8"/>
-      <c r="B305" s="8"/>
-      <c r="C305" s="8"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>4</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
-        <v>2</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E307" s="6" t="s">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="8"/>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E308" s="6" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>4</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
-        <v>2</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D313" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E313" s="6" t="s">
-        <v>225</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="8"/>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>3</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E317" s="6" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
-        <v>3</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C319" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D319" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E319" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>2</v>
+      </c>
+      <c r="B321" s="8" t="s">
         <v>224</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E322" s="6" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
-        <v>3</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D324" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E324" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>3</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
-        <v>2</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C329" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D329" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
-        <v>1</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D335" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E335" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>5</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>211</v>
@@ -6696,10 +6759,10 @@
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>235</v>
@@ -6713,10 +6776,10 @@
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>236</v>
@@ -6730,10 +6793,10 @@
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>237</v>
@@ -6747,36 +6810,36 @@
     </row>
     <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6784,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>136</v>
@@ -6801,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>211</v>
@@ -6818,7 +6881,7 @@
         <v>3</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>235</v>
@@ -6835,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>236</v>
@@ -6852,16 +6915,16 @@
         <v>5</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,7 +6932,7 @@
         <v>6</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>137</v>
@@ -6886,16 +6949,16 @@
         <v>7</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6903,16 +6966,16 @@
         <v>1</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>211</v>
@@ -6937,211 +7000,211 @@
         <v>3</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>4</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E356" s="6" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>4</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E358" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>8</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>4</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E366" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <v>1</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>12</v>
@@ -7149,101 +7212,101 @@
       <c r="D367" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E367" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <v>2</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E368" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <v>3</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E369" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E369" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <v>4</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E370" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <v>5</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E371" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E371" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <v>6</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E372" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <v>7</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>25</v>
@@ -7251,24 +7314,24 @@
       <c r="D373" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E373" s="5" t="s">
-        <v>26</v>
+      <c r="E373" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>1</v>
       </c>
-      <c r="B375" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C375" s="6" t="s">
+      <c r="B375" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C375" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E375" s="6" t="s">
+      <c r="E375" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7276,520 +7339,537 @@
       <c r="A376" s="3">
         <v>2</v>
       </c>
-      <c r="B376" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>14</v>
+      <c r="B376" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E376" s="6" t="s">
-        <v>44</v>
+      <c r="E376" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>3</v>
       </c>
-      <c r="B377" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>106</v>
+      <c r="B377" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E377" s="6" t="s">
-        <v>107</v>
+      <c r="E377" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>4</v>
       </c>
-      <c r="B378" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>17</v>
+      <c r="B378" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E378" s="6" t="s">
-        <v>45</v>
+      <c r="E378" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>5</v>
       </c>
-      <c r="B379" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>19</v>
+      <c r="B379" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E379" s="6" t="s">
-        <v>20</v>
+      <c r="E379" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>6</v>
       </c>
-      <c r="B380" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>21</v>
+      <c r="B380" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E380" s="6" t="s">
-        <v>22</v>
+      <c r="E380" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>7</v>
       </c>
-      <c r="B381" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>97</v>
+      <c r="B381" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E381" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
-        <v>8</v>
-      </c>
-      <c r="B382" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D382" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E382" s="6" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E383" s="6" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E385" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>103</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>5</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E387" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <v>1</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E388" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <v>2</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C389" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E389" s="5" t="s">
-        <v>44</v>
+      <c r="E389" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <v>3</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C390" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E390" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="E390" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <v>4</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C391" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E391" s="5" t="s">
-        <v>20</v>
+      <c r="E391" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <v>5</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E392" s="5" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="E392" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
-        <v>6</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C393" s="5" t="s">
-        <v>101</v>
+        <v>11</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E393" s="5" t="s">
-        <v>24</v>
+      <c r="E393" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
+        <v>12</v>
+      </c>
+      <c r="B394" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>1</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>2</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>3</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>4</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>5</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>6</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
         <v>7</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B402" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C402" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D394" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E394" s="5" t="s">
+      <c r="D402" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
         <v>8</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B403" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C403" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D395" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E395" s="6" t="s">
+      <c r="D403" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E403" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
+    <row r="405" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
         <v>1</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B405" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C397" s="5" t="s">
+      <c r="C405" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D397" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E397" s="6" t="s">
+      <c r="D405" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E405" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
+    <row r="406" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
         <v>2</v>
       </c>
-      <c r="B398" s="8" t="s">
+      <c r="B406" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="C406" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D398" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E398" s="6" t="s">
+      <c r="D406" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E406" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
+    <row r="407" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
         <v>3</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B407" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C399" s="5" t="s">
+      <c r="C407" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D399" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E399" s="6" t="s">
+      <c r="D407" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E407" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
+    <row r="408" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
         <v>4</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="B408" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="C408" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D400" s="6" t="s">
+      <c r="D408" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E400" s="6" t="s">
+      <c r="E408" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
-        <v>5</v>
-      </c>
-      <c r="B401" s="8" t="s">
+    <row r="409" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>5</v>
+      </c>
+      <c r="B409" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="C409" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D401" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E401" s="6" t="s">
+      <c r="D409" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E409" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
+    <row r="410" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
         <v>6</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B410" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C402" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D402" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E402" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
-        <v>7</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D403" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E403" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
-        <v>8</v>
-      </c>
-      <c r="B404" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C404" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D404" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E404" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
-        <v>1</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D406" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E406" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="3">
-        <v>2</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C407" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D407" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E407" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="3">
-        <v>3</v>
-      </c>
-      <c r="B408" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D408" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E408" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="3">
-        <v>1</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C410" s="6" t="s">
+      <c r="C410" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D410" s="6" t="s">
@@ -7799,31 +7879,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E411" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C412" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C412" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D412" s="6" t="s">
@@ -7838,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>12</v>
@@ -7855,16 +7935,16 @@
         <v>2</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E415" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -7872,7 +7952,7 @@
         <v>3</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>25</v>
@@ -7885,137 +7965,113 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="11">
+      <c r="A418" s="3">
         <v>1</v>
       </c>
-      <c r="B418" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C418" s="13" t="s">
+      <c r="B418" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C418" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D418" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E418" s="14" t="s">
+      <c r="D418" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="11">
+      <c r="A419" s="3">
         <v>2</v>
       </c>
-      <c r="B419" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C419" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D419" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E419" s="14" t="s">
-        <v>16</v>
+      <c r="B419" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="11">
+      <c r="A420" s="3">
         <v>3</v>
       </c>
-      <c r="B420" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C420" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D420" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E420" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="11">
-        <v>4</v>
-      </c>
-      <c r="B421" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C421" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D421" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E421" s="14" t="s">
-        <v>20</v>
+      <c r="B420" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E420" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="11">
-        <v>5</v>
-      </c>
-      <c r="B422" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C422" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D422" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E422" s="14" t="s">
-        <v>22</v>
+      <c r="A422" s="3">
+        <v>1</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E422" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="11">
-        <v>6</v>
-      </c>
-      <c r="B423" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C423" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D423" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E423" s="14" t="s">
-        <v>24</v>
+      <c r="A423" s="3">
+        <v>2</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E423" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="11">
-        <v>7</v>
-      </c>
-      <c r="B424" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C424" s="13" t="s">
+      <c r="A424" s="3">
+        <v>3</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C424" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D424" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E424" s="14" t="s">
+      <c r="D424" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E424" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="11"/>
-      <c r="B425" s="11"/>
-      <c r="C425" s="11"/>
-      <c r="D425" s="11"/>
-      <c r="E425" s="11"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="11">
         <v>1</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C426" s="13" t="s">
         <v>12</v>
@@ -8032,7 +8088,7 @@
         <v>2</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C427" s="13" t="s">
         <v>14</v>
@@ -8049,7 +8105,7 @@
         <v>3</v>
       </c>
       <c r="B428" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C428" s="13" t="s">
         <v>17</v>
@@ -8066,7 +8122,7 @@
         <v>4</v>
       </c>
       <c r="B429" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C429" s="13" t="s">
         <v>19</v>
@@ -8083,7 +8139,7 @@
         <v>5</v>
       </c>
       <c r="B430" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C430" s="13" t="s">
         <v>21</v>
@@ -8100,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D431" s="14" t="s">
         <v>15</v>
@@ -8117,7 +8173,7 @@
         <v>7</v>
       </c>
       <c r="B432" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C432" s="13" t="s">
         <v>25</v>
@@ -8130,261 +8186,272 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="11">
-        <v>8</v>
-      </c>
-      <c r="B433" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C433" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D433" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E433" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="A433" s="11"/>
+      <c r="B433" s="11"/>
+      <c r="C433" s="11"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="11"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B434" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E434" s="14" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B435" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C435" s="14" t="s">
-        <v>12</v>
+      <c r="C435" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E435" s="14" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B436" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C436" s="14" t="s">
-        <v>191</v>
+      <c r="C436" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D436" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E436" s="14" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B437" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C437" s="14" t="s">
+      <c r="C437" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D437" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="11">
+        <v>5</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D438" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E438" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="11">
+        <v>6</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D439" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E439" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="11">
+        <v>7</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C440" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D437" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E437" s="14" t="s">
+      <c r="D440" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E440" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="11">
+        <v>8</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D441" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E441" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="11">
+        <v>9</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D442" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="11">
+        <v>10</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C443" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D443" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E443" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="11"/>
-      <c r="B438" s="12"/>
-      <c r="C438" s="14"/>
-      <c r="D438" s="14"/>
-      <c r="E438" s="14"/>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="3">
-        <v>1</v>
-      </c>
-      <c r="B439" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C439" s="6" t="s">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="11">
+        <v>11</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C444" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D444" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E444" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="11">
         <v>12</v>
       </c>
-      <c r="D439" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E439" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="3">
-        <v>2</v>
-      </c>
-      <c r="B440" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D440" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E440" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="3">
-        <v>3</v>
-      </c>
-      <c r="B441" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C441" s="6" t="s">
+      <c r="B445" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C445" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D441" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E441" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="3">
-        <v>1</v>
-      </c>
-      <c r="B443" s="8"/>
-      <c r="C443" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D443" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E443" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="3">
-        <v>2</v>
-      </c>
-      <c r="B444" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C444" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D444" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E444" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="3">
-        <v>3</v>
-      </c>
-      <c r="B445" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C445" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D445" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E445" s="6" t="s">
-        <v>235</v>
+      <c r="D445" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E445" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="3">
-        <v>4</v>
-      </c>
-      <c r="B446" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C446" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D446" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E446" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A446" s="11"/>
+      <c r="B446" s="12"/>
+      <c r="C446" s="14"/>
+      <c r="D446" s="14"/>
+      <c r="E446" s="14"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C447" s="5" t="s">
-        <v>237</v>
+        <v>267</v>
+      </c>
+      <c r="C447" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E447" s="6" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
-        <v>6</v>
-      </c>
-      <c r="B448" s="8"/>
-      <c r="C448" s="5" t="s">
-        <v>137</v>
+        <v>2</v>
+      </c>
+      <c r="B448" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C448" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E448" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C449" s="5" t="s">
-        <v>281</v>
+        <v>267</v>
+      </c>
+      <c r="C449" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -8407,7 +8474,7 @@
         <v>2</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>211</v>
@@ -8424,7 +8491,7 @@
         <v>3</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>235</v>
@@ -8441,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>236</v>
@@ -8458,7 +8525,7 @@
         <v>5</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>237</v>
@@ -8490,542 +8557,657 @@
         <v>7</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C457" s="6" t="s">
-        <v>12</v>
+        <v>280</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="3">
-        <v>8</v>
-      </c>
-      <c r="B458" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C458" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D458" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E458" s="6" t="s">
-        <v>289</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>1</v>
+      </c>
+      <c r="B459" s="8"/>
+      <c r="C459" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E459" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
-        <v>1</v>
-      </c>
-      <c r="B460" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C460" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B460" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E460" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>3</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E461" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>4</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E462" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>5</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E463" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>6</v>
+      </c>
+      <c r="B464" s="8"/>
+      <c r="C464" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E464" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>7</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C465" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D460" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E460" s="6" t="s">
+      <c r="D465" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E465" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="3">
-        <v>2</v>
-      </c>
-      <c r="B461" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C461" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D461" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E461" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="3">
-        <v>3</v>
-      </c>
-      <c r="B462" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C462" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D462" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E462" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="3">
-        <v>4</v>
-      </c>
-      <c r="B463" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D463" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E463" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="3">
-        <v>5</v>
-      </c>
-      <c r="B464" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C464" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D464" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E464" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E466" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="3">
-        <v>2</v>
-      </c>
-      <c r="B467" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C467" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D467" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E467" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
+        <v>1</v>
+      </c>
+      <c r="B468" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E468" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>2</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E469" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
         <v>3</v>
       </c>
-      <c r="B468" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C468" s="6" t="s">
+      <c r="B470" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C470" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D468" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E468" s="6" t="s">
+      <c r="D470" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E470" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="3">
+    <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
         <v>4</v>
       </c>
-      <c r="B469" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C469" s="5" t="s">
+      <c r="B471" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C471" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D469" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E469" s="5" t="s">
+      <c r="D471" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E471" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="3">
-        <v>5</v>
-      </c>
-      <c r="B470" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C470" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D470" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E470" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="3">
-        <v>6</v>
-      </c>
-      <c r="B471" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C471" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D471" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E471" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
-        <v>7</v>
-      </c>
-      <c r="B472" s="8" t="s">
-        <v>284</v>
+        <v>5</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E472" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="3">
-        <v>8</v>
-      </c>
-      <c r="B473" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C473" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D473" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E473" s="6" t="s">
-        <v>13</v>
+      <c r="E472" s="6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B474" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E474" s="6" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B475" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C475" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E475" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>3</v>
+      </c>
+      <c r="B476" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C476" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D475" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E475" s="6" t="s">
+      <c r="D476" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E476" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
-        <v>1</v>
-      </c>
-      <c r="B477" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C477" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E477" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E477" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
-        <v>2</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>297</v>
+        <v>5</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E478" s="6" t="s">
-        <v>298</v>
+      <c r="E478" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
-        <v>3</v>
-      </c>
-      <c r="B479" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C479" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E479" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E479" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
-        <v>4</v>
-      </c>
-      <c r="B480" s="3" t="s">
-        <v>296</v>
+        <v>7</v>
+      </c>
+      <c r="B480" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D480" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D480" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
-        <v>5</v>
-      </c>
-      <c r="B481" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C481" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D481" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E481" s="5" t="s">
-        <v>286</v>
+        <v>8</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E481" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
-        <v>6</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C482" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D482" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E482" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
-        <v>1</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C484" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D484" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E484" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B482" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E482" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>10</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D483" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E483" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C485" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D485" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E485" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="C485" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D485" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E485" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C486" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D486" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E486" s="5" t="s">
-        <v>26</v>
+        <v>296</v>
+      </c>
+      <c r="C486" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E486" s="6" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C487" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D487" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E487" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
+      </c>
+      <c r="C487" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D487" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E487" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D488" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
+        <v>5</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C489" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E489" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
         <v>6</v>
       </c>
-      <c r="B489" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C489" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D489" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E489" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
-        <v>1</v>
-      </c>
-      <c r="B491" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C491" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D491" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E491" s="5" t="s">
-        <v>13</v>
+      <c r="B490" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="D492" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E492" s="5" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
+        <v>2</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C493" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E493" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
         <v>3</v>
       </c>
-      <c r="B493" s="3" t="s">
+      <c r="B494" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>4</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C495" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E495" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>5</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>6</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C497" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E497" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>1</v>
+      </c>
+      <c r="B499" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C493" s="5" t="s">
+      <c r="C499" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>2</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>3</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C501" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D493" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E493" s="5" t="s">
+      <c r="D501" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E501" s="5" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\WS!\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="330">
   <si>
     <t>Application_Details</t>
   </si>
@@ -992,12 +992,45 @@
   </si>
   <si>
     <t>MSISDN--97478152241||New_PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
+    <t>Mcare_Cookies</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Mcare_Post_ProdDeActivation</t>
+  </si>
+  <si>
+    <t>Addon_Activation</t>
+  </si>
+  <si>
+    <t>PostAddon_Deactivation</t>
+  </si>
+  <si>
+    <t>Mcare_Post_ProdActivation</t>
+  </si>
+  <si>
+    <t>PostAddon_Activation</t>
+  </si>
+  <si>
+    <t>CheckBalance</t>
+  </si>
+  <si>
+    <t>Addon_DeActivation</t>
+  </si>
+  <si>
+    <t>Mcare_DeActivation</t>
+  </si>
+  <si>
+    <t>Mcare_ProdActivation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1669,8 +1702,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,10 +1883,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9209,6 +9242,604 @@
       </c>
       <c r="E501" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>1</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D503" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E503" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>2</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <v>3</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D505" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>4</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D506" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <v>5</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D507" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E507" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>6</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D508" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E508" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C509" s="5"/>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>1</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D510" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <v>2</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D511" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E511" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>3</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D512" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <v>4</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D513" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E513" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>1</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C515" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D515" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E515" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>2</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D516" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>3</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C517" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D517" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E517" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>4</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D518" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E518" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>5</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D519" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E519" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>6</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D520" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E520" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <v>7</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C521" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D521" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E521" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>8</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D522" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E522" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>9</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D523" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E523" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>10</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D524" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E524" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>1</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>2</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C527" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D527" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E527" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>3</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>4</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C529" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E529" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>5</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D530" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E530" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>6</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C531" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D531" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E531" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>7</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D532" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E532" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>8</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C533" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D533" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E533" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>9</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D534" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E534" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>10</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D535" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E535" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>1</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D538" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E538" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>2</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>3</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D540" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E540" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>4</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D541" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E541" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>5</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D542" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\WS!\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -991,9 +991,6 @@
     <t>Brmsitenv@123</t>
   </si>
   <si>
-    <t>MSISDN--97478152241||New_PlanName--Postpaid Red 350 Promotion||</t>
-  </si>
-  <si>
     <t>Mcare_Cookies</t>
   </si>
   <si>
@@ -1025,12 +1022,15 @@
   </si>
   <si>
     <t>Mcare_ProdActivation</t>
+  </si>
+  <si>
+    <t>MSISDN--12121||SIM--111111||PlanName--Postpaid Red 350 Promotion||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1702,7 +1702,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1794,8 +1794,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,11 +1804,11 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,13 +1854,13 @@
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1885,7 +1885,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+    <sheetView topLeftCell="A532" workbookViewId="0">
       <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>136</v>
@@ -9266,7 +9266,7 @@
         <v>2</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>285</v>
@@ -9283,7 +9283,7 @@
         <v>3</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>286</v>
@@ -9300,16 +9300,16 @@
         <v>4</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D506" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E506" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -9317,7 +9317,7 @@
         <v>5</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>137</v>
@@ -9334,7 +9334,7 @@
         <v>6</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>242</v>
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>285</v>
@@ -9371,7 +9371,7 @@
         <v>2</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>286</v>
@@ -9388,16 +9388,16 @@
         <v>3</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D512" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,10 +9405,10 @@
         <v>4</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D513" s="6" t="s">
         <v>15</v>
@@ -9422,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>285</v>
@@ -9439,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>286</v>
@@ -9456,16 +9456,16 @@
         <v>3</v>
       </c>
       <c r="B517" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C517" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C517" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="D517" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E517" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -9473,7 +9473,7 @@
         <v>4</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>12</v>
@@ -9490,7 +9490,7 @@
         <v>5</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>246</v>
@@ -9507,7 +9507,7 @@
         <v>6</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>247</v>
@@ -9524,7 +9524,7 @@
         <v>7</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>27</v>
@@ -9541,7 +9541,7 @@
         <v>8</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>29</v>
@@ -9558,7 +9558,7 @@
         <v>9</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>31</v>
@@ -9575,7 +9575,7 @@
         <v>10</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>25</v>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>285</v>
@@ -9609,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>286</v>
@@ -9626,16 +9626,16 @@
         <v>3</v>
       </c>
       <c r="B528" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E528" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="C528" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D528" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E528" s="5" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -9643,7 +9643,7 @@
         <v>4</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>12</v>
@@ -9660,7 +9660,7 @@
         <v>5</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>246</v>
@@ -9677,7 +9677,7 @@
         <v>6</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>247</v>
@@ -9694,7 +9694,7 @@
         <v>7</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>27</v>
@@ -9711,7 +9711,7 @@
         <v>8</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>29</v>
@@ -9728,7 +9728,7 @@
         <v>9</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>31</v>
@@ -9745,7 +9745,7 @@
         <v>10</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>25</v>
@@ -9762,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>12</v>
@@ -9779,16 +9779,16 @@
         <v>2</v>
       </c>
       <c r="B539" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C539" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C539" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="D539" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -9796,7 +9796,7 @@
         <v>3</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>25</v>
@@ -9813,7 +9813,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>285</v>
@@ -9830,7 +9830,7 @@
         <v>5</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>286</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wsw\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="344">
   <si>
     <t>Application_Details</t>
   </si>
@@ -958,30 +958,78 @@
     <t>To Cancel Open Orders</t>
   </si>
   <si>
+    <t>Trial_BillRun</t>
+  </si>
+  <si>
+    <t>Trail Bill generation</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Account360_Modify</t>
+  </si>
+  <si>
+    <t>Addon Activation 360 View</t>
+  </si>
+  <si>
+    <t>Mcare_Cookies</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Mcare_Post_ProdDeActivation</t>
+  </si>
+  <si>
+    <t>Addon_Activation</t>
+  </si>
+  <si>
+    <t>PostAddon_Deactivation</t>
+  </si>
+  <si>
+    <t>Mcare_Post_ProdActivation</t>
+  </si>
+  <si>
+    <t>PostAddon_Activation</t>
+  </si>
+  <si>
+    <t>CheckBalance</t>
+  </si>
+  <si>
+    <t>Addon_DeActivation</t>
+  </si>
+  <si>
+    <t>Mcare_DeActivation</t>
+  </si>
+  <si>
+    <t>Mcare_ProdActivation</t>
+  </si>
+  <si>
+    <t>BillGeneration_BillingProfile</t>
+  </si>
+  <si>
+    <t>Cancel_Pending_Order</t>
+  </si>
+  <si>
+    <t>DropPendingOrder</t>
+  </si>
+  <si>
+    <t>To Drop Pending Orders</t>
+  </si>
+  <si>
+    <t>MSISDN--12121||SIM--111111||PlanName--Postpaid Red 350 Promotion||</t>
+  </si>
+  <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
   </si>
   <si>
-    <t>Trial_BillRun</t>
-  </si>
-  <si>
-    <t>Trail Bill generation</t>
-  </si>
-  <si>
     <t>KALISARAVANAN</t>
   </si>
   <si>
     <t>Maveric@2018</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>Account360_Modify</t>
-  </si>
-  <si>
-    <t>Addon Activation 360 View</t>
-  </si>
-  <si>
     <t>10.162.53.95</t>
   </si>
   <si>
@@ -991,47 +1039,41 @@
     <t>Brmsitenv@123</t>
   </si>
   <si>
-    <t>Mcare_Cookies</t>
-  </si>
-  <si>
-    <t>Cookies</t>
-  </si>
-  <si>
-    <t>Mcare_Post_ProdDeActivation</t>
-  </si>
-  <si>
-    <t>Addon_Activation</t>
-  </si>
-  <si>
-    <t>PostAddon_Deactivation</t>
-  </si>
-  <si>
-    <t>Mcare_Post_ProdActivation</t>
-  </si>
-  <si>
-    <t>PostAddon_Activation</t>
-  </si>
-  <si>
-    <t>CheckBalance</t>
-  </si>
-  <si>
-    <t>Addon_DeActivation</t>
-  </si>
-  <si>
-    <t>Mcare_DeActivation</t>
-  </si>
-  <si>
-    <t>Mcare_ProdActivation</t>
-  </si>
-  <si>
-    <t>MSISDN--12121||SIM--111111||PlanName--Postpaid Red 350 Promotion||</t>
+    <t>Siebel_NBO</t>
+  </si>
+  <si>
+    <t>Seibel_NBO</t>
+  </si>
+  <si>
+    <t>Selecting Next Best offer</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>Suspend_Account</t>
+  </si>
+  <si>
+    <t>Suspension_Account</t>
+  </si>
+  <si>
+    <t>FL_Disconnect</t>
+  </si>
+  <si>
+    <t>FL_Disconnection</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_DAPN</t>
+  </si>
+  <si>
+    <t>Upgradation of DAPN Plan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1131,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1128,7 +1190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1184,11 +1246,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,6 +1342,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,13 +1883,13 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1774,13 +1906,13 @@
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1980,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>108</v>
@@ -1860,7 +1992,7 @@
         <v>111</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1883,10 +2015,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E542"/>
+  <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="C554" sqref="C554"/>
+    <sheetView topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="A550" sqref="A550:A552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5413,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>12</v>
@@ -5430,16 +5562,16 @@
         <v>2</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5447,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>70</v>
@@ -5464,7 +5596,7 @@
         <v>4</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>27</v>
@@ -5481,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>29</v>
@@ -5498,7 +5630,7 @@
         <v>6</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>31</v>
@@ -5515,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>25</v>
@@ -5856,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>85</v>
@@ -5873,16 +6005,16 @@
         <v>2</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E273" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -5890,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>83</v>
@@ -5907,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>275</v>
@@ -5924,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>276</v>
@@ -9249,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>136</v>
@@ -9266,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>285</v>
@@ -9283,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>286</v>
@@ -9300,16 +9432,16 @@
         <v>4</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D506" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E506" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -9317,7 +9449,7 @@
         <v>5</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>137</v>
@@ -9334,7 +9466,7 @@
         <v>6</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>242</v>
@@ -9354,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>285</v>
@@ -9371,7 +9503,7 @@
         <v>2</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>286</v>
@@ -9388,16 +9520,16 @@
         <v>3</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D512" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,10 +9537,10 @@
         <v>4</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D513" s="6" t="s">
         <v>15</v>
@@ -9422,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>285</v>
@@ -9439,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>286</v>
@@ -9456,16 +9588,16 @@
         <v>3</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D517" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E517" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -9473,7 +9605,7 @@
         <v>4</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C518" s="5" t="s">
         <v>12</v>
@@ -9490,7 +9622,7 @@
         <v>5</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>246</v>
@@ -9507,7 +9639,7 @@
         <v>6</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>247</v>
@@ -9524,7 +9656,7 @@
         <v>7</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>27</v>
@@ -9541,7 +9673,7 @@
         <v>8</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>29</v>
@@ -9558,7 +9690,7 @@
         <v>9</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>31</v>
@@ -9575,7 +9707,7 @@
         <v>10</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C524" s="5" t="s">
         <v>25</v>
@@ -9592,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C526" s="5" t="s">
         <v>285</v>
@@ -9609,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>286</v>
@@ -9626,16 +9758,16 @@
         <v>3</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C528" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D528" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E528" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -9643,7 +9775,7 @@
         <v>4</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C529" s="5" t="s">
         <v>12</v>
@@ -9660,7 +9792,7 @@
         <v>5</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>246</v>
@@ -9677,7 +9809,7 @@
         <v>6</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>247</v>
@@ -9694,7 +9826,7 @@
         <v>7</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>27</v>
@@ -9711,7 +9843,7 @@
         <v>8</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>29</v>
@@ -9728,7 +9860,7 @@
         <v>9</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C534" s="5" t="s">
         <v>31</v>
@@ -9745,7 +9877,7 @@
         <v>10</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C535" s="5" t="s">
         <v>25</v>
@@ -9762,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>12</v>
@@ -9779,16 +9911,16 @@
         <v>2</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D539" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E539" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -9796,7 +9928,7 @@
         <v>3</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C540" s="5" t="s">
         <v>25</v>
@@ -9813,7 +9945,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C541" s="5" t="s">
         <v>285</v>
@@ -9830,7 +9962,7 @@
         <v>5</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>286</v>
@@ -9840,6 +9972,432 @@
       </c>
       <c r="E542" s="5" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>1</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>2</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>3</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>4</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>5</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="550" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="3">
+        <v>1</v>
+      </c>
+      <c r="B550" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C550" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D550" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E550" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="3">
+        <v>2</v>
+      </c>
+      <c r="B551" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C551" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D551" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E551" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A552" s="3">
+        <v>3</v>
+      </c>
+      <c r="B552" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C552" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D552" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E552" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>1</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D555" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E555" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>2</v>
+      </c>
+      <c r="B556" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E556" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>3</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D557" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E557" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>4</v>
+      </c>
+      <c r="B558" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D558" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E558" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>5</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E559" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>1</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D561" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E561" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>2</v>
+      </c>
+      <c r="B562" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C562" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D562" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E562" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>3</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C563" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D563" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E563" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>1</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D565" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E565" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>2</v>
+      </c>
+      <c r="B566" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D566" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E566" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>3</v>
+      </c>
+      <c r="B567" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C567" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D567" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E567" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>1</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D569" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E569" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>2</v>
+      </c>
+      <c r="B570" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D570" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E570" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>3</v>
+      </c>
+      <c r="B571" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C571" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D571" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E571" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>1</v>
+      </c>
+      <c r="B573" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C573" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D573" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E573" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="3">
+        <v>2</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C574" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D574" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E574" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="3">
+        <v>3</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C575" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D575" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E575" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="343">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1016,9 +1016,6 @@
   </si>
   <si>
     <t>To Drop Pending Orders</t>
-  </si>
-  <si>
-    <t>MSISDN--12121||SIM--111111||PlanName--Postpaid Red 350 Promotion||</t>
   </si>
   <si>
     <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
@@ -1883,13 +1880,13 @@
         <v>301</v>
       </c>
       <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>329</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
       </c>
       <c r="G2" t="s">
         <v>122</v>
@@ -1906,13 +1903,13 @@
         <v>301</v>
       </c>
       <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
         <v>331</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>332</v>
-      </c>
-      <c r="F3" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +1933,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1986,13 +1983,10 @@
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -10116,7 +10110,7 @@
         <v>1</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C555" s="6" t="s">
         <v>12</v>
@@ -10133,7 +10127,7 @@
         <v>2</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C556" s="5" t="s">
         <v>27</v>
@@ -10150,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C557" s="6" t="s">
         <v>29</v>
@@ -10167,16 +10161,16 @@
         <v>4</v>
       </c>
       <c r="B558" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C558" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C558" s="6" t="s">
+      <c r="D558" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E558" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="D558" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E558" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
@@ -10184,7 +10178,7 @@
         <v>5</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C559" s="5" t="s">
         <v>25</v>
@@ -10201,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C561" s="6" t="s">
         <v>12</v>
@@ -10218,10 +10212,10 @@
         <v>2</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D562" s="6" t="s">
         <v>15</v>
@@ -10235,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C563" s="6" t="s">
         <v>25</v>
@@ -10252,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C565" s="5" t="s">
         <v>12</v>
@@ -10269,10 +10263,10 @@
         <v>2</v>
       </c>
       <c r="B566" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C566" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="C566" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="D566" s="6" t="s">
         <v>15</v>
@@ -10286,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C567" s="6" t="s">
         <v>25</v>
@@ -10303,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C569" s="5" t="s">
         <v>12</v>
@@ -10320,10 +10314,10 @@
         <v>2</v>
       </c>
       <c r="B570" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C570" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="C570" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="D570" s="6" t="s">
         <v>15</v>
@@ -10337,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>25</v>
@@ -10354,7 +10348,7 @@
         <v>1</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>12</v>
@@ -10371,16 +10365,16 @@
         <v>2</v>
       </c>
       <c r="B574" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C574" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D574" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E574" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="C574" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D574" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E574" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
@@ -10388,7 +10382,7 @@
         <v>3</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C575" s="6" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="358">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1064,6 +1064,51 @@
   </si>
   <si>
     <t>Upgradation of DAPN Plan</t>
+  </si>
+  <si>
+    <t>Get_PUK</t>
+  </si>
+  <si>
+    <t>getPUK</t>
+  </si>
+  <si>
+    <t>Adjustments_BillingProfile</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>Adjustments_Bill</t>
+  </si>
+  <si>
+    <t>Adjustments_Item</t>
+  </si>
+  <si>
+    <t>Adjustments_BillingProfileLevel</t>
+  </si>
+  <si>
+    <t>Adjustments_BillLevel</t>
+  </si>
+  <si>
+    <t>Adjustments_ItemLevel</t>
+  </si>
+  <si>
+    <t>HomeMove</t>
+  </si>
+  <si>
+    <t>SharedBundleProvisioning</t>
+  </si>
+  <si>
+    <t>SharedBundleDisconnection</t>
+  </si>
+  <si>
+    <t>DisconnectSharedBundle</t>
+  </si>
+  <si>
+    <t>OrderReplication</t>
+  </si>
+  <si>
+    <t>ReplicateOrder</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,6 +1400,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1831,8 +1891,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,8 +1993,8 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
@@ -1983,10 +2043,10 @@
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2009,10 +2069,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E575"/>
+  <dimension ref="A1:E617"/>
   <sheetViews>
-    <sheetView topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="A550" sqref="A550:A552"/>
+    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="A599" sqref="A599:E617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9975,13 +10035,13 @@
       <c r="B544" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C544" s="3" t="s">
+      <c r="C544" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D544" s="3" t="s">
+      <c r="D544" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E544" s="3" t="s">
+      <c r="E544" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9992,13 +10052,13 @@
       <c r="B545" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C545" s="3" t="s">
+      <c r="C545" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D545" s="3" t="s">
+      <c r="D545" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E545" s="3" t="s">
+      <c r="E545" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10009,13 +10069,13 @@
       <c r="B546" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C546" s="3" t="s">
+      <c r="C546" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D546" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E546" s="3" t="s">
+      <c r="D546" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E546" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -10026,13 +10086,13 @@
       <c r="B547" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C547" s="3" t="s">
+      <c r="C547" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D547" s="3" t="s">
+      <c r="D547" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E547" s="3" t="s">
+      <c r="E547" s="5" t="s">
         <v>206</v>
       </c>
     </row>
@@ -10043,13 +10103,13 @@
       <c r="B548" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C548" s="3" t="s">
+      <c r="C548" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D548" s="3" t="s">
+      <c r="D548" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E548" s="3" t="s">
+      <c r="E548" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10392,6 +10452,589 @@
       </c>
       <c r="E575" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="3">
+        <v>1</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C577" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D577" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E577" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="3">
+        <v>2</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C578" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D578" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E578" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="3">
+        <v>3</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C579" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D579" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E579" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="3">
+        <v>1</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C581" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D581" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E581" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="3">
+        <v>2</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D582" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E582" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="3">
+        <v>3</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C583" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D583" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E583" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="3">
+        <v>1</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C585" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E585" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="3">
+        <v>2</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="3">
+        <v>3</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D587" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E587" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="3">
+        <v>1</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C589" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E589" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="3">
+        <v>2</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C590" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E590" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="3">
+        <v>3</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E591" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="3">
+        <v>1</v>
+      </c>
+      <c r="B593" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C593" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D593" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E593" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="3">
+        <v>2</v>
+      </c>
+      <c r="B594" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C594" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D594" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E594" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="3">
+        <v>3</v>
+      </c>
+      <c r="B595" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E595" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="3">
+        <v>4</v>
+      </c>
+      <c r="B596" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D596" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E596" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="3">
+        <v>5</v>
+      </c>
+      <c r="B597" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C597" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D597" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E597" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="599" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="25">
+        <v>1</v>
+      </c>
+      <c r="B599" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C599" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D599" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E599" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="27">
+        <v>2</v>
+      </c>
+      <c r="B600" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C600" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D600" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E600" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="27">
+        <v>3</v>
+      </c>
+      <c r="B601" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C601" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D601" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E601" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="27">
+        <v>4</v>
+      </c>
+      <c r="B602" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C602" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D602" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E602" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="27">
+        <v>5</v>
+      </c>
+      <c r="B603" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C603" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D603" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E603" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="27">
+        <v>6</v>
+      </c>
+      <c r="B604" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C604" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D604" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E604" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="27">
+        <v>7</v>
+      </c>
+      <c r="B605" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C605" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D605" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E605" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="27">
+        <v>8</v>
+      </c>
+      <c r="B606" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C606" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D606" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E606" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="27">
+        <v>9</v>
+      </c>
+      <c r="B607" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C607" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="D607" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E607" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="27">
+        <v>10</v>
+      </c>
+      <c r="B608" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C608" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D608" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E608" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="22"/>
+      <c r="B609" s="28"/>
+      <c r="C609" s="28"/>
+      <c r="D609" s="28"/>
+      <c r="E609" s="28"/>
+    </row>
+    <row r="610" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="27">
+        <v>1</v>
+      </c>
+      <c r="B610" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C610" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E610" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="27">
+        <v>2</v>
+      </c>
+      <c r="B611" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C611" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D611" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E611" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="27">
+        <v>3</v>
+      </c>
+      <c r="B612" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C612" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D612" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E612" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="22"/>
+      <c r="B613" s="28"/>
+      <c r="C613" s="28"/>
+      <c r="D613" s="28"/>
+      <c r="E613" s="28"/>
+    </row>
+    <row r="614" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="22"/>
+      <c r="B614" s="28"/>
+      <c r="C614" s="28"/>
+      <c r="D614" s="28"/>
+      <c r="E614" s="28"/>
+    </row>
+    <row r="615" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="27">
+        <v>1</v>
+      </c>
+      <c r="B615" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C615" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E615" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="27">
+        <v>2</v>
+      </c>
+      <c r="B616" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C616" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D616" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E616" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="27">
+        <v>3</v>
+      </c>
+      <c r="B617" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C617" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D617" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E617" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wsw\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1114,7 +1114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2071,8 +2071,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A592" workbookViewId="0">
-      <selection activeCell="A599" sqref="A599:E617"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="E616" sqref="E616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11017,7 +11017,7 @@
         <v>15</v>
       </c>
       <c r="E616" s="29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="617" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="370">
   <si>
     <t>Application_Details</t>
   </si>
@@ -403,9 +403,6 @@
     <t>Upgrading promotion via Account 360</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>Account360view</t>
   </si>
   <si>
@@ -1118,9 +1115,6 @@
   </si>
   <si>
     <t>MSISDN--97478152667||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>Credit</t>
   </si>
   <si>
     <t>MSISDN--97478152667||Amount--200||Reason--Goodwill||</t>
@@ -1933,7 +1927,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1953,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1976,13 +1970,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1990,10 +1981,10 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1996,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
@@ -2013,10 +2004,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
@@ -2032,10 +2023,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>48</v>
@@ -2054,272 +2045,118 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="B2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="18" t="s">
+    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="18" t="s">
+    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>361</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2170,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+    <sheetView topLeftCell="A596" workbookViewId="0">
       <selection activeCell="A137" sqref="A136:XFD137"/>
     </sheetView>
   </sheetViews>
@@ -2369,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -2386,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -2403,7 +2240,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -2420,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -2437,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
@@ -2454,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -2471,16 +2308,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,7 +2325,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>70</v>
@@ -2505,7 +2342,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>27</v>
@@ -2522,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -2539,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -2556,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
@@ -2573,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -2590,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -2607,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
@@ -2624,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
@@ -2641,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>21</v>
@@ -2658,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -2675,16 +2512,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>70</v>
@@ -2709,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>27</v>
@@ -2726,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
@@ -2743,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>31</v>
@@ -2760,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>25</v>
@@ -2777,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -2794,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2811,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -2828,7 +2665,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>19</v>
@@ -2845,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>21</v>
@@ -2862,7 +2699,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -2879,16 +2716,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,16 +2733,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>70</v>
@@ -2930,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>27</v>
@@ -2947,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>29</v>
@@ -2964,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
@@ -2981,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -2998,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -3015,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>39</v>
@@ -3032,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>41</v>
@@ -3049,7 +2886,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -3066,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
@@ -3083,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -3100,16 +2937,16 @@
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,7 +2954,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>70</v>
@@ -3134,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>27</v>
@@ -3151,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>29</v>
@@ -3168,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>31</v>
@@ -3185,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>25</v>
@@ -3202,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -3219,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>39</v>
@@ -3236,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>41</v>
@@ -3253,7 +3090,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -3270,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>21</v>
@@ -3287,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -3304,16 +3141,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3321,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>70</v>
@@ -3338,7 +3175,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>27</v>
@@ -3355,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>29</v>
@@ -3372,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>31</v>
@@ -3389,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>25</v>
@@ -3409,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -3426,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>39</v>
@@ -3443,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>41</v>
@@ -3460,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -3477,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>21</v>
@@ -3494,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -3511,16 +3348,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3528,16 +3365,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>70</v>
@@ -3562,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>27</v>
@@ -3579,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>29</v>
@@ -3596,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
@@ -3613,7 +3450,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>25</v>
@@ -3854,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -3871,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>70</v>
@@ -3888,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>15</v>
@@ -3905,7 +3742,7 @@
         <v>4</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>70</v>
@@ -3922,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>27</v>
@@ -3939,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>29</v>
@@ -3956,7 +3793,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>31</v>
@@ -3973,7 +3810,7 @@
         <v>8</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>25</v>
@@ -4656,13 +4493,13 @@
         <v>62</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4724,13 +4561,13 @@
         <v>63</v>
       </c>
       <c r="C156" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4806,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>12</v>
@@ -4823,10 +4660,10 @@
         <v>2</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>15</v>
@@ -4840,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>25</v>
@@ -5062,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>12</v>
@@ -5079,10 +4916,10 @@
         <v>2</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>15</v>
@@ -5096,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>25</v>
@@ -5114,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>12</v>
@@ -5131,10 +4968,10 @@
         <v>2</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>15</v>
@@ -5148,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>25</v>
@@ -5166,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>12</v>
@@ -5183,10 +5020,10 @@
         <v>2</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>15</v>
@@ -5200,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>25</v>
@@ -5218,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>12</v>
@@ -5235,10 +5072,10 @@
         <v>2</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>15</v>
@@ -5252,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>25</v>
@@ -5269,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>12</v>
@@ -5286,16 +5123,16 @@
         <v>2</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5303,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>25</v>
@@ -5320,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>12</v>
@@ -5337,16 +5174,16 @@
         <v>2</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E204" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5354,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>25</v>
@@ -5378,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>12</v>
@@ -5395,16 +5232,16 @@
         <v>2</v>
       </c>
       <c r="B208" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E208" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5412,7 +5249,7 @@
         <v>3</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>25</v>
@@ -5657,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>12</v>
@@ -5674,16 +5511,16 @@
         <v>2</v>
       </c>
       <c r="B228" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>25</v>
@@ -5708,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>12</v>
@@ -5725,10 +5562,10 @@
         <v>2</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>15</v>
@@ -5742,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>70</v>
@@ -5759,7 +5596,7 @@
         <v>4</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>27</v>
@@ -5776,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>29</v>
@@ -5793,7 +5630,7 @@
         <v>6</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>31</v>
@@ -5810,7 +5647,7 @@
         <v>7</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>25</v>
@@ -5827,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>12</v>
@@ -5844,16 +5681,16 @@
         <v>2</v>
       </c>
       <c r="B240" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5861,7 +5698,7 @@
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>70</v>
@@ -5878,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>27</v>
@@ -5895,7 +5732,7 @@
         <v>5</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>29</v>
@@ -5912,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>31</v>
@@ -5929,7 +5766,7 @@
         <v>7</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>25</v>
@@ -5947,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>12</v>
@@ -5964,16 +5801,16 @@
         <v>2</v>
       </c>
       <c r="B248" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C248" s="5" t="s">
+      <c r="D248" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -5981,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>25</v>
@@ -5998,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>12</v>
@@ -6015,16 +5852,16 @@
         <v>2</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6032,7 +5869,7 @@
         <v>3</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>25</v>
@@ -6069,13 +5906,13 @@
         <v>88</v>
       </c>
       <c r="C256" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D256" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="E256" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6103,13 +5940,13 @@
         <v>88</v>
       </c>
       <c r="C258" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E258" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6134,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>85</v>
@@ -6151,16 +5988,16 @@
         <v>2</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C262" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D262" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D262" s="6" t="s">
+      <c r="E262" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6168,16 +6005,16 @@
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D263" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,16 +6022,16 @@
         <v>4</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C264" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E264" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D264" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E264" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6202,16 +6039,16 @@
         <v>5</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C265" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E265" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6219,7 +6056,7 @@
         <v>6</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>83</v>
@@ -6236,16 +6073,16 @@
         <v>7</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D267" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E267" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="E267" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6253,16 +6090,16 @@
         <v>8</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6270,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>85</v>
@@ -6287,16 +6124,16 @@
         <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E271" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E271" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6304,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>83</v>
@@ -6321,16 +6158,16 @@
         <v>4</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D273" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E273" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="E273" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6338,16 +6175,16 @@
         <v>5</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6355,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>12</v>
@@ -6372,16 +6209,16 @@
         <v>2</v>
       </c>
       <c r="B277" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="C277" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E277" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6389,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>25</v>
@@ -6406,16 +6243,16 @@
         <v>4</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C279" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D279" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D279" s="6" t="s">
+      <c r="E279" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,16 +6260,16 @@
         <v>5</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C280" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E280" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E280" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6440,16 +6277,16 @@
         <v>6</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C281" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E281" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E281" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6457,7 +6294,7 @@
         <v>7</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>85</v>
@@ -6474,16 +6311,16 @@
         <v>8</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C283" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E283" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6491,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>83</v>
@@ -6508,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>12</v>
@@ -6525,16 +6362,16 @@
         <v>2</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6542,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>25</v>
@@ -6559,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>12</v>
@@ -6576,16 +6413,16 @@
         <v>2</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>25</v>
@@ -6610,16 +6447,16 @@
         <v>1</v>
       </c>
       <c r="B294" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C294" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C294" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="D294" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6627,16 +6464,16 @@
         <v>2</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6644,16 +6481,16 @@
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,16 +6498,16 @@
         <v>4</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,16 +6515,16 @@
         <v>5</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6702,16 +6539,16 @@
         <v>1</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6719,16 +6556,16 @@
         <v>2</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6736,16 +6573,16 @@
         <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,16 +6590,16 @@
         <v>4</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6770,16 +6607,16 @@
         <v>5</v>
       </c>
       <c r="B304" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C304" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C304" s="5" t="s">
+      <c r="D304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E304" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6794,16 +6631,16 @@
         <v>1</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E306" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6811,16 +6648,16 @@
         <v>2</v>
       </c>
       <c r="B307" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="D307" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E307" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6828,16 +6665,16 @@
         <v>3</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C308" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="D308" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E308" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6845,16 +6682,16 @@
         <v>4</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E309" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6862,16 +6699,16 @@
         <v>5</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E310" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6886,16 +6723,16 @@
         <v>1</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E312" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6903,16 +6740,16 @@
         <v>2</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E313" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,16 +6757,16 @@
         <v>3</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6937,16 +6774,16 @@
         <v>4</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E315" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,16 +6791,16 @@
         <v>5</v>
       </c>
       <c r="B316" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C316" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C316" s="5" t="s">
+      <c r="D316" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E316" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6971,16 +6808,16 @@
         <v>1</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E318" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6988,16 +6825,16 @@
         <v>2</v>
       </c>
       <c r="B319" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C319" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C319" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="D319" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E319" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7005,16 +6842,16 @@
         <v>3</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7022,16 +6859,16 @@
         <v>4</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E321" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7039,16 +6876,16 @@
         <v>1</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7056,16 +6893,16 @@
         <v>2</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E324" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7073,16 +6910,16 @@
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E325" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7090,16 +6927,16 @@
         <v>4</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E326" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7107,16 +6944,16 @@
         <v>1</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7124,16 +6961,16 @@
         <v>2</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E329" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7141,16 +6978,16 @@
         <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C330" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C330" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="D330" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7158,16 +6995,16 @@
         <v>4</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7175,16 +7012,16 @@
         <v>5</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C332" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E332" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="D332" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E332" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7192,16 +7029,16 @@
         <v>1</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7209,16 +7046,16 @@
         <v>2</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C335" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C335" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="D335" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E335" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7226,16 +7063,16 @@
         <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E336" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7243,16 +7080,16 @@
         <v>4</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E337" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7260,16 +7097,16 @@
         <v>5</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E338" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7277,16 +7114,16 @@
         <v>6</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7294,16 +7131,16 @@
         <v>1</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7311,16 +7148,16 @@
         <v>2</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7328,16 +7165,16 @@
         <v>3</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E343" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7345,16 +7182,16 @@
         <v>4</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E344" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7362,16 +7199,16 @@
         <v>5</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E345" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7379,16 +7216,16 @@
         <v>6</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7396,16 +7233,16 @@
         <v>7</v>
       </c>
       <c r="B347" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C347" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C347" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="D347" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E347" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7413,16 +7250,16 @@
         <v>1</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7430,16 +7267,16 @@
         <v>2</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7447,16 +7284,16 @@
         <v>3</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E351" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7464,16 +7301,16 @@
         <v>4</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E352" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7481,16 +7318,16 @@
         <v>5</v>
       </c>
       <c r="B353" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C353" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C353" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="D353" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E353" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7498,16 +7335,16 @@
         <v>6</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D354" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7515,16 +7352,16 @@
         <v>7</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D355" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E355" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7532,16 +7369,16 @@
         <v>1</v>
       </c>
       <c r="B357" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C357" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C357" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="D357" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7549,16 +7386,16 @@
         <v>2</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7566,16 +7403,16 @@
         <v>3</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E359" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7583,16 +7420,16 @@
         <v>1</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7600,16 +7437,16 @@
         <v>2</v>
       </c>
       <c r="B362" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E362" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C362" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D362" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E362" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7617,16 +7454,16 @@
         <v>3</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7634,16 +7471,16 @@
         <v>4</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7488,7 @@
         <v>5</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>12</v>
@@ -7668,16 +7505,16 @@
         <v>6</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E366" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7685,16 +7522,16 @@
         <v>7</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7702,7 +7539,7 @@
         <v>8</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>27</v>
@@ -7719,7 +7556,7 @@
         <v>9</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>29</v>
@@ -7736,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>31</v>
@@ -7753,7 +7590,7 @@
         <v>11</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>25</v>
@@ -8000,7 +7837,7 @@
         <v>15</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -8062,7 +7899,7 @@
         <v>96</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>15</v>
@@ -8198,13 +8035,13 @@
         <v>100</v>
       </c>
       <c r="C400" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D400" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E400" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -8229,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>12</v>
@@ -8246,10 +8083,10 @@
         <v>2</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>15</v>
@@ -8263,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>25</v>
@@ -8280,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>98</v>
@@ -8297,7 +8134,7 @@
         <v>5</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>99</v>
@@ -8314,7 +8151,7 @@
         <v>6</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>12</v>
@@ -8331,10 +8168,10 @@
         <v>7</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D409" s="6" t="s">
         <v>15</v>
@@ -8348,7 +8185,7 @@
         <v>8</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>25</v>
@@ -8365,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>12</v>
@@ -8382,16 +8219,16 @@
         <v>2</v>
       </c>
       <c r="B413" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="C413" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D413" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E413" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -8399,7 +8236,7 @@
         <v>3</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>25</v>
@@ -8416,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>12</v>
@@ -8433,16 +8270,16 @@
         <v>2</v>
       </c>
       <c r="B417" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E417" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C417" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D417" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E417" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -8450,7 +8287,7 @@
         <v>3</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>25</v>
@@ -8467,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>12</v>
@@ -8484,16 +8321,16 @@
         <v>2</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E421" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -8501,7 +8338,7 @@
         <v>3</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>25</v>
@@ -8518,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="B424" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C424" s="13" t="s">
         <v>12</v>
@@ -8535,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="B425" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C425" s="13" t="s">
         <v>14</v>
@@ -8552,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="B426" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C426" s="13" t="s">
         <v>17</v>
@@ -8569,7 +8406,7 @@
         <v>4</v>
       </c>
       <c r="B427" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C427" s="13" t="s">
         <v>19</v>
@@ -8586,7 +8423,7 @@
         <v>5</v>
       </c>
       <c r="B428" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C428" s="13" t="s">
         <v>21</v>
@@ -8603,10 +8440,10 @@
         <v>6</v>
       </c>
       <c r="B429" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C429" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="C429" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="D429" s="14" t="s">
         <v>15</v>
@@ -8620,7 +8457,7 @@
         <v>7</v>
       </c>
       <c r="B430" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C430" s="13" t="s">
         <v>25</v>
@@ -8644,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="B432" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C432" s="13" t="s">
         <v>12</v>
@@ -8661,7 +8498,7 @@
         <v>2</v>
       </c>
       <c r="B433" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C433" s="13" t="s">
         <v>14</v>
@@ -8678,7 +8515,7 @@
         <v>3</v>
       </c>
       <c r="B434" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C434" s="13" t="s">
         <v>17</v>
@@ -8695,7 +8532,7 @@
         <v>4</v>
       </c>
       <c r="B435" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C435" s="13" t="s">
         <v>19</v>
@@ -8712,7 +8549,7 @@
         <v>5</v>
       </c>
       <c r="B436" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C436" s="13" t="s">
         <v>21</v>
@@ -8729,10 +8566,10 @@
         <v>6</v>
       </c>
       <c r="B437" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C437" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="C437" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="D437" s="14" t="s">
         <v>15</v>
@@ -8746,7 +8583,7 @@
         <v>7</v>
       </c>
       <c r="B438" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C438" s="13" t="s">
         <v>25</v>
@@ -8763,7 +8600,7 @@
         <v>8</v>
       </c>
       <c r="B439" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C439" s="13" t="s">
         <v>98</v>
@@ -8780,10 +8617,10 @@
         <v>9</v>
       </c>
       <c r="B440" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D440" s="14" t="s">
         <v>15</v>
@@ -8797,7 +8634,7 @@
         <v>10</v>
       </c>
       <c r="B441" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C441" s="14" t="s">
         <v>12</v>
@@ -8814,10 +8651,10 @@
         <v>11</v>
       </c>
       <c r="B442" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D442" s="14" t="s">
         <v>15</v>
@@ -8831,7 +8668,7 @@
         <v>12</v>
       </c>
       <c r="B443" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C443" s="14" t="s">
         <v>25</v>
@@ -8855,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>12</v>
@@ -8872,16 +8709,16 @@
         <v>2</v>
       </c>
       <c r="B446" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C446" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C446" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="D446" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E446" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -8889,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>25</v>
@@ -8907,13 +8744,13 @@
       </c>
       <c r="B449" s="8"/>
       <c r="C449" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E449" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -8921,16 +8758,16 @@
         <v>2</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E450" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -8938,16 +8775,16 @@
         <v>3</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E451" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -8955,16 +8792,16 @@
         <v>4</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E452" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -8972,16 +8809,16 @@
         <v>5</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E453" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -8990,13 +8827,13 @@
       </c>
       <c r="B454" s="8"/>
       <c r="C454" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E454" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -9004,16 +8841,16 @@
         <v>7</v>
       </c>
       <c r="B455" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C455" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C455" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="D455" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E455" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -9022,13 +8859,13 @@
       </c>
       <c r="B457" s="8"/>
       <c r="C457" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E457" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -9036,16 +8873,16 @@
         <v>2</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E458" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -9053,16 +8890,16 @@
         <v>3</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E459" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -9070,16 +8907,16 @@
         <v>4</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E460" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -9087,16 +8924,16 @@
         <v>5</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E461" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -9105,13 +8942,13 @@
       </c>
       <c r="B462" s="8"/>
       <c r="C462" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E462" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -9119,7 +8956,7 @@
         <v>7</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>12</v>
@@ -9136,16 +8973,16 @@
         <v>8</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E464" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -9153,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>12</v>
@@ -9170,16 +9007,16 @@
         <v>2</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E467" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9187,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>25</v>
@@ -9204,16 +9041,16 @@
         <v>4</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E469" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9221,16 +9058,16 @@
         <v>5</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C470" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="D470" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E470" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -9238,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>12</v>
@@ -9255,16 +9092,16 @@
         <v>2</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E473" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -9272,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>25</v>
@@ -9289,16 +9126,16 @@
         <v>4</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E475" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -9306,16 +9143,16 @@
         <v>5</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E476" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -9323,16 +9160,16 @@
         <v>6</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E477" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -9340,16 +9177,16 @@
         <v>7</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -9357,7 +9194,7 @@
         <v>8</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>12</v>
@@ -9374,16 +9211,16 @@
         <v>9</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E480" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -9391,7 +9228,7 @@
         <v>10</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>25</v>
@@ -9408,7 +9245,7 @@
         <v>1</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>12</v>
@@ -9425,16 +9262,16 @@
         <v>2</v>
       </c>
       <c r="B484" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C484" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C484" s="6" t="s">
+      <c r="D484" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E484" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="D484" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E484" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -9442,7 +9279,7 @@
         <v>3</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>25</v>
@@ -9459,16 +9296,16 @@
         <v>4</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D486" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E486" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -9476,16 +9313,16 @@
         <v>5</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D487" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E487" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -9493,16 +9330,16 @@
         <v>6</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D488" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E488" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -9510,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>12</v>
@@ -9527,16 +9364,16 @@
         <v>2</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C491" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="D491" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E491" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -9544,7 +9381,7 @@
         <v>3</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>25</v>
@@ -9561,16 +9398,16 @@
         <v>4</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D493" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E493" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -9578,16 +9415,16 @@
         <v>5</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D494" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E494" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -9595,16 +9432,16 @@
         <v>6</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D495" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E495" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -9612,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>12</v>
@@ -9629,16 +9466,16 @@
         <v>2</v>
       </c>
       <c r="B498" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C498" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C498" s="5" t="s">
+      <c r="D498" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E498" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="D498" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E498" s="5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -9646,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>25</v>
@@ -9663,16 +9500,16 @@
         <v>1</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D501" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E501" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -9680,16 +9517,16 @@
         <v>2</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D502" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E502" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,16 +9534,16 @@
         <v>3</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D503" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E503" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -9714,16 +9551,16 @@
         <v>4</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D504" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E504" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -9731,16 +9568,16 @@
         <v>5</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D505" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E505" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -9748,16 +9585,16 @@
         <v>6</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D506" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E506" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -9768,16 +9605,16 @@
         <v>1</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D508" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E508" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -9785,16 +9622,16 @@
         <v>2</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D509" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E509" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -9802,16 +9639,16 @@
         <v>3</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D510" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E510" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -9819,16 +9656,16 @@
         <v>4</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D511" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E511" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -9836,16 +9673,16 @@
         <v>1</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D513" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E513" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -9853,16 +9690,16 @@
         <v>2</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D514" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E514" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -9870,16 +9707,16 @@
         <v>3</v>
       </c>
       <c r="B515" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C515" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C515" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="D515" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E515" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -9887,7 +9724,7 @@
         <v>4</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C516" s="5" t="s">
         <v>12</v>
@@ -9904,16 +9741,16 @@
         <v>5</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D517" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E517" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -9921,16 +9758,16 @@
         <v>6</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D518" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E518" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -9938,7 +9775,7 @@
         <v>7</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C519" s="5" t="s">
         <v>27</v>
@@ -9955,7 +9792,7 @@
         <v>8</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>29</v>
@@ -9972,7 +9809,7 @@
         <v>9</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C521" s="5" t="s">
         <v>31</v>
@@ -9989,7 +9826,7 @@
         <v>10</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>25</v>
@@ -10006,16 +9843,16 @@
         <v>1</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C524" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D524" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E524" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -10023,16 +9860,16 @@
         <v>2</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C525" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D525" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E525" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -10040,16 +9877,16 @@
         <v>3</v>
       </c>
       <c r="B526" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D526" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E526" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="C526" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D526" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E526" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -10057,7 +9894,7 @@
         <v>4</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C527" s="5" t="s">
         <v>12</v>
@@ -10074,16 +9911,16 @@
         <v>5</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C528" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D528" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E528" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -10091,16 +9928,16 @@
         <v>6</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C529" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D529" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E529" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -10108,7 +9945,7 @@
         <v>7</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C530" s="5" t="s">
         <v>27</v>
@@ -10125,7 +9962,7 @@
         <v>8</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C531" s="5" t="s">
         <v>29</v>
@@ -10142,7 +9979,7 @@
         <v>9</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C532" s="5" t="s">
         <v>31</v>
@@ -10159,7 +9996,7 @@
         <v>10</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C533" s="5" t="s">
         <v>25</v>
@@ -10176,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C536" s="5" t="s">
         <v>12</v>
@@ -10193,16 +10030,16 @@
         <v>2</v>
       </c>
       <c r="B537" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C537" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C537" s="5" t="s">
-        <v>312</v>
-      </c>
       <c r="D537" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E537" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -10210,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C538" s="5" t="s">
         <v>25</v>
@@ -10227,16 +10064,16 @@
         <v>4</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C539" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D539" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E539" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -10244,16 +10081,16 @@
         <v>5</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C540" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D540" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E540" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -10261,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C542" s="5" t="s">
         <v>85</v>
@@ -10278,16 +10115,16 @@
         <v>2</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C543" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D543" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D543" s="5" t="s">
+      <c r="E543" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="E543" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -10295,10 +10132,10 @@
         <v>3</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C544" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D544" s="5" t="s">
         <v>15</v>
@@ -10312,16 +10149,16 @@
         <v>4</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C545" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E545" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D545" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E545" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -10329,7 +10166,7 @@
         <v>5</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C546" s="5" t="s">
         <v>83</v>
@@ -10347,7 +10184,7 @@
         <v>1</v>
       </c>
       <c r="B548" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C548" s="20" t="s">
         <v>12</v>
@@ -10364,16 +10201,16 @@
         <v>2</v>
       </c>
       <c r="B549" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C549" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C549" s="24" t="s">
+      <c r="D549" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E549" s="23" t="s">
         <v>324</v>
-      </c>
-      <c r="D549" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E549" s="23" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10381,7 +10218,7 @@
         <v>3</v>
       </c>
       <c r="B550" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C550" s="23" t="s">
         <v>25</v>
@@ -10398,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C553" s="6" t="s">
         <v>12</v>
@@ -10415,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C554" s="5" t="s">
         <v>27</v>
@@ -10432,7 +10269,7 @@
         <v>3</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C555" s="6" t="s">
         <v>29</v>
@@ -10449,16 +10286,16 @@
         <v>4</v>
       </c>
       <c r="B556" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C556" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C556" s="6" t="s">
+      <c r="D556" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E556" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="D556" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E556" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
@@ -10466,7 +10303,7 @@
         <v>5</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C557" s="5" t="s">
         <v>25</v>
@@ -10483,7 +10320,7 @@
         <v>1</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C559" s="6" t="s">
         <v>12</v>
@@ -10500,16 +10337,16 @@
         <v>2</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C560" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D560" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E560" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
@@ -10517,7 +10354,7 @@
         <v>3</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C561" s="6" t="s">
         <v>25</v>
@@ -10534,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C563" s="5" t="s">
         <v>12</v>
@@ -10551,10 +10388,10 @@
         <v>2</v>
       </c>
       <c r="B564" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C564" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="C564" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="D564" s="6" t="s">
         <v>15</v>
@@ -10568,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C565" s="6" t="s">
         <v>25</v>
@@ -10585,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C567" s="5" t="s">
         <v>12</v>
@@ -10602,10 +10439,10 @@
         <v>2</v>
       </c>
       <c r="B568" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C568" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C568" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="D568" s="6" t="s">
         <v>15</v>
@@ -10619,7 +10456,7 @@
         <v>3</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C569" s="6" t="s">
         <v>25</v>
@@ -10636,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>12</v>
@@ -10653,16 +10490,16 @@
         <v>2</v>
       </c>
       <c r="B572" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D572" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E572" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="C572" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D572" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E572" s="6" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -10670,7 +10507,7 @@
         <v>3</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>25</v>
@@ -10687,7 +10524,7 @@
         <v>1</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C575" s="6" t="s">
         <v>12</v>
@@ -10704,16 +10541,16 @@
         <v>2</v>
       </c>
       <c r="B576" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C576" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C576" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="D576" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E576" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -10721,7 +10558,7 @@
         <v>3</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C577" s="6" t="s">
         <v>25</v>
@@ -10738,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C579" s="6" t="s">
         <v>12</v>
@@ -10755,16 +10592,16 @@
         <v>2</v>
       </c>
       <c r="B580" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D580" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E580" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="C580" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D580" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E580" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -10772,7 +10609,7 @@
         <v>3</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C581" s="6" t="s">
         <v>25</v>
@@ -10789,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C583" s="6" t="s">
         <v>12</v>
@@ -10806,16 +10643,16 @@
         <v>2</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C584" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D584" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E584" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
@@ -10823,7 +10660,7 @@
         <v>3</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C585" s="6" t="s">
         <v>25</v>
@@ -10840,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C587" s="6" t="s">
         <v>12</v>
@@ -10857,16 +10694,16 @@
         <v>2</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C588" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D588" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E588" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -10874,7 +10711,7 @@
         <v>3</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C589" s="6" t="s">
         <v>25</v>
@@ -10891,7 +10728,7 @@
         <v>1</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C591" s="6" t="s">
         <v>12</v>
@@ -10908,16 +10745,16 @@
         <v>2</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C592" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D592" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E592" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -10925,7 +10762,7 @@
         <v>3</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C593" s="6" t="s">
         <v>25</v>
@@ -10942,7 +10779,7 @@
         <v>4</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C594" s="6" t="s">
         <v>98</v>
@@ -10959,7 +10796,7 @@
         <v>5</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C595" s="6" t="s">
         <v>99</v>
@@ -10977,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="B597" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C597" s="20" t="s">
         <v>12</v>
@@ -10994,7 +10831,7 @@
         <v>2</v>
       </c>
       <c r="B598" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C598" s="23" t="s">
         <v>39</v>
@@ -11011,7 +10848,7 @@
         <v>3</v>
       </c>
       <c r="B599" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C599" s="23" t="s">
         <v>41</v>
@@ -11028,7 +10865,7 @@
         <v>4</v>
       </c>
       <c r="B600" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C600" s="23" t="s">
         <v>19</v>
@@ -11045,7 +10882,7 @@
         <v>5</v>
       </c>
       <c r="B601" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C601" s="23" t="s">
         <v>21</v>
@@ -11062,7 +10899,7 @@
         <v>6</v>
       </c>
       <c r="B602" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C602" s="23" t="s">
         <v>23</v>
@@ -11071,7 +10908,7 @@
         <v>15</v>
       </c>
       <c r="E602" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11079,16 +10916,16 @@
         <v>7</v>
       </c>
       <c r="B603" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C603" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D603" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E603" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="D603" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E603" s="23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="604" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11096,7 +10933,7 @@
         <v>8</v>
       </c>
       <c r="B604" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C604" s="23" t="s">
         <v>70</v>
@@ -11113,16 +10950,16 @@
         <v>9</v>
       </c>
       <c r="B605" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C605" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D605" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E605" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="606" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11130,7 +10967,7 @@
         <v>10</v>
       </c>
       <c r="B606" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C606" s="23" t="s">
         <v>25</v>
@@ -11154,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="B608" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C608" s="23" t="s">
         <v>12</v>
@@ -11171,16 +11008,16 @@
         <v>2</v>
       </c>
       <c r="B609" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C609" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="C609" s="23" t="s">
-        <v>348</v>
-      </c>
       <c r="D609" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E609" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="610" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11188,7 +11025,7 @@
         <v>3</v>
       </c>
       <c r="B610" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C610" s="23" t="s">
         <v>25</v>
@@ -11219,7 +11056,7 @@
         <v>1</v>
       </c>
       <c r="B613" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C613" s="23" t="s">
         <v>12</v>
@@ -11236,16 +11073,16 @@
         <v>2</v>
       </c>
       <c r="B614" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C614" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C614" s="23" t="s">
-        <v>350</v>
-      </c>
       <c r="D614" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E614" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="615" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11253,7 +11090,7 @@
         <v>3</v>
       </c>
       <c r="B615" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C615" s="23" t="s">
         <v>25</v>
@@ -11323,19 +11160,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11343,7 +11180,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
@@ -11355,7 +11192,7 @@
         <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11363,7 +11200,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
@@ -11375,7 +11212,7 @@
         <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11383,7 +11220,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>112</v>
@@ -11395,7 +11232,7 @@
         <v>114</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11403,7 +11240,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
@@ -11415,7 +11252,7 @@
         <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11423,19 +11260,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11443,7 +11280,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>112</v>
@@ -11452,10 +11289,10 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11463,7 +11300,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
@@ -11475,7 +11312,7 @@
         <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11483,7 +11320,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
@@ -11495,7 +11332,7 @@
         <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11503,7 +11340,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -11515,7 +11352,7 @@
         <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11523,7 +11360,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -11535,7 +11372,7 @@
         <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11543,7 +11380,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>112</v>
@@ -11555,7 +11392,7 @@
         <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11563,7 +11400,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -11575,7 +11412,7 @@
         <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11583,19 +11420,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
         <v>111</v>
       </c>
       <c r="G15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11603,7 +11440,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
@@ -11612,10 +11449,10 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11623,7 +11460,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>112</v>
@@ -11635,7 +11472,7 @@
         <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11643,19 +11480,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11663,7 +11500,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>112</v>
@@ -11675,7 +11512,7 @@
         <v>119</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11683,7 +11520,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
         <v>108</v>
@@ -11695,7 +11532,7 @@
         <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11703,7 +11540,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
@@ -11715,7 +11552,7 @@
         <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11723,7 +11560,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
         <v>108</v>
@@ -11735,7 +11572,7 @@
         <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -11743,7 +11580,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
         <v>108</v>
@@ -11755,7 +11592,7 @@
         <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -11763,7 +11600,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
         <v>112</v>
@@ -11775,7 +11612,7 @@
         <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -11789,13 +11626,13 @@
         <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
         <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -11815,7 +11652,7 @@
         <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11835,7 +11672,7 @@
         <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11843,7 +11680,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
         <v>112</v>
@@ -11852,10 +11689,10 @@
         <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11869,13 +11706,13 @@
         <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
         <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11883,19 +11720,19 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
         <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -11961,13 +11798,13 @@
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11981,13 +11818,13 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
         <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -12001,13 +11838,13 @@
         <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12021,13 +11858,13 @@
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12041,13 +11878,13 @@
         <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" t="s">
         <v>161</v>
-      </c>
-      <c r="G6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12061,13 +11898,13 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
         <v>163</v>
-      </c>
-      <c r="G7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12081,13 +11918,13 @@
         <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="363">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1087,42 +1087,6 @@
     <t>ReplicateOrder</t>
   </si>
   <si>
-    <t>MSISDN--97478152667||Add_Addon--Paid Addons,CUG Pack||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||New_PlanName--Postpaid Red 750 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||Remove_Addon--Paid Addons,CUG Pack||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||SIM--CUG Pack||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Pearl Voice Consumer Promotion||</t>
-  </si>
-  <si>
-    <t>LLCharges--L.L  Connection Charge||LLFeatures--Leased Line 2Mb||LLSLA--Standard SLA(LL)||LLNodeFeatures--L.L -Vodafone Managed service||LL_Charge--L.L - Excess Construction Charge||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152655||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||New_PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||Amount--200||Reason--Goodwill||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152667||New_PlanName--Postpaid Red 350 Promotion||Remove_Addon--Paid Addons,CUG Pack||</t>
-  </si>
-  <si>
     <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Postpaid Standard Promotion||</t>
   </si>
   <si>
@@ -1141,10 +1105,25 @@
     <t>AccountNo--13266070121||</t>
   </si>
   <si>
-    <t>QA1</t>
-  </si>
-  <si>
     <t>MSISDN--97478152667||NEW_MSISDN--97478152670||</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Srirams</t>
+  </si>
+  <si>
+    <t>mav@2018</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Layer2_Ethernet_Network--Layer2 Ethernet- Class of Services 1||Layer2_Ethernet_Services--Ethernet VPN Access 10Mb||Layer2_Ethernet_Charges--Layer2 Ethernet Connection Charge - VPN Access||Layer2_Ethernet_Features--Layer2 Ethernet resilience Access||Layer2_Ethernet_Node_Features--Layer2 Ethernet Vodafone Managed service||Layer2_Ethernet_Node_Charges--Layer2 Ethernet Excess Construction Charge||Layer2_Ethernet_Virtual_Connection--Ethernet Virtual Connection 10Mb Standard COS||Layer2_Ethernet_Charges_Conn--Layer2 Ethernet Connection Charge - Virtual Connection||Layer2_Ethernet_SLA--Standard SLA(Ethernet)||</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1915,7 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1973,7 +1952,19 @@
         <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G2" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,7 +1987,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="H4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
@@ -2008,10 +1999,10 @@
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2045,119 +2036,166 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>351</v>
-      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
     </row>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="A6"/>
+      <c r="B6" t="s">
         <v>352</v>
       </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
     </row>
     <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="A7"/>
+      <c r="B7" t="s">
         <v>353</v>
       </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="A8"/>
+      <c r="B8" t="s">
         <v>354</v>
       </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
     </row>
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>357</v>
-      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
     </row>
     <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>358</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>351</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>369</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="358">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1087,27 +1087,9 @@
     <t>ReplicateOrder</t>
   </si>
   <si>
-    <t>MSISDN--97478152668||SIM--8962702800901163668||PlanName--Postpaid Standard Promotion||</t>
-  </si>
-  <si>
-    <t>Account_No--Fetch#IDP||MSISDN--97478152669||SIM--8962702800901163669||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||New_PlanName--Postpaid Business Value 225 Promotion||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152669||New_PlanName--Postpaid Business Value India 110 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Internet Regular Pack::Business Internet Regular Pack 50% Discount,Business Local Minutes Pack::Business Local Minutes Pack 50% Discount||PlanBundle--Business Value India 110::15% Discount||</t>
-  </si>
-  <si>
     <t>AccountNo--13266070121||</t>
   </si>
   <si>
-    <t>MSISDN--97478152667||NEW_MSISDN--97478152670||</t>
-  </si>
-  <si>
     <t>Batch1</t>
   </si>
   <si>
@@ -1124,6 +1106,9 @@
   </si>
   <si>
     <t>Layer2_Ethernet_Network--Layer2 Ethernet- Class of Services 1||Layer2_Ethernet_Services--Ethernet VPN Access 10Mb||Layer2_Ethernet_Charges--Layer2 Ethernet Connection Charge - VPN Access||Layer2_Ethernet_Features--Layer2 Ethernet resilience Access||Layer2_Ethernet_Node_Features--Layer2 Ethernet Vodafone Managed service||Layer2_Ethernet_Node_Charges--Layer2 Ethernet Excess Construction Charge||Layer2_Ethernet_Virtual_Connection--Ethernet Virtual Connection 10Mb Standard COS||Layer2_Ethernet_Charges_Conn--Layer2 Ethernet Connection Charge - Virtual Connection||Layer2_Ethernet_SLA--Standard SLA(Ethernet)||</t>
+  </si>
+  <si>
+    <t>IPLCNodeFeatures--IPLC -Vodafone Managed service||IPLCNodeCharge--IPLC - Excess Construction Charge||IPLCFeatures--IPLC- Full Separacy resilience||IPLCServices--International Leased Line 2Mb||IPLCCharges--International Private L.L  Connection Charge||IPLCSLA--Standard SLA(IPLC)||</t>
   </si>
 </sst>
 </file>
@@ -1955,16 +1940,16 @@
         <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,7 +1981,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2036,70 +2021,77 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" t="s">
-        <v>351</v>
-      </c>
+      <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -2109,9 +2101,7 @@
     </row>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" t="s">
-        <v>352</v>
-      </c>
+      <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -2121,9 +2111,7 @@
     </row>
     <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" t="s">
-        <v>353</v>
-      </c>
+      <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -2133,9 +2121,7 @@
     </row>
     <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" t="s">
-        <v>354</v>
-      </c>
+      <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -2145,9 +2131,7 @@
     </row>
     <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="B9" t="s">
-        <v>355</v>
-      </c>
+      <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -2157,9 +2141,7 @@
     </row>
     <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
-      <c r="B10" t="s">
-        <v>356</v>
-      </c>
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="359">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1109,6 +1109,9 @@
   </si>
   <si>
     <t>IPLCNodeFeatures--IPLC -Vodafone Managed service||IPLCNodeCharge--IPLC - Excess Construction Charge||IPLCFeatures--IPLC- Full Separacy resilience||IPLCServices--International Leased Line 2Mb||IPLCCharges--International Private L.L  Connection Charge||IPLCSLA--Standard SLA(IPLC)||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152674||SIM--8962702800901163674||PlanName--Postpaid Red 250 Promotion||</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +1987,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
@@ -2071,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>351</v>
@@ -2090,14 +2093,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wsw\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="360">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1087,37 +1087,40 @@
     <t>ReplicateOrder</t>
   </si>
   <si>
-    <t>AccountNo--13266070121||</t>
+    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>Srirams</t>
+  </si>
+  <si>
+    <t>mav@2018</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
   <si>
     <t>Batch1</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>Srirams</t>
-  </si>
-  <si>
-    <t>mav@2018</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Layer2_Ethernet_Network--Layer2 Ethernet- Class of Services 1||Layer2_Ethernet_Services--Ethernet VPN Access 10Mb||Layer2_Ethernet_Charges--Layer2 Ethernet Connection Charge - VPN Access||Layer2_Ethernet_Features--Layer2 Ethernet resilience Access||Layer2_Ethernet_Node_Features--Layer2 Ethernet Vodafone Managed service||Layer2_Ethernet_Node_Charges--Layer2 Ethernet Excess Construction Charge||Layer2_Ethernet_Virtual_Connection--Ethernet Virtual Connection 10Mb Standard COS||Layer2_Ethernet_Charges_Conn--Layer2 Ethernet Connection Charge - Virtual Connection||Layer2_Ethernet_SLA--Standard SLA(Ethernet)||</t>
-  </si>
-  <si>
-    <t>IPLCNodeFeatures--IPLC -Vodafone Managed service||IPLCNodeCharge--IPLC - Excess Construction Charge||IPLCFeatures--IPLC- Full Separacy resilience||IPLCServices--International Leased Line 2Mb||IPLCCharges--International Private L.L  Connection Charge||IPLCSLA--Standard SLA(IPLC)||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152674||SIM--8962702800901163674||PlanName--Postpaid Red 250 Promotion||</t>
+    <t>Account_No--13041312297||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Business Internet Super Pack::Business Internet Pack 25% Discount&lt;&gt;Free Addons,Vodafone Unlimited Bonus||PlanBundle--Business Value 225::15% Discount||Remove_Addon--Paid Addons,Business Local Minutes Pack||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Business Internet Super Pack::Business Internet Pack 25% Discount&lt;&gt;Free Addons,Vodafone Unlimited Bonus||Remove_Addon--Paid Addons,Business Local Minutes Pack||PlanBundle--Business Value 225::Business Red 30% Discount||Spendlimit--0.01||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||Add_Addon--Paid Addons,Business Local Minutes Pack,Business Internet Super Pack&lt;&gt;Others,Make Primary MSISDN&lt;&gt;Free Addons,Vodafone Unlimited Bonus||Remove_Addon--Paid Addons,Business Local Minutes Pack||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--97478152665||New_PlanName--Postpaid Business Value India 110 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Business Internet Super Pack::Business Internet Pack 25% Discount&lt;&gt;Free Addons,Vodafone Unlimited Bonus||Remove_Addon--Paid Addons,Business Local Minutes Pack,Business Internet Super Pack&lt;&gt;Free Addons,Vodafone Unlimited Bonus|PlanBundle--Business Value India 110::10% Discount lifetime||Spendlimit--0.01||</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1894,8 +1897,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,16 +1946,16 @@
         <v>300</v>
       </c>
       <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" t="s">
         <v>352</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>353</v>
-      </c>
-      <c r="F2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,10 +1978,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,8 +1990,8 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
@@ -2027,173 +2030,116 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>108</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11149,7 +11095,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="378">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1102,19 +1102,73 @@
     <t>Batch1</t>
   </si>
   <si>
-    <t>Account_No--13041312297||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Business Internet Super Pack::Business Internet Pack 25% Discount&lt;&gt;Free Addons,Vodafone Unlimited Bonus||PlanBundle--Business Value 225::15% Discount||Remove_Addon--Paid Addons,Business Local Minutes Pack||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Business Internet Super Pack::Business Internet Pack 25% Discount&lt;&gt;Free Addons,Vodafone Unlimited Bonus||Remove_Addon--Paid Addons,Business Local Minutes Pack||PlanBundle--Business Value 225::Business Red 30% Discount||Spendlimit--0.01||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||Add_Addon--Paid Addons,Business Local Minutes Pack,Business Internet Super Pack&lt;&gt;Others,Make Primary MSISDN&lt;&gt;Free Addons,Vodafone Unlimited Bonus||Remove_Addon--Paid Addons,Business Local Minutes Pack||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--97478152665||New_PlanName--Postpaid Business Value India 110 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Business Internet Super Pack::Business Internet Pack 25% Discount&lt;&gt;Free Addons,Vodafone Unlimited Bonus||Remove_Addon--Paid Addons,Business Local Minutes Pack,Business Internet Super Pack&lt;&gt;Free Addons,Vodafone Unlimited Bonus|PlanBundle--Business Value India 110::10% Discount lifetime||Spendlimit--0.01||</t>
+    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount&lt;&gt;Free Addons,Internet Bonus||PlanBundle--Go Business 65::15% Discount||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Social Pass,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount||PlanBundle--Go Business 65::15% Discount||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Social Pass,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Internet Regular::Business Internet Regular 100% discount for 6 months,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount||PlanBundle--Go Business 65::15% Discount||</t>
+  </si>
+  <si>
+    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Internet Regular::Business Internet Regular 100% discount for 6 months,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount||</t>
+  </si>
+  <si>
+    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Vodafone Passport,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount||PlanBundle--Business Value 225::15% Discount||</t>
+  </si>
+  <si>
+    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount&lt;&gt;Free Addons,Internet Bonus||PlanBundle--Business Value 225::15% Discount||</t>
+  </si>
+  <si>
+    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Vodafone Passport::Vodafone Passport 100% Discount,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount||PlanBundle--Business Value 225::15% Discount||</t>
+  </si>
+  <si>
+    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount&lt;&gt;Free Addons,Internet Bonus||Remove_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 50% Discount,Vodafone Passport::Vodafone Passport 100% Discount||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 50% Discount,Vodafone Passport::Vodafone Passport 100% Discount||Remove_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Remove_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount||Remove_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Prepaid Red Promotion||</t>
+  </si>
+  <si>
+    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
+  </si>
+  <si>
+    <t>Add_Addon--Paid Addons,Business Local Minutes Pack,Vodafone Passport&lt;&gt;Others,Mobile Voicemail||Remove_Addon--Paid Addons,Vodafone Passport||</t>
+  </si>
+  <si>
+    <t>PlanName--Postpaid Business Value 225 Promotion||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
+  </si>
+  <si>
+    <t>AddonDiscount</t>
+  </si>
+  <si>
+    <t>Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount||</t>
+  </si>
+  <si>
+    <t>ConsumerFixedLine_Bulk</t>
+  </si>
+  <si>
+    <t>AccontSearch_FL</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1951,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1978,9 +2032,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2030,8 +2084,8 @@
       <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>166</v>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>354</v>
@@ -2043,17 +2097,17 @@
         <v>132</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" t="s">
         <v>109</v>
       </c>
       <c r="C3" t="s">
@@ -2063,21 +2117,21 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>354</v>
@@ -2086,21 +2140,21 @@
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>354</v>
@@ -2109,21 +2163,21 @@
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>354</v>
@@ -2132,13 +2186,381 @@
         <v>108</v>
       </c>
       <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
-      <c r="H6" t="s">
-        <v>358</v>
+      <c r="H20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H25" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2572,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E615"/>
+  <dimension ref="A1:E622"/>
   <sheetViews>
-    <sheetView topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="A137" sqref="A136:XFD137"/>
+    <sheetView topLeftCell="A605" workbookViewId="0">
+      <selection activeCell="F611" sqref="F611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11082,6 +11504,108 @@
       </c>
       <c r="E615" s="29" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="3">
+        <v>1</v>
+      </c>
+      <c r="B617" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C617" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E617" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="3">
+        <v>2</v>
+      </c>
+      <c r="B618" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C618" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D618" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E618" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="3">
+        <v>3</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C619" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D619" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E619" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="3">
+        <v>4</v>
+      </c>
+      <c r="B620" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="3">
+        <v>5</v>
+      </c>
+      <c r="B621" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D621" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E621" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="3">
+        <v>6</v>
+      </c>
+      <c r="B622" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C622" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D622" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E622" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="362">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1099,83 +1099,35 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Batch1</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount&lt;&gt;Free Addons,Internet Bonus||PlanBundle--Go Business 65::15% Discount||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Social Pass,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount||PlanBundle--Go Business 65::15% Discount||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Social Pass,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||SIM--121212||PlanName--Postpaid Go Business 65 Plan Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Internet Regular::Business Internet Regular 100% discount for 6 months,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount||PlanBundle--Go Business 65::15% Discount||</t>
-  </si>
-  <si>
-    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Internet Regular::Business Internet Regular 100% discount for 6 months,Business Local Minutes Pack ::Business Internet Super Pack 50% Discount||</t>
-  </si>
-  <si>
-    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Vodafone Passport,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount||PlanBundle--Business Value 225::15% Discount||</t>
-  </si>
-  <si>
-    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount&lt;&gt;Free Addons,Internet Bonus||PlanBundle--Business Value 225::15% Discount||</t>
-  </si>
-  <si>
-    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Vodafone Passport::Vodafone Passport 100% Discount,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount||PlanBundle--Business Value 225::15% Discount||</t>
-  </si>
-  <si>
-    <t>Account_No--121212||MSISDN--121212||SIM--12121||PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount&lt;&gt;Free Addons,Internet Bonus||Remove_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 50% Discount,Vodafone Passport::Vodafone Passport 100% Discount||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 50% Discount,Vodafone Passport::Vodafone Passport 100% Discount||Remove_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Remove_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount||Remove_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--121212||New_PlanName--Postpaid Business Value 225 Promotion||Spendlimit--0.01||||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
-  </si>
-  <si>
-    <t>Add_Addon--Paid Addons,Business Local Minutes Pack,Vodafone Passport&lt;&gt;Others,Mobile Voicemail||Remove_Addon--Paid Addons,Vodafone Passport||</t>
-  </si>
-  <si>
-    <t>PlanName--Postpaid Business Value 225 Promotion||PlanBundle--Business Value 225::Business Red 30% Discount||</t>
-  </si>
-  <si>
-    <t>AddonDiscount</t>
-  </si>
-  <si>
-    <t>Add_Addon--Paid Addons,Business Local Minutes Pack::Business Local Minutes Pack 25% Discount,Vodafone Passport::Vodafone Passport 100% Discount||</t>
-  </si>
-  <si>
     <t>ConsumerFixedLine_Bulk</t>
   </si>
   <si>
     <t>AccontSearch_FL</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Mcare_VerifyBuckets</t>
+  </si>
+  <si>
+    <t>verifyMCareBuckets</t>
+  </si>
+  <si>
+    <t>Mcare_BillPayments</t>
+  </si>
+  <si>
+    <t>McareBillPayment</t>
+  </si>
+  <si>
+    <t>MVACookies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1233,26 +1185,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1292,7 +1224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1348,63 +1280,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,38 +1324,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1952,7 +1811,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,10 +1891,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,10 +1903,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2080,489 +1939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>354</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>354</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>354</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>354</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>374</v>
-      </c>
-      <c r="H25" t="s">
-        <v>375</v>
-      </c>
-    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -2572,10 +1949,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E622"/>
+  <dimension ref="A1:E640"/>
   <sheetViews>
-    <sheetView topLeftCell="A605" workbookViewId="0">
-      <selection activeCell="F611" sqref="F611"/>
+    <sheetView topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="B617" sqref="B617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,89 +9789,106 @@
         <v>25</v>
       </c>
     </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="25">
+        <v>1</v>
+      </c>
+      <c r="B535" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C535" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D535" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E535" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A536" s="3">
-        <v>1</v>
-      </c>
-      <c r="B536" s="3" t="s">
+      <c r="A536" s="25">
+        <v>2</v>
+      </c>
+      <c r="B536" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C536" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D536" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E536" s="6" t="s">
-        <v>12</v>
+      <c r="C536" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D536" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E536" s="27" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A537" s="3">
-        <v>2</v>
-      </c>
-      <c r="B537" s="3" t="s">
+      <c r="A537" s="25">
+        <v>3</v>
+      </c>
+      <c r="B537" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C537" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D537" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E537" s="6" t="s">
-        <v>311</v>
+      <c r="C537" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D537" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E537" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A538" s="3">
-        <v>3</v>
-      </c>
-      <c r="B538" s="3" t="s">
+      <c r="A538" s="25">
+        <v>4</v>
+      </c>
+      <c r="B538" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C538" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D538" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E538" s="6" t="s">
-        <v>25</v>
+      <c r="C538" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D538" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="26" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A539" s="3">
-        <v>4</v>
-      </c>
-      <c r="B539" s="3" t="s">
+      <c r="A539" s="25">
+        <v>5</v>
+      </c>
+      <c r="B539" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C539" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D539" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E539" s="5" t="s">
-        <v>284</v>
+      <c r="C539" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D539" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="26" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A540" s="3">
-        <v>5</v>
-      </c>
-      <c r="B540" s="3" t="s">
+      <c r="A540" s="25">
+        <v>6</v>
+      </c>
+      <c r="B540" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C540" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D540" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E540" s="5" t="s">
-        <v>285</v>
+      <c r="C540" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D540" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E540" s="26" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -10582,32 +9976,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="548" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="3">
+    <row r="548" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="22">
         <v>1</v>
       </c>
-      <c r="B548" s="19" t="s">
+      <c r="B548" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C548" s="20" t="s">
+      <c r="C548" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D548" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E548" s="21" t="s">
+      <c r="D548" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E548" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="3">
+    <row r="549" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="22">
         <v>2</v>
       </c>
       <c r="B549" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C549" s="24" t="s">
+      <c r="C549" s="23" t="s">
         <v>323</v>
       </c>
       <c r="D549" s="23" t="s">
@@ -10617,8 +10010,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="3">
+    <row r="550" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="22">
         <v>3</v>
       </c>
       <c r="B550" s="22" t="s">
@@ -10633,6 +10026,13 @@
       <c r="E550" s="23" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="551" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="22"/>
+      <c r="B551" s="22"/>
+      <c r="C551" s="22"/>
+      <c r="D551" s="22"/>
+      <c r="E551" s="22"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" s="3">
@@ -11212,400 +10612,664 @@
         <v>103</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="597" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="25">
         <v>1</v>
       </c>
-      <c r="B597" s="26" t="s">
+      <c r="B597" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C597" s="20" t="s">
+      <c r="C597" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D597" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E597" s="20" t="s">
+      <c r="D597" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E597" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="27">
+    <row r="598" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="25">
         <v>2</v>
       </c>
       <c r="B598" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C598" s="23" t="s">
+      <c r="C598" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D598" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E598" s="23" t="s">
+      <c r="D598" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E598" s="27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="27">
+    <row r="599" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="25">
         <v>3</v>
       </c>
       <c r="B599" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C599" s="23" t="s">
+      <c r="C599" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D599" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E599" s="23" t="s">
+      <c r="D599" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E599" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="27">
+    <row r="600" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="25">
         <v>4</v>
       </c>
       <c r="B600" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C600" s="23" t="s">
+      <c r="C600" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D600" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E600" s="23" t="s">
+      <c r="D600" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E600" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="27">
+    <row r="601" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="25">
         <v>5</v>
       </c>
       <c r="B601" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C601" s="23" t="s">
+      <c r="C601" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D601" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E601" s="23" t="s">
+      <c r="D601" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E601" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="27">
+    <row r="602" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="25">
         <v>6</v>
       </c>
       <c r="B602" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C602" s="23" t="s">
+      <c r="C602" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D602" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E602" s="29" t="s">
+      <c r="D602" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E602" s="27" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="27">
+    <row r="603" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="25">
         <v>7</v>
       </c>
       <c r="B603" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C603" s="23" t="s">
+      <c r="C603" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D603" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E603" s="23" t="s">
+      <c r="D603" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E603" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="27">
+    <row r="604" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="25">
         <v>8</v>
       </c>
       <c r="B604" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C604" s="23" t="s">
+      <c r="C604" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D604" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E604" s="29" t="s">
+      <c r="D604" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E604" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A605" s="27">
+    <row r="605" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="25">
         <v>9</v>
       </c>
       <c r="B605" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C605" s="23" t="s">
+      <c r="C605" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D605" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E605" s="23" t="s">
+      <c r="D605" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E605" s="27" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="27">
+    <row r="606" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="25">
         <v>10</v>
       </c>
       <c r="B606" s="28" t="s">
         <v>345</v>
       </c>
-      <c r="C606" s="23" t="s">
+      <c r="C606" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D606" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E606" s="29" t="s">
+      <c r="D606" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E606" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="22"/>
-      <c r="B607" s="28"/>
-      <c r="C607" s="28"/>
-      <c r="D607" s="28"/>
-      <c r="E607" s="28"/>
-    </row>
-    <row r="608" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A608" s="27">
+    <row r="607" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="25"/>
+      <c r="B607" s="25"/>
+      <c r="C607" s="25"/>
+      <c r="D607" s="25"/>
+      <c r="E607" s="25"/>
+    </row>
+    <row r="608" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="25">
         <v>1</v>
       </c>
       <c r="B608" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="C608" s="23" t="s">
+      <c r="C608" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D608" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E608" s="29" t="s">
+      <c r="D608" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E608" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A609" s="27">
+    <row r="609" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="25">
         <v>2</v>
       </c>
       <c r="B609" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="C609" s="23" t="s">
+      <c r="C609" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="D609" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E609" s="29" t="s">
+      <c r="D609" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E609" s="27" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="27">
+    <row r="610" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="25">
         <v>3</v>
       </c>
       <c r="B610" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="C610" s="23" t="s">
+      <c r="C610" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D610" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E610" s="29" t="s">
+      <c r="D610" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E610" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A611" s="22"/>
-      <c r="B611" s="28"/>
-      <c r="C611" s="28"/>
-      <c r="D611" s="28"/>
-      <c r="E611" s="28"/>
-    </row>
-    <row r="612" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A612" s="22"/>
-      <c r="B612" s="28"/>
-      <c r="C612" s="28"/>
-      <c r="D612" s="28"/>
-      <c r="E612" s="28"/>
-    </row>
-    <row r="613" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="27">
+    <row r="611" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="25"/>
+      <c r="B611" s="25"/>
+      <c r="C611" s="25"/>
+      <c r="D611" s="25"/>
+      <c r="E611" s="25"/>
+    </row>
+    <row r="612" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="25">
         <v>1</v>
+      </c>
+      <c r="B612" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C612" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D612" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E612" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="25">
+        <v>2</v>
       </c>
       <c r="B613" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="C613" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D613" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E613" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="614" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="27">
-        <v>2</v>
+      <c r="C613" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D613" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E613" s="27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="25">
+        <v>3</v>
       </c>
       <c r="B614" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="C614" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="D614" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E614" s="29" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="615" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="27">
-        <v>3</v>
-      </c>
-      <c r="B615" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="C615" s="23" t="s">
+      <c r="C614" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D615" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E615" s="29" t="s">
+      <c r="D614" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E614" s="27" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="3">
+        <v>1</v>
+      </c>
+      <c r="B616" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E616" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C617" s="6" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="D617" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E617" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C618" s="6" t="s">
-        <v>377</v>
+        <v>97</v>
       </c>
       <c r="D618" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E618" s="6" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C619" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D619" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E619" s="6" t="s">
-        <v>140</v>
+        <v>354</v>
+      </c>
+      <c r="C619" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E619" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C620" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D620" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E620" s="5" t="s">
-        <v>26</v>
+        <v>354</v>
+      </c>
+      <c r="C620" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D620" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E620" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C621" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D621" s="6" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E621" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A622" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="19">
+        <v>1</v>
+      </c>
+      <c r="B623" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C623" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D623" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E623" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="19">
+        <v>2</v>
+      </c>
+      <c r="B624" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C624" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D624" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E624" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="19">
+        <v>3</v>
+      </c>
+      <c r="B625" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C625" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D625" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E625" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="22">
+        <v>1</v>
+      </c>
+      <c r="B627" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C627" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D627" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="22">
+        <v>2</v>
+      </c>
+      <c r="B628" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C628" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D628" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E628" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="22">
+        <v>3</v>
+      </c>
+      <c r="B629" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C629" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D629" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E629" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="22">
+        <v>4</v>
+      </c>
+      <c r="B630" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C630" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D630" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E630" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="22">
+        <v>1</v>
+      </c>
+      <c r="B632" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C632" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D632" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E632" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="22">
+        <v>2</v>
+      </c>
+      <c r="B633" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C633" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D633" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E633" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="22">
+        <v>3</v>
+      </c>
+      <c r="B634" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C634" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D634" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E634" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="22">
+        <v>4</v>
+      </c>
+      <c r="B635" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C635" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D635" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E635" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="22">
+        <v>5</v>
+      </c>
+      <c r="B636" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C636" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D636" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E636" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="22">
         <v>6</v>
       </c>
-      <c r="B622" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C622" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D622" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E622" s="6" t="s">
-        <v>103</v>
+      <c r="B637" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C637" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="D637" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E637" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="22">
+        <v>7</v>
+      </c>
+      <c r="B638" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C638" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D638" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E638" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="22">
+        <v>8</v>
+      </c>
+      <c r="B639" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C639" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D639" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E639" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="22">
+        <v>9</v>
+      </c>
+      <c r="B640" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C640" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D640" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E640" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -1096,31 +1096,31 @@
     <t>mav@2018</t>
   </si>
   <si>
+    <t>ConsumerFixedLine_Bulk</t>
+  </si>
+  <si>
+    <t>AccontSearch_FL</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Mcare_VerifyBuckets</t>
+  </si>
+  <si>
+    <t>verifyMCareBuckets</t>
+  </si>
+  <si>
+    <t>Mcare_BillPayments</t>
+  </si>
+  <si>
+    <t>McareBillPayment</t>
+  </si>
+  <si>
+    <t>MVACookies</t>
+  </si>
+  <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>ConsumerFixedLine_Bulk</t>
-  </si>
-  <si>
-    <t>AccontSearch_FL</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>Mcare_VerifyBuckets</t>
-  </si>
-  <si>
-    <t>verifyMCareBuckets</t>
-  </si>
-  <si>
-    <t>Mcare_BillPayments</t>
-  </si>
-  <si>
-    <t>McareBillPayment</t>
-  </si>
-  <si>
-    <t>MVACookies</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1868,7 @@
         <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9882,13 +9882,13 @@
         <v>310</v>
       </c>
       <c r="C540" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D540" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E540" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
         <v>1</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C616" s="6" t="s">
         <v>12</v>
@@ -10920,10 +10920,10 @@
         <v>2</v>
       </c>
       <c r="B617" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C617" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="C617" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="D617" s="6" t="s">
         <v>15</v>
@@ -10937,7 +10937,7 @@
         <v>3</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C618" s="6" t="s">
         <v>97</v>
@@ -10954,7 +10954,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>25</v>
@@ -10971,7 +10971,7 @@
         <v>5</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C620" s="6" t="s">
         <v>98</v>
@@ -10988,7 +10988,7 @@
         <v>6</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C621" s="6" t="s">
         <v>99</v>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="B623" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C623" s="20" t="s">
         <v>12</v>
@@ -11022,16 +11022,16 @@
         <v>2</v>
       </c>
       <c r="B624" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C624" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D624" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E624" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -11039,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="B625" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C625" s="20" t="s">
         <v>25</v>
@@ -11056,7 +11056,7 @@
         <v>1</v>
       </c>
       <c r="B627" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C627" s="23" t="s">
         <v>135</v>
@@ -11073,7 +11073,7 @@
         <v>2</v>
       </c>
       <c r="B628" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C628" s="23" t="s">
         <v>284</v>
@@ -11090,7 +11090,7 @@
         <v>3</v>
       </c>
       <c r="B629" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C629" s="23" t="s">
         <v>285</v>
@@ -11107,16 +11107,16 @@
         <v>4</v>
       </c>
       <c r="B630" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C630" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C630" s="23" t="s">
-        <v>358</v>
-      </c>
       <c r="D630" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E630" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="632" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="B632" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C632" s="23" t="s">
         <v>12</v>
@@ -11141,7 +11141,7 @@
         <v>2</v>
       </c>
       <c r="B633" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C633" s="23" t="s">
         <v>272</v>
@@ -11158,7 +11158,7 @@
         <v>3</v>
       </c>
       <c r="B634" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C634" s="23" t="s">
         <v>25</v>
@@ -11175,7 +11175,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C635" s="23" t="s">
         <v>284</v>
@@ -11192,7 +11192,7 @@
         <v>5</v>
       </c>
       <c r="B636" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C636" s="23" t="s">
         <v>285</v>
@@ -11209,16 +11209,16 @@
         <v>6</v>
       </c>
       <c r="B637" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C637" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C637" s="23" t="s">
-        <v>360</v>
-      </c>
       <c r="D637" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E637" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="638" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11226,7 +11226,7 @@
         <v>7</v>
       </c>
       <c r="B638" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C638" s="23" t="s">
         <v>12</v>
@@ -11243,7 +11243,7 @@
         <v>8</v>
       </c>
       <c r="B639" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C639" s="23" t="s">
         <v>271</v>
@@ -11260,7 +11260,7 @@
         <v>9</v>
       </c>
       <c r="B640" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C640" s="23" t="s">
         <v>25</v>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -1810,7 +1810,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1951,8 +1951,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E640"/>
   <sheetViews>
-    <sheetView topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="B617" sqref="B617"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="G510" sqref="G510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9378,8 +9378,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C507" s="5"/>
+    <row r="507" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="25"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="25"/>
+      <c r="D507" s="25"/>
+      <c r="E507" s="25"/>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="3">

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wsw\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDetails" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="366">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1121,12 +1121,24 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Spendlimit</t>
+  </si>
+  <si>
+    <t>ModifySpendlimit</t>
+  </si>
+  <si>
+    <t>SelfRecharge</t>
+  </si>
+  <si>
+    <t>Mcare_SelfRecharge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1810,7 +1822,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1949,10 +1961,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E640"/>
+  <dimension ref="A1:E648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="G510" sqref="G510"/>
+    <sheetView topLeftCell="A642" workbookViewId="0">
+      <selection activeCell="B646" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11274,6 +11286,108 @@
       </c>
       <c r="E640" s="23" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="25">
+        <v>1</v>
+      </c>
+      <c r="B642" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C642" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E642" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="25">
+        <v>2</v>
+      </c>
+      <c r="B643" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C643" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D643" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E643" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="25">
+        <v>3</v>
+      </c>
+      <c r="B644" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C644" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D644" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E644" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="3">
+        <v>1</v>
+      </c>
+      <c r="B646" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C646" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D646" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E646" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="3">
+        <v>2</v>
+      </c>
+      <c r="B647" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C647" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D647" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E647" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="3">
+        <v>3</v>
+      </c>
+      <c r="B648" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C648" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D648" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E648" s="26" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sravanireddyc\Desktop\wsw\VFQA-Parallel\Framework\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haleemimranb\Desktop\Imran\Workspace_Parallel\VFQA-Parallel\Framework\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="370">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1087,15 +1087,6 @@
     <t>ReplicateOrder</t>
   </si>
   <si>
-    <t>https://10.162.53.100:4443/ecommunications_oui_enu/start.swe?</t>
-  </si>
-  <si>
-    <t>Srirams</t>
-  </si>
-  <si>
-    <t>mav@2018</t>
-  </si>
-  <si>
     <t>ConsumerFixedLine_Bulk</t>
   </si>
   <si>
@@ -1133,12 +1124,33 @@
   </si>
   <si>
     <t>Mcare_SelfRecharge</t>
+  </si>
+  <si>
+    <t>Mcare_Post_FlexVerify</t>
+  </si>
+  <si>
+    <t>FlexBalance_RTB</t>
+  </si>
+  <si>
+    <t>FlexBalance</t>
+  </si>
+  <si>
+    <t>Mcare_Pre_FlexVerify</t>
+  </si>
+  <si>
+    <t>https://10.162.11.75:4443/ecommunications_oui_enu/start.swe?</t>
+  </si>
+  <si>
+    <t>KALISARAVANAN</t>
+  </si>
+  <si>
+    <t>Maveric@2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1820,7 +1832,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -1831,8 +1843,8 @@
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1871,27 +1883,16 @@
         <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -1961,10 +1962,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E648"/>
+  <dimension ref="A1:E658"/>
   <sheetViews>
-    <sheetView topLeftCell="A642" workbookViewId="0">
-      <selection activeCell="B646" sqref="B646"/>
+    <sheetView topLeftCell="A647" workbookViewId="0">
+      <selection activeCell="I655" sqref="I655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,7 +1975,6 @@
     <col min="3" max="3" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -9898,13 +9898,13 @@
         <v>310</v>
       </c>
       <c r="C540" s="26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D540" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E540" s="26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C616" s="6" t="s">
         <v>12</v>
@@ -10936,10 +10936,10 @@
         <v>2</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C617" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D617" s="6" t="s">
         <v>15</v>
@@ -10953,7 +10953,7 @@
         <v>3</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C618" s="6" t="s">
         <v>97</v>
@@ -10970,7 +10970,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C619" s="5" t="s">
         <v>25</v>
@@ -10987,7 +10987,7 @@
         <v>5</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C620" s="6" t="s">
         <v>98</v>
@@ -11004,7 +11004,7 @@
         <v>6</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C621" s="6" t="s">
         <v>99</v>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="B623" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C623" s="20" t="s">
         <v>12</v>
@@ -11038,16 +11038,16 @@
         <v>2</v>
       </c>
       <c r="B624" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C624" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D624" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E624" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -11055,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="B625" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C625" s="20" t="s">
         <v>25</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="B627" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C627" s="23" t="s">
         <v>135</v>
@@ -11089,7 +11089,7 @@
         <v>2</v>
       </c>
       <c r="B628" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C628" s="23" t="s">
         <v>284</v>
@@ -11106,7 +11106,7 @@
         <v>3</v>
       </c>
       <c r="B629" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C629" s="23" t="s">
         <v>285</v>
@@ -11123,16 +11123,16 @@
         <v>4</v>
       </c>
       <c r="B630" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C630" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D630" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E630" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="632" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="B632" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C632" s="23" t="s">
         <v>12</v>
@@ -11157,7 +11157,7 @@
         <v>2</v>
       </c>
       <c r="B633" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C633" s="23" t="s">
         <v>272</v>
@@ -11174,7 +11174,7 @@
         <v>3</v>
       </c>
       <c r="B634" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C634" s="23" t="s">
         <v>25</v>
@@ -11191,7 +11191,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C635" s="23" t="s">
         <v>284</v>
@@ -11208,7 +11208,7 @@
         <v>5</v>
       </c>
       <c r="B636" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C636" s="23" t="s">
         <v>285</v>
@@ -11225,16 +11225,16 @@
         <v>6</v>
       </c>
       <c r="B637" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C637" s="23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D637" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E637" s="23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="638" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -11242,7 +11242,7 @@
         <v>7</v>
       </c>
       <c r="B638" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C638" s="23" t="s">
         <v>12</v>
@@ -11259,7 +11259,7 @@
         <v>8</v>
       </c>
       <c r="B639" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C639" s="23" t="s">
         <v>271</v>
@@ -11276,7 +11276,7 @@
         <v>9</v>
       </c>
       <c r="B640" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C640" s="23" t="s">
         <v>25</v>
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="B642" s="28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C642" s="26" t="s">
         <v>12</v>
@@ -11310,10 +11310,10 @@
         <v>2</v>
       </c>
       <c r="B643" s="28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C643" s="26" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D643" s="27" t="s">
         <v>15</v>
@@ -11327,7 +11327,7 @@
         <v>3</v>
       </c>
       <c r="B644" s="28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C644" s="27" t="s">
         <v>25</v>
@@ -11344,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C646" s="26" t="s">
         <v>284</v>
@@ -11361,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="B647" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C647" s="26" t="s">
         <v>285</v>
@@ -11378,16 +11378,159 @@
         <v>3</v>
       </c>
       <c r="B648" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C648" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D648" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E648" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="25">
+        <v>1</v>
+      </c>
+      <c r="B650" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C650" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D650" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E650" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="25">
+        <v>2</v>
+      </c>
+      <c r="B651" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C651" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D651" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E651" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="25">
+        <v>3</v>
+      </c>
+      <c r="B652" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C652" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D652" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E652" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="25">
+        <v>4</v>
+      </c>
+      <c r="B653" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C653" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="C648" s="26" t="s">
+      <c r="D653" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E653" s="26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="25"/>
+      <c r="B654" s="25"/>
+      <c r="C654" s="25"/>
+      <c r="D654" s="25"/>
+      <c r="E654" s="25"/>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="25">
+        <v>1</v>
+      </c>
+      <c r="B655" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C655" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="D648" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E648" s="26" t="s">
+      <c r="D655" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E655" s="26" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="25">
+        <v>2</v>
+      </c>
+      <c r="B656" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C656" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D656" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E656" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="25">
+        <v>3</v>
+      </c>
+      <c r="B657" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C657" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D657" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E657" s="26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="25">
+        <v>4</v>
+      </c>
+      <c r="B658" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C658" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D658" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E658" s="26" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="373">
   <si>
     <t>Application_Details</t>
   </si>
@@ -1145,6 +1145,15 @@
   </si>
   <si>
     <t>Maveric@2018</t>
+  </si>
+  <si>
+    <t>Batch1</t>
+  </si>
+  <si>
+    <t>Credit_recharge</t>
+  </si>
+  <si>
+    <t>MSISDN--97470899013||DeviceName--DeviceOne||Env--Test||RechargeCredit--100||</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1844,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,8 +1915,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,10 +1925,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="79.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1952,7 +1961,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Framework/Database/TestDataDB.xlsx
+++ b/Framework/Database/TestDataDB.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="370">
   <si>
     <t>Application_Details</t>
   </si>
@@ -937,223 +937,214 @@
     <t>ZIP XML File</t>
   </si>
   <si>
+    <t>Project_Name</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>Cancel_Order</t>
+  </si>
+  <si>
+    <t>CancelOrder</t>
+  </si>
+  <si>
+    <t>To Cancel Open Orders</t>
+  </si>
+  <si>
+    <t>Trial_BillRun</t>
+  </si>
+  <si>
+    <t>Trail Bill generation</t>
+  </si>
+  <si>
+    <t>Account360_Modify</t>
+  </si>
+  <si>
+    <t>Addon Activation 360 View</t>
+  </si>
+  <si>
+    <t>Mcare_Cookies</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Mcare_Post_ProdDeActivation</t>
+  </si>
+  <si>
+    <t>Addon_Activation</t>
+  </si>
+  <si>
+    <t>PostAddon_Deactivation</t>
+  </si>
+  <si>
+    <t>Mcare_Post_ProdActivation</t>
+  </si>
+  <si>
+    <t>PostAddon_Activation</t>
+  </si>
+  <si>
+    <t>CheckBalance</t>
+  </si>
+  <si>
+    <t>Addon_DeActivation</t>
+  </si>
+  <si>
+    <t>Mcare_DeActivation</t>
+  </si>
+  <si>
+    <t>Mcare_ProdActivation</t>
+  </si>
+  <si>
+    <t>BillGeneration_BillingProfile</t>
+  </si>
+  <si>
+    <t>Cancel_Pending_Order</t>
+  </si>
+  <si>
+    <t>DropPendingOrder</t>
+  </si>
+  <si>
+    <t>To Drop Pending Orders</t>
+  </si>
+  <si>
+    <t>Siebel_NBO</t>
+  </si>
+  <si>
+    <t>Seibel_NBO</t>
+  </si>
+  <si>
+    <t>Selecting Next Best offer</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>Suspend_Account</t>
+  </si>
+  <si>
+    <t>Suspension_Account</t>
+  </si>
+  <si>
+    <t>FL_Disconnect</t>
+  </si>
+  <si>
+    <t>FL_Disconnection</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_DAPN</t>
+  </si>
+  <si>
+    <t>Upgradation of DAPN Plan</t>
+  </si>
+  <si>
+    <t>Get_PUK</t>
+  </si>
+  <si>
+    <t>getPUK</t>
+  </si>